--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B124972F-9F8F-DE42-A2CB-68715D969CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A57E4E-730A-8D40-8D95-FACCD74A5632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="372">
   <si>
     <t>no</t>
   </si>
@@ -958,22 +958,13 @@
     <t>이름 변경</t>
   </si>
   <si>
-    <t>rename</t>
-  </si>
-  <si>
     <t>manipulation_method의 element</t>
   </si>
   <si>
     <t>형 변환</t>
   </si>
   <si>
-    <t>change_type</t>
-  </si>
-  <si>
     <t>변수 삭제</t>
-  </si>
-  <si>
-    <t>remove</t>
   </si>
   <si>
     <t>Variable name for change:</t>
@@ -1146,6 +1137,33 @@
   </si>
   <si>
     <t>데이터 요약 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 순서변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reorder levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add extension to variable name</t>
+  </si>
+  <si>
+    <t>형 변환으로 추가할 변수의 접미어 안내문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 만들 변수의 접미어 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2514,10 +2532,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -5539,7 +5557,7 @@
         <v>311</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>13</v>
@@ -5551,7 +5569,7 @@
         <v>69</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="20" customHeight="1">
@@ -5568,10 +5586,10 @@
         <v>59</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>13</v>
@@ -5583,7 +5601,7 @@
         <v>69</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="20" customHeight="1">
@@ -5600,10 +5618,10 @@
         <v>59</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="G98" s="10" t="s">
         <v>13</v>
@@ -5615,7 +5633,7 @@
         <v>69</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="20" customHeight="1">
@@ -5632,22 +5650,22 @@
         <v>59</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="20" customHeight="1">
@@ -5664,22 +5682,22 @@
         <v>59</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I100" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="20" customHeight="1">
@@ -5695,23 +5713,23 @@
       <c r="D101" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>340</v>
+      <c r="E101" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="I101" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J101" s="9" t="s">
-        <v>334</v>
+      <c r="J101" s="10" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="20" customHeight="1">
@@ -5728,26 +5746,26 @@
         <v>59</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="G102" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I102" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="20" customHeight="1">
-      <c r="A103" s="7">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -5760,22 +5778,22 @@
         <v>59</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G103" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="20" customHeight="1">
@@ -5792,22 +5810,22 @@
         <v>59</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G104" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="20" customHeight="1">
@@ -5824,26 +5842,26 @@
         <v>59</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="20" customHeight="1">
-      <c r="A106" s="3">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -5856,22 +5874,22 @@
         <v>59</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G106" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="20" customHeight="1">
@@ -5888,26 +5906,26 @@
         <v>59</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="20" customHeight="1">
-      <c r="A108" s="7">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
@@ -5920,22 +5938,22 @@
         <v>59</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>140</v>
+        <v>349</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="20" customHeight="1">
@@ -5952,22 +5970,22 @@
         <v>59</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>140</v>
+        <v>369</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="20" customHeight="1">
@@ -5984,20 +6002,22 @@
         <v>59</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="H110" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>346</v>
+      </c>
       <c r="I110" s="10" t="s">
-        <v>364</v>
+        <v>69</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="20" customHeight="1">
@@ -6014,20 +6034,22 @@
         <v>59</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="H111" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>353</v>
+      </c>
       <c r="I111" s="10" t="s">
-        <v>364</v>
+        <v>69</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="20" customHeight="1">
@@ -6043,12 +6065,22 @@
       <c r="D112" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="10"/>
+      <c r="E112" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>360</v>
+      </c>
       <c r="H112" s="9"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="9"/>
+      <c r="I112" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="113" spans="1:10" ht="20" customHeight="1">
       <c r="A113" s="7">
@@ -6063,15 +6095,25 @@
       <c r="D113" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="10"/>
+      <c r="E113" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>360</v>
+      </c>
       <c r="H113" s="9"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="9"/>
+      <c r="I113" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="114" spans="1:10" ht="20" customHeight="1">
-      <c r="A114" s="7">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -6095,29 +6137,69 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="9"/>
+    </row>
+    <row r="116" spans="1:10" ht="20" customHeight="1">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="1:10" ht="20" customHeight="1">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="G117" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="10" t="s">
+      <c r="I117" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J117" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="I115" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J115" s="10" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A57E4E-730A-8D40-8D95-FACCD74A5632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369D002-B8EA-9049-A883-2CDB46B6B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13880" yWindow="4460" windowWidth="37380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="401">
   <si>
     <t>no</t>
   </si>
@@ -451,9 +451,6 @@
     <t>데이터셋의 시스템 저장</t>
   </si>
   <si>
-    <t>데이터셋 목록</t>
-  </si>
-  <si>
     <t>Dataset list</t>
   </si>
   <si>
@@ -463,28 +460,13 @@
     <t>저장한 데이터셋의 정보 출력</t>
   </si>
   <si>
-    <t>변수정보</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
-    <t>data_type</t>
-  </si>
-  <si>
-    <t>선택한 데이터셋의 변수 정보 출력</t>
-  </si>
-  <si>
-    <t>샘플데이터</t>
-  </si>
-  <si>
     <t>Sample data</t>
   </si>
   <si>
     <t>tab_sample</t>
-  </si>
-  <si>
-    <t>선택한 데이터셋의 샘플 데이터 출력</t>
   </si>
   <si>
     <t>데이터셋 삭제</t>
@@ -1164,6 +1146,137 @@
   </si>
   <si>
     <t>새로 만들 변수의 접미어 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list의 변수 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 이름</t>
+  </si>
+  <si>
+    <t>데이터셋 설명</t>
+  </si>
+  <si>
+    <t>관측치 개수</t>
+  </si>
+  <si>
+    <t>변수 개수</t>
+  </si>
+  <si>
+    <t>데이터셋 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of observations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 이름</t>
+  </si>
+  <si>
+    <t>데이터 타입</t>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list의 선택한 데이터셋의 변수 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list의 선택한 데이터셋의 샘플 데이터 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list 변수정보의 변수 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list 변수정보의 데이터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정합성체크 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_message</t>
+  </si>
+  <si>
+    <t>정합성 오류</t>
+  </si>
+  <si>
+    <t>No input error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unselected error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consistency error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미입력 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미선택 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋</t>
+  </si>
+  <si>
+    <t>Dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2532,17 +2645,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74.5" style="2" bestFit="1" customWidth="1"/>
@@ -3868,22 +3981,22 @@
         <v>49</v>
       </c>
       <c r="E43" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>126</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>145</v>
+        <v>366</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="20" customHeight="1">
@@ -3900,22 +4013,22 @@
         <v>49</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>147</v>
+        <v>372</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>150</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="20" customHeight="1">
@@ -3932,22 +4045,22 @@
         <v>49</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>151</v>
+        <v>368</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>152</v>
+        <v>373</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>154</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1">
@@ -3964,26 +4077,26 @@
         <v>49</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>155</v>
+        <v>369</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>156</v>
+        <v>375</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>158</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="20" customHeight="1">
-      <c r="A47" s="7">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -3996,22 +4109,22 @@
         <v>49</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>159</v>
+        <v>370</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>160</v>
+        <v>376</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="20" customHeight="1">
@@ -4028,22 +4141,22 @@
         <v>49</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>163</v>
+        <v>371</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>164</v>
+        <v>377</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="20" customHeight="1">
@@ -4060,26 +4173,26 @@
         <v>49</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>129</v>
+        <v>378</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>130</v>
+        <v>387</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>133</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="20" customHeight="1">
-      <c r="A50" s="3">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -4092,22 +4205,22 @@
         <v>49</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>137</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="20" customHeight="1">
@@ -4124,22 +4237,22 @@
         <v>49</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>169</v>
+        <v>381</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>172</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="20" customHeight="1">
@@ -4156,22 +4269,22 @@
         <v>49</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>173</v>
+        <v>382</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>176</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="20" customHeight="1">
@@ -4188,22 +4301,22 @@
         <v>49</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20" customHeight="1">
@@ -4220,22 +4333,22 @@
         <v>49</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="20" customHeight="1">
@@ -4252,22 +4365,22 @@
         <v>49</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20" customHeight="1">
@@ -4284,26 +4397,26 @@
         <v>49</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="20" customHeight="1">
-      <c r="A57" s="7">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -4316,26 +4429,26 @@
         <v>49</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="20" customHeight="1">
-      <c r="A58" s="3">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -4348,22 +4461,22 @@
         <v>49</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="20" customHeight="1">
@@ -4380,22 +4493,22 @@
         <v>49</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="20" customHeight="1">
@@ -4406,26 +4519,28 @@
         <v>16</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H60" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="I60" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="20" customHeight="1">
@@ -4436,60 +4551,60 @@
         <v>16</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="20" customHeight="1">
-      <c r="A62" s="7">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="20" customHeight="1">
@@ -4500,28 +4615,28 @@
         <v>16</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="20" customHeight="1">
@@ -4532,28 +4647,28 @@
         <v>16</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="20" customHeight="1">
@@ -4564,60 +4679,60 @@
         <v>16</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="20" customHeight="1">
-      <c r="A66" s="3">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="20" customHeight="1">
@@ -4631,25 +4746,23 @@
         <v>42</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H67" s="9"/>
       <c r="I67" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="20" customHeight="1">
@@ -4663,25 +4776,25 @@
         <v>42</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="20" customHeight="1">
@@ -4695,25 +4808,25 @@
         <v>42</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="20" customHeight="1">
@@ -4727,25 +4840,25 @@
         <v>42</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>126</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="20" customHeight="1">
@@ -4759,29 +4872,29 @@
         <v>42</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="20" customHeight="1">
-      <c r="A72" s="7">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -4791,25 +4904,25 @@
         <v>42</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="20" customHeight="1">
@@ -4823,27 +4936,29 @@
         <v>42</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H73" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="I73" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="20" customHeight="1">
-      <c r="A74" s="3">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -4853,25 +4968,25 @@
         <v>42</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="20" customHeight="1">
@@ -4885,25 +5000,25 @@
         <v>42</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="20" customHeight="1">
@@ -4917,29 +5032,29 @@
         <v>42</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="20" customHeight="1">
-      <c r="A77" s="7">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -4949,25 +5064,25 @@
         <v>42</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="20" customHeight="1">
@@ -4981,25 +5096,25 @@
         <v>42</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="20" customHeight="1">
@@ -5013,23 +5128,25 @@
         <v>42</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H79" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>218</v>
+      </c>
       <c r="I79" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="20" customHeight="1">
@@ -5043,25 +5160,23 @@
         <v>42</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H80" s="9"/>
       <c r="I80" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="20" customHeight="1">
@@ -5075,29 +5190,29 @@
         <v>42</v>
       </c>
       <c r="D81" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>262</v>
-      </c>
       <c r="I81" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="20" customHeight="1">
-      <c r="A82" s="3">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -5107,25 +5222,25 @@
         <v>42</v>
       </c>
       <c r="D82" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H82" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>267</v>
-      </c>
       <c r="I82" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="20" customHeight="1">
@@ -5139,25 +5254,25 @@
         <v>42</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="20" customHeight="1">
@@ -5171,25 +5286,25 @@
         <v>42</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="20" customHeight="1">
@@ -5203,25 +5318,25 @@
         <v>42</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="20" customHeight="1">
@@ -5235,29 +5350,27 @@
         <v>42</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>278</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="20" customHeight="1">
-      <c r="A87" s="7">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -5267,23 +5380,25 @@
         <v>42</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H87" s="9"/>
+        <v>251</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="I87" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="20" customHeight="1">
@@ -5297,25 +5412,25 @@
         <v>42</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="20" customHeight="1">
@@ -5329,29 +5444,29 @@
         <v>42</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="20" customHeight="1">
-      <c r="A90" s="3">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -5361,25 +5476,25 @@
         <v>42</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="20" customHeight="1">
@@ -5393,29 +5508,29 @@
         <v>42</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="20" customHeight="1">
-      <c r="A92" s="7">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -5425,25 +5540,25 @@
         <v>42</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="20" customHeight="1">
@@ -5454,26 +5569,28 @@
         <v>16</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H93" s="9"/>
+        <v>251</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="I93" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="20" customHeight="1">
@@ -5484,28 +5601,26 @@
         <v>16</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>305</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H94" s="9"/>
       <c r="I94" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="20" customHeight="1">
@@ -5516,28 +5631,28 @@
         <v>16</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="20" customHeight="1">
@@ -5548,28 +5663,28 @@
         <v>16</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="20" customHeight="1">
@@ -5580,60 +5695,60 @@
         <v>16</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="20" customHeight="1">
-      <c r="A98" s="3">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>366</v>
+        <v>175</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="20" customHeight="1">
@@ -5644,28 +5759,28 @@
         <v>16</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>367</v>
+        <v>222</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>312</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="20" customHeight="1">
@@ -5682,22 +5797,20 @@
         <v>59</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>316</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H100" s="9"/>
       <c r="I100" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="20" customHeight="1">
@@ -5714,26 +5827,26 @@
         <v>59</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I101" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="20" customHeight="1">
-      <c r="A102" s="7">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -5745,27 +5858,27 @@
       <c r="D102" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="G102" s="9" t="s">
+      <c r="E102" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G102" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="9" t="s">
-        <v>337</v>
+      <c r="H102" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="I102" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J102" s="9" t="s">
-        <v>331</v>
+      <c r="J102" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="20" customHeight="1">
-      <c r="A103" s="3">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -5777,23 +5890,23 @@
       <c r="D103" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J103" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="20" customHeight="1">
@@ -5809,23 +5922,23 @@
       <c r="D104" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G104" s="9" t="s">
+      <c r="E104" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="G104" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H104" s="9" t="s">
-        <v>330</v>
+      <c r="H104" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J104" s="9" t="s">
-        <v>339</v>
+      <c r="J104" s="10" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="20" customHeight="1">
@@ -5841,23 +5954,23 @@
       <c r="D105" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G105" s="9" t="s">
+      <c r="E105" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G105" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H105" s="9" t="s">
-        <v>330</v>
+      <c r="H105" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J105" s="9" t="s">
-        <v>339</v>
+      <c r="J105" s="10" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="20" customHeight="1">
@@ -5873,27 +5986,27 @@
       <c r="D106" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="G106" s="9" t="s">
+      <c r="E106" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G106" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="9" t="s">
-        <v>330</v>
+      <c r="H106" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J106" s="9" t="s">
-        <v>339</v>
+      <c r="J106" s="10" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="20" customHeight="1">
-      <c r="A107" s="7">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -5905,27 +6018,27 @@
       <c r="D107" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>330</v>
+      <c r="E107" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J107" s="9" t="s">
-        <v>339</v>
+      <c r="J107" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="20" customHeight="1">
-      <c r="A108" s="3">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
@@ -5937,23 +6050,23 @@
       <c r="D108" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E108" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>345</v>
+      <c r="E108" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J108" s="9" t="s">
-        <v>351</v>
+      <c r="J108" s="10" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="20" customHeight="1">
@@ -5970,22 +6083,22 @@
         <v>59</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="20" customHeight="1">
@@ -6002,26 +6115,26 @@
         <v>59</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>140</v>
+        <v>334</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="20" customHeight="1">
-      <c r="A111" s="3">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -6034,22 +6147,22 @@
         <v>59</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>140</v>
+        <v>335</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="20" customHeight="1">
@@ -6066,20 +6179,22 @@
         <v>59</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="H112" s="9"/>
+        <v>336</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>324</v>
+      </c>
       <c r="I112" s="10" t="s">
-        <v>361</v>
+        <v>69</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="20" customHeight="1">
@@ -6096,24 +6211,26 @@
         <v>59</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="H113" s="9"/>
+        <v>337</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>324</v>
+      </c>
       <c r="I113" s="10" t="s">
-        <v>361</v>
+        <v>69</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="20" customHeight="1">
-      <c r="A114" s="3">
+      <c r="A114" s="7">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -6125,12 +6242,24 @@
       <c r="D114" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="9"/>
+      <c r="E114" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="115" spans="1:10" ht="20" customHeight="1">
       <c r="A115" s="7">
@@ -6145,12 +6274,24 @@
       <c r="D115" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="9"/>
+      <c r="E115" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="116" spans="1:10" ht="20" customHeight="1">
       <c r="A116" s="7">
@@ -6165,41 +6306,409 @@
       <c r="D116" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="9"/>
+      <c r="E116" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="117" spans="1:10" ht="20" customHeight="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>325</v>
+        <v>44</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>344</v>
       </c>
       <c r="G117" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="20" customHeight="1">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="20" customHeight="1">
+      <c r="A119" s="7">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H119" s="9"/>
+      <c r="I119" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="20" customHeight="1">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H120" s="9"/>
+      <c r="I120" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="20" customHeight="1">
+      <c r="A121" s="7">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="1:10" ht="20" customHeight="1">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="1:10" ht="20" customHeight="1">
+      <c r="A123" s="7">
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:10" ht="20" customHeight="1">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="G124" s="10"/>
+      <c r="H124" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="20" customHeight="1">
+      <c r="A125" s="7">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="E125" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="G125" s="10"/>
+      <c r="H125" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="20" customHeight="1">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G126" s="10"/>
+      <c r="H126" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="20" customHeight="1">
+      <c r="A127" s="7">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D127" s="10"/>
+      <c r="E127" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="G127" s="10"/>
+      <c r="H127" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="20" customHeight="1">
+      <c r="A128" s="7">
+        <v>128</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" ht="20" customHeight="1">
+      <c r="A129" s="7">
+        <v>129</v>
+      </c>
+      <c r="B129" s="8"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:10" ht="20" customHeight="1">
+      <c r="A130" s="7">
+        <v>130</v>
+      </c>
+      <c r="B130" s="8"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="1:10" ht="20" customHeight="1">
+      <c r="A131" s="3">
+        <v>131</v>
+      </c>
+      <c r="B131" s="8"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="1:10" ht="20" customHeight="1">
+      <c r="A132" s="7">
+        <v>132</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="E132" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G132" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H117" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>327</v>
+      <c r="H132" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369D002-B8EA-9049-A883-2CDB46B6B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1ADBD-27BE-5D49-A606-26D758BA63BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="4460" windowWidth="37380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13820" yWindow="4460" windowWidth="37380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="407">
   <si>
     <t>no</t>
   </si>
@@ -1277,6 +1277,30 @@
   </si>
   <si>
     <t>Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋의 이름의 placeholder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성할 데이터셋 이름을 입력하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 부연 설명의 placeholder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name of the dataset you want to create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description of the dataset you want to create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성할 데이터의 설명을 입력하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2645,10 +2669,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -3917,26 +3941,26 @@
         <v>47</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>135</v>
+        <v>404</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>131</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>137</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20" customHeight="1">
-      <c r="A42" s="3">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -3949,22 +3973,22 @@
         <v>47</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="20" customHeight="1">
@@ -3978,25 +4002,25 @@
         <v>39</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>143</v>
+        <v>405</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>366</v>
+        <v>136</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>145</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="20" customHeight="1">
@@ -4010,25 +4034,25 @@
         <v>39</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>367</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="20" customHeight="1">
@@ -4045,22 +4069,22 @@
         <v>49</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>126</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>144</v>
+        <v>366</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>367</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1">
@@ -4077,10 +4101,10 @@
         <v>49</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>126</v>
@@ -4096,7 +4120,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="20" customHeight="1">
-      <c r="A47" s="3">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -4109,10 +4133,10 @@
         <v>49</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>126</v>
@@ -4141,10 +4165,10 @@
         <v>49</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>126</v>
@@ -4173,10 +4197,10 @@
         <v>49</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>126</v>
@@ -4188,7 +4212,7 @@
         <v>15</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="20" customHeight="1">
@@ -4205,10 +4229,10 @@
         <v>49</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>126</v>
@@ -4220,7 +4244,7 @@
         <v>15</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="20" customHeight="1">
@@ -4237,22 +4261,22 @@
         <v>49</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>146</v>
+        <v>387</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>380</v>
+        <v>144</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="20" customHeight="1">
@@ -4269,22 +4293,22 @@
         <v>49</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>147</v>
+        <v>388</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="20" customHeight="1">
@@ -4301,22 +4325,22 @@
         <v>49</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>151</v>
+        <v>380</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>152</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20" customHeight="1">
@@ -4333,22 +4357,22 @@
         <v>49</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>153</v>
+        <v>382</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>156</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="20" customHeight="1">
@@ -4365,22 +4389,22 @@
         <v>49</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>140</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20" customHeight="1">
@@ -4397,26 +4421,26 @@
         <v>49</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="20" customHeight="1">
-      <c r="A57" s="3">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -4429,22 +4453,22 @@
         <v>49</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="20" customHeight="1">
@@ -4461,22 +4485,22 @@
         <v>49</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="20" customHeight="1">
@@ -4493,22 +4517,22 @@
         <v>49</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="20" customHeight="1">
@@ -4525,22 +4549,22 @@
         <v>49</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="20" customHeight="1">
@@ -4557,26 +4581,26 @@
         <v>49</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="20" customHeight="1">
-      <c r="A62" s="3">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -4589,22 +4613,22 @@
         <v>49</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="20" customHeight="1">
@@ -4621,22 +4645,22 @@
         <v>49</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="20" customHeight="1">
@@ -4653,22 +4677,22 @@
         <v>49</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="20" customHeight="1">
@@ -4685,22 +4709,22 @@
         <v>49</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="20" customHeight="1">
@@ -4717,22 +4741,22 @@
         <v>49</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="20" customHeight="1">
@@ -4743,26 +4767,28 @@
         <v>16</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="I67" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="20" customHeight="1">
@@ -4773,28 +4799,28 @@
         <v>16</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="20" customHeight="1">
@@ -4811,22 +4837,20 @@
         <v>51</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>201</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H69" s="9"/>
       <c r="I69" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="20" customHeight="1">
@@ -4840,25 +4864,25 @@
         <v>42</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>126</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="20" customHeight="1">
@@ -4872,29 +4896,29 @@
         <v>42</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="20" customHeight="1">
-      <c r="A72" s="3">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -4907,13 +4931,13 @@
         <v>53</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>205</v>
@@ -4922,7 +4946,7 @@
         <v>15</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="20" customHeight="1">
@@ -4939,10 +4963,10 @@
         <v>53</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>41</v>
@@ -4954,7 +4978,7 @@
         <v>15</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="20" customHeight="1">
@@ -4971,10 +4995,10 @@
         <v>53</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>41</v>
@@ -4986,7 +5010,7 @@
         <v>15</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="20" customHeight="1">
@@ -5003,10 +5027,10 @@
         <v>53</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>41</v>
@@ -5018,7 +5042,7 @@
         <v>15</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="20" customHeight="1">
@@ -5035,10 +5059,10 @@
         <v>53</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>41</v>
@@ -5050,11 +5074,11 @@
         <v>15</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="20" customHeight="1">
-      <c r="A77" s="3">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -5064,25 +5088,25 @@
         <v>42</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="20" customHeight="1">
@@ -5096,25 +5120,25 @@
         <v>42</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="20" customHeight="1">
@@ -5131,13 +5155,13 @@
         <v>55</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>218</v>
@@ -5146,7 +5170,7 @@
         <v>15</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="20" customHeight="1">
@@ -5160,23 +5184,25 @@
         <v>42</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H80" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>218</v>
+      </c>
       <c r="I80" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="20" customHeight="1">
@@ -5190,25 +5216,25 @@
         <v>42</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="20" customHeight="1">
@@ -5225,22 +5251,20 @@
         <v>222</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>228</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H82" s="9"/>
       <c r="I82" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="20" customHeight="1">
@@ -5257,22 +5281,22 @@
         <v>222</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>131</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="20" customHeight="1">
@@ -5289,22 +5313,22 @@
         <v>222</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="20" customHeight="1">
@@ -5321,22 +5345,22 @@
         <v>222</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="20" customHeight="1">
@@ -5353,24 +5377,26 @@
         <v>222</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H86" s="9"/>
+        <v>239</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>240</v>
+      </c>
       <c r="I86" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="20" customHeight="1">
-      <c r="A87" s="3">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -5383,22 +5409,22 @@
         <v>222</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="20" customHeight="1">
@@ -5415,22 +5441,20 @@
         <v>222</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>256</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H88" s="9"/>
       <c r="I88" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="20" customHeight="1">
@@ -5447,22 +5471,22 @@
         <v>222</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="20" customHeight="1">
@@ -5479,22 +5503,22 @@
         <v>222</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="20" customHeight="1">
@@ -5511,10 +5535,10 @@
         <v>222</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>260</v>
@@ -5526,11 +5550,11 @@
         <v>69</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="20" customHeight="1">
-      <c r="A92" s="3">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -5543,10 +5567,10 @@
         <v>222</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>260</v>
@@ -5575,22 +5599,22 @@
         <v>222</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="I93" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="20" customHeight="1">
@@ -5607,20 +5631,22 @@
         <v>222</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H94" s="9"/>
+        <v>260</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="I94" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="20" customHeight="1">
@@ -5637,22 +5663,22 @@
         <v>222</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="20" customHeight="1">
@@ -5669,22 +5695,20 @@
         <v>222</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>283</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H96" s="9"/>
       <c r="I96" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="20" customHeight="1">
@@ -5701,22 +5725,22 @@
         <v>222</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="20" customHeight="1">
@@ -5733,22 +5757,22 @@
         <v>222</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="20" customHeight="1">
@@ -5765,22 +5789,22 @@
         <v>222</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="20" customHeight="1">
@@ -5791,26 +5815,28 @@
         <v>16</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H100" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>290</v>
+      </c>
       <c r="I100" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="20" customHeight="1">
@@ -5821,32 +5847,32 @@
         <v>16</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I101" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="20" customHeight="1">
-      <c r="A102" s="3">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -5859,22 +5885,20 @@
         <v>59</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>303</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H102" s="9"/>
       <c r="I102" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="20" customHeight="1">
@@ -5891,22 +5915,22 @@
         <v>59</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="20" customHeight="1">
@@ -5923,10 +5947,10 @@
         <v>59</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>13</v>
@@ -5938,7 +5962,7 @@
         <v>69</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="20" customHeight="1">
@@ -5955,10 +5979,10 @@
         <v>59</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>13</v>
@@ -5970,7 +5994,7 @@
         <v>69</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="20" customHeight="1">
@@ -5987,10 +6011,10 @@
         <v>59</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>13</v>
@@ -6006,7 +6030,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="20" customHeight="1">
-      <c r="A107" s="3">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -6019,22 +6043,22 @@
         <v>59</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="20" customHeight="1">
@@ -6051,22 +6075,22 @@
         <v>59</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="20" customHeight="1">
@@ -6082,23 +6106,23 @@
       <c r="D109" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E109" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>331</v>
+      <c r="E109" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J109" s="9" t="s">
-        <v>325</v>
+      <c r="J109" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="20" customHeight="1">
@@ -6114,23 +6138,23 @@
       <c r="D110" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E110" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>324</v>
+      <c r="E110" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J110" s="9" t="s">
-        <v>333</v>
+      <c r="J110" s="10" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="20" customHeight="1">
@@ -6147,22 +6171,22 @@
         <v>59</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="20" customHeight="1">
@@ -6179,10 +6203,10 @@
         <v>59</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>13</v>
@@ -6211,10 +6235,10 @@
         <v>59</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>13</v>
@@ -6243,10 +6267,10 @@
         <v>59</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G114" s="9" t="s">
         <v>13</v>
@@ -6275,22 +6299,22 @@
         <v>59</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I115" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="20" customHeight="1">
@@ -6307,26 +6331,26 @@
         <v>59</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I116" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="20" customHeight="1">
-      <c r="A117" s="3">
+      <c r="A117" s="7">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
@@ -6339,22 +6363,22 @@
         <v>59</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>140</v>
+        <v>343</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="20" customHeight="1">
@@ -6371,22 +6395,22 @@
         <v>59</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>140</v>
+        <v>363</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="20" customHeight="1">
@@ -6403,20 +6427,22 @@
         <v>59</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H119" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="I119" s="10" t="s">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="20" customHeight="1">
@@ -6433,20 +6459,22 @@
         <v>59</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H120" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="I120" s="10" t="s">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="20" customHeight="1">
@@ -6462,15 +6490,25 @@
       <c r="D121" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="10"/>
+      <c r="E121" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="H121" s="9"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="9"/>
+      <c r="I121" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="122" spans="1:10" ht="20" customHeight="1">
-      <c r="A122" s="3">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
@@ -6482,12 +6520,22 @@
       <c r="D122" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="10"/>
+      <c r="E122" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="H122" s="9"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="9"/>
+      <c r="I122" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="123" spans="1:10" ht="20" customHeight="1">
       <c r="A123" s="7">
@@ -6514,56 +6562,40 @@
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D124" s="10"/>
-      <c r="E124" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>393</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
       <c r="G124" s="10"/>
-      <c r="H124" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I124" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J124" s="9" t="s">
-        <v>390</v>
-      </c>
+      <c r="H124" s="9"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="9"/>
     </row>
     <row r="125" spans="1:10" ht="20" customHeight="1">
       <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D125" s="10"/>
-      <c r="E125" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>394</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
       <c r="G125" s="10"/>
-      <c r="H125" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I125" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J125" s="9" t="s">
-        <v>390</v>
-      </c>
+      <c r="H125" s="9"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="9"/>
     </row>
     <row r="126" spans="1:10" ht="20" customHeight="1">
       <c r="A126" s="7">
@@ -6577,10 +6609,10 @@
       </c>
       <c r="D126" s="10"/>
       <c r="E126" s="9" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="9" t="s">
@@ -6605,10 +6637,10 @@
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G127" s="10"/>
       <c r="H127" s="9" t="s">
@@ -6623,7 +6655,7 @@
     </row>
     <row r="128" spans="1:10" ht="20" customHeight="1">
       <c r="A128" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>389</v>
@@ -6632,33 +6664,61 @@
         <v>390</v>
       </c>
       <c r="D128" s="10"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
+      <c r="E128" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>395</v>
+      </c>
       <c r="G128" s="10"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="9"/>
+      <c r="H128" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="20" customHeight="1">
       <c r="A129" s="7">
-        <v>129</v>
-      </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>390</v>
+      </c>
       <c r="D129" s="10"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
+      <c r="E129" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="G129" s="10"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="9"/>
+      <c r="H129" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="130" spans="1:10" ht="20" customHeight="1">
       <c r="A130" s="7">
-        <v>130</v>
-      </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="10"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>390</v>
+      </c>
       <c r="D130" s="10"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
@@ -6668,8 +6728,8 @@
       <c r="J130" s="9"/>
     </row>
     <row r="131" spans="1:10" ht="20" customHeight="1">
-      <c r="A131" s="3">
-        <v>131</v>
+      <c r="A131" s="7">
+        <v>130</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="10"/>
@@ -6683,31 +6743,59 @@
     </row>
     <row r="132" spans="1:10" ht="20" customHeight="1">
       <c r="A132" s="7">
+        <v>131</v>
+      </c>
+      <c r="B132" s="8"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="1:10" ht="20" customHeight="1">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B133" s="8"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="9"/>
+    </row>
+    <row r="134" spans="1:10" ht="20" customHeight="1">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D132" s="9"/>
-      <c r="E132" s="10" t="s">
+      <c r="D134" s="9"/>
+      <c r="E134" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F132" s="10" t="s">
+      <c r="F134" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G132" s="10" t="s">
+      <c r="G134" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H132" s="10" t="s">
+      <c r="H134" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I132" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J132" s="10" t="s">
+      <c r="I134" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J134" s="10" t="s">
         <v>321</v>
       </c>
     </row>

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1ADBD-27BE-5D49-A606-26D758BA63BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F982B-777C-BF45-97DE-909F62256CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="4460" windowWidth="37380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="413">
   <si>
     <t>no</t>
   </si>
@@ -1301,6 +1301,29 @@
   </si>
   <si>
     <t>생성할 데이터의 설명을 입력하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reorder levels:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectizeInput</t>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 순서변경:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 순서변경 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reorder_levels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2671,8 +2694,8 @@
   </sheetPr>
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -6550,12 +6573,24 @@
       <c r="D123" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="9"/>
+      <c r="E123" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="124" spans="1:10" ht="20" customHeight="1">
       <c r="A124" s="7">

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F982B-777C-BF45-97DE-909F62256CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41344D3F-B566-CE47-B318-33B4C80ADD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="427">
   <si>
     <t>no</t>
   </si>
@@ -1324,6 +1324,55 @@
   </si>
   <si>
     <t>reorder_levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수변환</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>비닝</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>trans_method</t>
+  </si>
+  <si>
+    <t>변환방법 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply function:</t>
+  </si>
+  <si>
+    <t>적용 함수:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transformVariable</t>
+  </si>
+  <si>
+    <t>변수변환 수행 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분포 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분포 시각화 비교 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare distributions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2692,10 +2741,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -6130,22 +6179,22 @@
         <v>59</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="20" customHeight="1">
@@ -6162,22 +6211,22 @@
         <v>59</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="20" customHeight="1">
@@ -6193,23 +6242,23 @@
       <c r="D111" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>331</v>
+      <c r="E111" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J111" s="9" t="s">
-        <v>325</v>
+      <c r="J111" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="20" customHeight="1">
@@ -6225,23 +6274,23 @@
       <c r="D112" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E112" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>324</v>
+      <c r="E112" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="I112" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J112" s="9" t="s">
-        <v>333</v>
+      <c r="J112" s="10" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="20" customHeight="1">
@@ -6258,22 +6307,22 @@
         <v>59</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I113" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="20" customHeight="1">
@@ -6290,10 +6339,10 @@
         <v>59</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G114" s="9" t="s">
         <v>13</v>
@@ -6322,10 +6371,10 @@
         <v>59</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G115" s="9" t="s">
         <v>13</v>
@@ -6354,10 +6403,10 @@
         <v>59</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G116" s="9" t="s">
         <v>13</v>
@@ -6386,22 +6435,22 @@
         <v>59</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="20" customHeight="1">
@@ -6418,22 +6467,22 @@
         <v>59</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="20" customHeight="1">
@@ -6450,22 +6499,22 @@
         <v>59</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>140</v>
+        <v>343</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I119" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="20" customHeight="1">
@@ -6482,22 +6531,22 @@
         <v>59</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>140</v>
+        <v>363</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I120" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="20" customHeight="1">
@@ -6514,20 +6563,22 @@
         <v>59</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H121" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="I121" s="10" t="s">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="20" customHeight="1">
@@ -6544,20 +6595,22 @@
         <v>59</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H122" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="I122" s="10" t="s">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="20" customHeight="1">
@@ -6574,22 +6627,20 @@
         <v>59</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="H123" s="9"/>
       <c r="I123" s="10" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="20" customHeight="1">
@@ -6605,12 +6656,22 @@
       <c r="D124" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="10"/>
+      <c r="E124" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="H124" s="9"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="9"/>
+      <c r="I124" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="125" spans="1:10" ht="20" customHeight="1">
       <c r="A125" s="7">
@@ -6625,39 +6686,55 @@
       <c r="D125" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="9"/>
+      <c r="E125" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="126" spans="1:10" ht="20" customHeight="1">
       <c r="A126" s="7">
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D126" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E126" s="9" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="G126" s="10"/>
+        <v>419</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>408</v>
+      </c>
       <c r="H126" s="9" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="20" customHeight="1">
@@ -6665,27 +6742,31 @@
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D127" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E127" s="9" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="G127" s="10"/>
+        <v>421</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="H127" s="9" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="20" customHeight="1">
@@ -6693,27 +6774,27 @@
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D128" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E128" s="9" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="G128" s="10"/>
-      <c r="H128" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I128" s="10" t="s">
-        <v>355</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H128" s="9"/>
+      <c r="I128" s="10"/>
       <c r="J128" s="9" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="20" customHeight="1">
@@ -6721,40 +6802,34 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D129" s="10"/>
-      <c r="E129" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>400</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
       <c r="G129" s="10"/>
-      <c r="H129" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I129" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>390</v>
-      </c>
+      <c r="H129" s="9"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="9"/>
     </row>
     <row r="130" spans="1:10" ht="20" customHeight="1">
       <c r="A130" s="7">
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D130" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
@@ -6763,12 +6838,16 @@
       <c r="J130" s="9"/>
     </row>
     <row r="131" spans="1:10" ht="20" customHeight="1">
-      <c r="A131" s="7">
-        <v>130</v>
-      </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
+      <c r="A131" s="7"/>
+      <c r="B131" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
@@ -6777,12 +6856,16 @@
       <c r="J131" s="9"/>
     </row>
     <row r="132" spans="1:10" ht="20" customHeight="1">
-      <c r="A132" s="7">
-        <v>131</v>
-      </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
+      <c r="A132" s="7"/>
+      <c r="B132" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="10"/>
@@ -6791,9 +6874,7 @@
       <c r="J132" s="9"/>
     </row>
     <row r="133" spans="1:10" ht="20" customHeight="1">
-      <c r="A133" s="7">
-        <v>132</v>
-      </c>
+      <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -6805,32 +6886,216 @@
       <c r="J133" s="9"/>
     </row>
     <row r="134" spans="1:10" ht="20" customHeight="1">
-      <c r="A134" s="7">
+      <c r="A134" s="7"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="9"/>
+    </row>
+    <row r="135" spans="1:10" ht="20" customHeight="1">
+      <c r="A135" s="7">
+        <v>130</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D135" s="10"/>
+      <c r="E135" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="G135" s="10"/>
+      <c r="H135" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="20" customHeight="1">
+      <c r="A136" s="7">
+        <v>131</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D136" s="10"/>
+      <c r="E136" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="20" customHeight="1">
+      <c r="A137" s="7">
+        <v>132</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D137" s="10"/>
+      <c r="E137" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I137" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="20" customHeight="1">
+      <c r="A138" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B138" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D138" s="10"/>
+      <c r="E138" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="G138" s="10"/>
+      <c r="H138" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="20" customHeight="1">
+      <c r="A139" s="7">
+        <v>134</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D139" s="10"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="9"/>
+    </row>
+    <row r="140" spans="1:10" ht="20" customHeight="1">
+      <c r="A140" s="7">
+        <v>135</v>
+      </c>
+      <c r="B140" s="8"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="9"/>
+    </row>
+    <row r="141" spans="1:10" ht="20" customHeight="1">
+      <c r="A141" s="7">
+        <v>136</v>
+      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" spans="1:10" ht="20" customHeight="1">
+      <c r="A142" s="7">
+        <v>137</v>
+      </c>
+      <c r="B142" s="8"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="9"/>
+    </row>
+    <row r="143" spans="1:10" ht="20" customHeight="1">
+      <c r="A143" s="7">
+        <v>138</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C143" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="10" t="s">
+      <c r="D143" s="9"/>
+      <c r="E143" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F134" s="10" t="s">
+      <c r="F143" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G134" s="10" t="s">
+      <c r="G143" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H134" s="10" t="s">
+      <c r="H143" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I134" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J134" s="10" t="s">
+      <c r="I143" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J143" s="10" t="s">
         <v>321</v>
       </c>
     </row>

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41344D3F-B566-CE47-B318-33B4C80ADD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B7B0C8-D3DE-EA43-8AC5-8750E0D38455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="451">
   <si>
     <t>no</t>
   </si>
@@ -1373,6 +1373,97 @@
   </si>
   <si>
     <t>Compare distributions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 방법:</t>
+  </si>
+  <si>
+    <t>Binning method:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut_method</t>
+  </si>
+  <si>
+    <t>비닝방법 선택 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutButton</t>
+  </si>
+  <si>
+    <t>비닝수행 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preview Bins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 미리보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 미리보기 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분포:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분포 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 시각화:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plot binning:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data distribution:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 시각화 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_digit</t>
+  </si>
+  <si>
+    <t>소수점 자리수:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수점 자리수 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digits:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_breaks</t>
+  </si>
+  <si>
+    <t>Bins 갯수:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bins 갯수 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of bins:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2741,10 +2832,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -6751,22 +6842,22 @@
         <v>59</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>409</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="20" customHeight="1">
@@ -6783,18 +6874,22 @@
         <v>59</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H128" s="9"/>
-      <c r="I128" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>409</v>
+      </c>
       <c r="J128" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="20" customHeight="1">
@@ -6810,12 +6905,22 @@
       <c r="D129" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="10"/>
+      <c r="E129" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="H129" s="9"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="9"/>
+      <c r="I129" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="130" spans="1:10" ht="20" customHeight="1">
       <c r="A130" s="7">
@@ -6830,15 +6935,29 @@
       <c r="D130" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="9"/>
+      <c r="E130" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="131" spans="1:10" ht="20" customHeight="1">
-      <c r="A131" s="7"/>
+      <c r="A131" s="7">
+        <v>130</v>
+      </c>
       <c r="B131" s="8" t="s">
         <v>16</v>
       </c>
@@ -6848,15 +6967,27 @@
       <c r="D131" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="9"/>
+      <c r="E131" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>447</v>
+      </c>
       <c r="I131" s="10"/>
-      <c r="J131" s="9"/>
+      <c r="J131" s="9" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="132" spans="1:10" ht="20" customHeight="1">
-      <c r="A132" s="7"/>
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
       <c r="B132" s="8" t="s">
         <v>16</v>
       </c>
@@ -6866,18 +6997,38 @@
       <c r="D132" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="9"/>
+      <c r="E132" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="133" spans="1:10" ht="20" customHeight="1">
-      <c r="A133" s="7"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
+      <c r="A133" s="7">
+        <v>132</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="10"/>
@@ -6886,132 +7037,126 @@
       <c r="J133" s="9"/>
     </row>
     <row r="134" spans="1:10" ht="20" customHeight="1">
-      <c r="A134" s="7"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="10"/>
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="H134" s="9"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="9"/>
+      <c r="I134" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="135" spans="1:10" ht="20" customHeight="1">
       <c r="A135" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D135" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E135" s="9" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="G135" s="10"/>
-      <c r="H135" s="9" t="s">
-        <v>391</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="H135" s="9"/>
       <c r="I135" s="10" t="s">
         <v>355</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="20" customHeight="1">
       <c r="A136" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D136" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E136" s="9" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="G136" s="10"/>
-      <c r="H136" s="9" t="s">
-        <v>391</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="H136" s="9"/>
       <c r="I136" s="10" t="s">
         <v>355</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="20" customHeight="1">
       <c r="A137" s="7">
-        <v>132</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>390</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B137" s="8"/>
+      <c r="C137" s="10"/>
       <c r="D137" s="10"/>
-      <c r="E137" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>395</v>
-      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
       <c r="G137" s="10"/>
-      <c r="H137" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I137" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>390</v>
-      </c>
+      <c r="H137" s="9"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="9"/>
     </row>
     <row r="138" spans="1:10" ht="20" customHeight="1">
       <c r="A138" s="7">
-        <v>133</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>390</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B138" s="8"/>
+      <c r="C138" s="10"/>
       <c r="D138" s="10"/>
-      <c r="E138" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>400</v>
-      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I138" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J138" s="9" t="s">
-        <v>390</v>
-      </c>
+      <c r="H138" s="9"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="9"/>
     </row>
     <row r="139" spans="1:10" ht="20" customHeight="1">
       <c r="A139" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>389</v>
@@ -7020,82 +7165,194 @@
         <v>390</v>
       </c>
       <c r="D139" s="10"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
+      <c r="E139" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>393</v>
+      </c>
       <c r="G139" s="10"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="9"/>
+      <c r="H139" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I139" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="140" spans="1:10" ht="20" customHeight="1">
       <c r="A140" s="7">
-        <v>135</v>
-      </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>390</v>
+      </c>
       <c r="D140" s="10"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
+      <c r="E140" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>394</v>
+      </c>
       <c r="G140" s="10"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="9"/>
+      <c r="H140" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="141" spans="1:10" ht="20" customHeight="1">
       <c r="A141" s="7">
-        <v>136</v>
-      </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>390</v>
+      </c>
       <c r="D141" s="10"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
+      <c r="E141" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>395</v>
+      </c>
       <c r="G141" s="10"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="9"/>
+      <c r="H141" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="142" spans="1:10" ht="20" customHeight="1">
       <c r="A142" s="7">
-        <v>137</v>
-      </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>390</v>
+      </c>
       <c r="D142" s="10"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
+      <c r="E142" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="G142" s="10"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="9"/>
+      <c r="H142" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="143" spans="1:10" ht="20" customHeight="1">
       <c r="A143" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D143" s="10"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="9"/>
+    </row>
+    <row r="144" spans="1:10" ht="20" customHeight="1">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="9"/>
+    </row>
+    <row r="145" spans="1:10" ht="20" customHeight="1">
+      <c r="A145" s="7">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="9"/>
+    </row>
+    <row r="146" spans="1:10" ht="20" customHeight="1">
+      <c r="A146" s="7">
+        <v>145</v>
+      </c>
+      <c r="B146" s="8"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="9"/>
+    </row>
+    <row r="147" spans="1:10" ht="20" customHeight="1">
+      <c r="A147" s="7">
+        <v>146</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="10" t="s">
+      <c r="D147" s="9"/>
+      <c r="E147" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F143" s="10" t="s">
+      <c r="F147" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G143" s="10" t="s">
+      <c r="G147" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H143" s="10" t="s">
+      <c r="H147" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I143" s="10" t="s">
+      <c r="I147" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J143" s="10" t="s">
+      <c r="J147" s="10" t="s">
         <v>321</v>
       </c>
     </row>

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B7B0C8-D3DE-EA43-8AC5-8750E0D38455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F7F386-CABF-A24B-AB89-B68A02BCA413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15420" yWindow="6480" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="462">
   <si>
     <t>no</t>
   </si>
@@ -1465,6 +1465,46 @@
   <si>
     <t>Number of bins:</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin_distribution의 element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치솟값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%분위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%분위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4분위</t>
+  </si>
+  <si>
+    <t>중위수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산술평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4분위</t>
+  </si>
+  <si>
+    <t>90%분위</t>
+  </si>
+  <si>
+    <t>95%분위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최댓값</t>
   </si>
 </sst>
 </file>
@@ -2832,10 +2872,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -7110,76 +7150,86 @@
         <v>59</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>437</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="F136" s="9"/>
+      <c r="G136" s="10"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="10" t="s">
-        <v>355</v>
-      </c>
+      <c r="I136" s="10"/>
       <c r="J136" s="9" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="20" customHeight="1">
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="9"/>
+      <c r="B137" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>453</v>
+      </c>
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
       <c r="H137" s="9"/>
       <c r="I137" s="10"/>
-      <c r="J137" s="9"/>
+      <c r="J137" s="9" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="138" spans="1:10" ht="20" customHeight="1">
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="9"/>
+      <c r="B138" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="F138" s="9"/>
       <c r="G138" s="10"/>
       <c r="H138" s="9"/>
       <c r="I138" s="10"/>
-      <c r="J138" s="9"/>
+      <c r="J138" s="9" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="139" spans="1:10" ht="20" customHeight="1">
       <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D139" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E139" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>393</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="F139" s="9"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I139" s="10" t="s">
-        <v>355</v>
-      </c>
+      <c r="H139" s="9"/>
+      <c r="I139" s="10"/>
       <c r="J139" s="9" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="20" customHeight="1">
@@ -7187,27 +7237,23 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D140" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E140" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>394</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="F140" s="9"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I140" s="10" t="s">
-        <v>355</v>
-      </c>
+      <c r="H140" s="9"/>
+      <c r="I140" s="10"/>
       <c r="J140" s="9" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="20" customHeight="1">
@@ -7215,27 +7261,23 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D141" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E141" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>395</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="F141" s="9"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I141" s="10" t="s">
-        <v>355</v>
-      </c>
+      <c r="H141" s="9"/>
+      <c r="I141" s="10"/>
       <c r="J141" s="9" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="20" customHeight="1">
@@ -7243,27 +7285,23 @@
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D142" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E142" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>400</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="F142" s="9"/>
       <c r="G142" s="10"/>
-      <c r="H142" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I142" s="10" t="s">
-        <v>355</v>
-      </c>
+      <c r="H142" s="9"/>
+      <c r="I142" s="10"/>
       <c r="J142" s="9" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="20" customHeight="1">
@@ -7271,41 +7309,65 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D143" s="10"/>
-      <c r="E143" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>459</v>
+      </c>
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
       <c r="H143" s="9"/>
       <c r="I143" s="10"/>
-      <c r="J143" s="9"/>
+      <c r="J143" s="9" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="144" spans="1:10" ht="20" customHeight="1">
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="9"/>
+      <c r="B144" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="9"/>
       <c r="I144" s="10"/>
-      <c r="J144" s="9"/>
+      <c r="J144" s="9" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="145" spans="1:10" ht="20" customHeight="1">
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="9"/>
+      <c r="B145" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>461</v>
+      </c>
       <c r="F145" s="9"/>
       <c r="G145" s="10"/>
       <c r="H145" s="9"/>
@@ -7316,43 +7378,259 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="10"/>
+      <c r="B146" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>437</v>
+      </c>
       <c r="H146" s="9"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="9"/>
+      <c r="I146" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="147" spans="1:10" ht="20" customHeight="1">
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="8"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="9"/>
+    </row>
+    <row r="148" spans="1:10" ht="20" customHeight="1">
+      <c r="A148" s="7">
+        <v>147</v>
+      </c>
+      <c r="B148" s="8"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="9"/>
+    </row>
+    <row r="149" spans="1:10" ht="20" customHeight="1">
+      <c r="A149" s="7">
+        <v>148</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D149" s="10"/>
+      <c r="E149" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="G149" s="10"/>
+      <c r="H149" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I149" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="20" customHeight="1">
+      <c r="A150" s="7">
+        <v>149</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D150" s="10"/>
+      <c r="E150" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="G150" s="10"/>
+      <c r="H150" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="20" customHeight="1">
+      <c r="A151" s="7">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D151" s="10"/>
+      <c r="E151" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G151" s="10"/>
+      <c r="H151" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="20" customHeight="1">
+      <c r="A152" s="7">
+        <v>151</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D152" s="10"/>
+      <c r="E152" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="G152" s="10"/>
+      <c r="H152" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="20" customHeight="1">
+      <c r="A153" s="7">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D153" s="10"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="9"/>
+    </row>
+    <row r="154" spans="1:10" ht="20" customHeight="1">
+      <c r="A154" s="7">
+        <v>153</v>
+      </c>
+      <c r="B154" s="8"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="9"/>
+    </row>
+    <row r="155" spans="1:10" ht="20" customHeight="1">
+      <c r="A155" s="7">
+        <v>154</v>
+      </c>
+      <c r="B155" s="8"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="9"/>
+    </row>
+    <row r="156" spans="1:10" ht="20" customHeight="1">
+      <c r="A156" s="7">
+        <v>155</v>
+      </c>
+      <c r="B156" s="8"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="9"/>
+    </row>
+    <row r="157" spans="1:10" ht="20" customHeight="1">
+      <c r="A157" s="7">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C157" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="10" t="s">
+      <c r="D157" s="9"/>
+      <c r="E157" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F147" s="10" t="s">
+      <c r="F157" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G147" s="10" t="s">
+      <c r="G157" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H147" s="10" t="s">
+      <c r="H157" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I147" s="10" t="s">
+      <c r="I157" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J147" s="10" t="s">
+      <c r="J157" s="10" t="s">
         <v>321</v>
       </c>
     </row>

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F7F386-CABF-A24B-AB89-B68A02BCA413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE03A32A-B024-A242-A5A7-DAD67154C419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="6480" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10060" yWindow="2640" windowWidth="36700" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="530">
   <si>
     <t>no</t>
   </si>
@@ -1062,456 +1062,714 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Change type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형 변환으로 추가할 변수의 접미어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형변환 수행 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeVariable</t>
+  </si>
+  <si>
+    <t>Remove variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 삭제 수행 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 변수 이름:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형 변환 전 데이터 요약</t>
+  </si>
+  <si>
+    <t>형 변환 후 데이터 요약</t>
+  </si>
+  <si>
+    <t>h4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary before change type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary after change type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 요약 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 순서변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reorder levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형 변환으로 추가할 변수의 접미어 안내문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 만들 변수의 접미어 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list의 변수 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 이름</t>
+  </si>
+  <si>
+    <t>데이터셋 설명</t>
+  </si>
+  <si>
+    <t>관측치 개수</t>
+  </si>
+  <si>
+    <t>변수 개수</t>
+  </si>
+  <si>
+    <t>데이터셋 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of observations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 이름</t>
+  </si>
+  <si>
+    <t>데이터 타입</t>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list의 선택한 데이터셋의 변수 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list의 선택한 데이터셋의 샘플 데이터 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list 변수정보의 변수 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imported_ds_list 변수정보의 데이터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정합성체크 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_message</t>
+  </si>
+  <si>
+    <t>정합성 오류</t>
+  </si>
+  <si>
+    <t>No input error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unselected error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consistency error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미입력 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미선택 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋의 이름의 placeholder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성할 데이터셋 이름을 입력하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 부연 설명의 placeholder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name of the dataset you want to create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description of the dataset you want to create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성할 데이터의 설명을 입력하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reorder levels:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectizeInput</t>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 순서변경:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 순서변경 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reorder_levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수변환</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>비닝</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>trans_method</t>
+  </si>
+  <si>
+    <t>변환방법 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply function:</t>
+  </si>
+  <si>
+    <t>적용 함수:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transformVariable</t>
+  </si>
+  <si>
+    <t>변수변환 수행 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분포 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분포 시각화 비교 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare distributions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 방법:</t>
+  </si>
+  <si>
+    <t>Binning method:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut_method</t>
+  </si>
+  <si>
+    <t>비닝방법 선택 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutButton</t>
+  </si>
+  <si>
+    <t>비닝수행 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preview Bins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 미리보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 미리보기 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분포:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분포 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data distribution:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_digit</t>
+  </si>
+  <si>
+    <t>소수점 자리수:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수점 자리수 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digits:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_breaks</t>
+  </si>
+  <si>
+    <t>Bins 갯수 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of bins:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin_distribution의 element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%분위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%분위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4분위</t>
+  </si>
+  <si>
+    <t>중위수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산술평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4분위</t>
+  </si>
+  <si>
+    <t>90%분위</t>
+  </si>
+  <si>
+    <t>95%분위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최댓값</t>
+  </si>
+  <si>
+    <t>최솟값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90%th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95%th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin_distribution</t>
+  </si>
+  <si>
+    <t>flextable</t>
+  </si>
+  <si>
+    <t>비닝 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define bins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 정의 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돗수 분포 테이블:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency table:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돗수 분포 테이블 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 분포 시각화: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution with breaks:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분포 시각화 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bins frequency:</t>
+  </si>
+  <si>
+    <t>돗수 분포 시각화:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돗수 분포 시각화 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab_bins</t>
+  </si>
+  <si>
+    <t>Bins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돗수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대돗수 (백분율)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_4th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breaks:</t>
+  </si>
+  <si>
+    <t>비닝 컷 포인트:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Append extreme values if necessary</t>
+  </si>
+  <si>
+    <t>bin_variable</t>
+  </si>
+  <si>
+    <t>diglab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addext</t>
+  </si>
+  <si>
+    <t>inclowest</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>breaks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 레벨 갯수:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right-closed intervals (right)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include extreme (include.lowest)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 폐구간 여부 (right)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수점 라벨 표현 자리수 (dig.lab):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label digits (dig.lab):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 변수 접미어:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Variable name extension:</t>
-  </si>
-  <si>
-    <t>Change type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형 변환으로 추가할 변수의 접미어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형변환 수행 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>removeVariable</t>
-  </si>
-  <si>
-    <t>Remove variable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수 삭제 수행 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 변수 이름:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형 변환 전 데이터 요약</t>
-  </si>
-  <si>
-    <t>형 변환 후 데이터 요약</t>
-  </si>
-  <si>
-    <t>h4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summary before change type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summary after change type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 요약 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범주 순서변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reorder levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극단값 포함 여부 (include.lowest)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능할 경우의 극단값 추가 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 컷 포인 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 폐구간 여부 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극단값 포함 여부 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능할 경우의 극단값 추가 여부 라벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Add extension to variable name</t>
-  </si>
-  <si>
-    <t>형 변환으로 추가할 변수의 접미어 안내문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로 만들 변수의 접미어 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imported_ds_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imported_ds_list의 변수 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋 이름</t>
-  </si>
-  <si>
-    <t>데이터셋 설명</t>
-  </si>
-  <si>
-    <t>관측치 개수</t>
-  </si>
-  <si>
-    <t>변수 개수</t>
-  </si>
-  <si>
-    <t>데이터셋 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dataset name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dataset ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dataset description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of observations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of variables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수 이름</t>
-  </si>
-  <si>
-    <t>데이터 타입</t>
-  </si>
-  <si>
-    <t>data_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샘플 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imported_ds_list의 선택한 데이터셋의 변수 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imported_ds_list의 선택한 데이터셋의 샘플 데이터 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imported_ds_list 변수정보의 변수 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imported_ds_list 변수정보의 데이터 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variable name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정합성체크 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert_message</t>
-  </si>
-  <si>
-    <t>정합성 오류</t>
-  </si>
-  <si>
-    <t>No input error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unselected error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consistency error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미입력 오류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미선택 오류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋의 이름의 placeholder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성할 데이터셋 이름을 입력하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋 부연 설명의 placeholder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name of the dataset you want to create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description of the dataset you want to create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성할 데이터의 설명을 입력하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reorder levels:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectizeInput</t>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범주 순서변경:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수 순서변경 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reorder_levels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reorder levels only support factors. If you want, cast it to factor first.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel_reorder_levels</t>
+  </si>
+  <si>
+    <t>범주 순서변경은 범주형 데이터만 지원합니다. 원한다면 먼저 범주형 데이터로 변경 후 진행하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 순서변경 validate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reorderVariable</t>
+  </si>
+  <si>
+    <t>범주 순서변경 실행 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interactive re-ordering is only supported up to 30 levels.</t>
+  </si>
+  <si>
+    <t>범주 순서변경은 범주 레벨의 개수가 30개까지만 지원합니다.</t>
   </si>
   <si>
     <t>변수변환</t>
-  </si>
-  <si>
-    <t>Transform</t>
-  </si>
-  <si>
-    <t>비닝</t>
-  </si>
-  <si>
-    <t>Bin</t>
-  </si>
-  <si>
-    <t>trans_method</t>
-  </si>
-  <si>
-    <t>변환방법 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apply function:</t>
-  </si>
-  <si>
-    <t>적용 함수:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transformVariable</t>
-  </si>
-  <si>
-    <t>변수변환 수행 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 분포 비교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 분포 시각화 비교 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare distributions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비닝 방법:</t>
-  </si>
-  <si>
-    <t>Binning method:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cut_method</t>
-  </si>
-  <si>
-    <t>비닝방법 선택 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cutButton</t>
-  </si>
-  <si>
-    <t>비닝수행 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preview Bins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비닝 미리보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비닝 미리보기 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 분포:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 분포 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비닝 시각화:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plot binning:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data distribution:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비닝 시각화 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trans_digit</t>
-  </si>
-  <si>
-    <t>소수점 자리수:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소수점 자리수 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digits:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_breaks</t>
-  </si>
-  <si>
-    <t>Bins 갯수:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bins 갯수 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of bins:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bin_distribution의 element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치솟값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5%분위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10%분위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/4분위</t>
-  </si>
-  <si>
-    <t>중위수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산술평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/4분위</t>
-  </si>
-  <si>
-    <t>90%분위</t>
-  </si>
-  <si>
-    <t>95%분위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최댓값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel_transform</t>
+  </si>
+  <si>
+    <t>변수변환 validate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transform only support numeric and integer.</t>
+  </si>
+  <si>
+    <t>변수변환은 정수와 실수만 지원합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1538,6 +1796,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1559,7 +1824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1672,13 +1937,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1711,6 +1991,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2872,10 +3158,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132:A157"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2884,17 +3170,18 @@
     <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.33203125" style="2"/>
+    <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2908,25 +3195,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1">
+    <row r="2" spans="1:11" ht="20.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2935,26 +3225,27 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2963,26 +3254,27 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2991,26 +3283,27 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3019,26 +3312,27 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3047,26 +3341,27 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3075,26 +3370,27 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3103,26 +3399,27 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3131,26 +3428,27 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3161,26 +3459,27 @@
         <v>38</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3191,26 +3490,27 @@
         <v>38</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -3221,26 +3521,27 @@
         <v>38</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="J12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -3253,26 +3554,27 @@
       <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3285,26 +3587,27 @@
       <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3317,26 +3620,27 @@
       <c r="D15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
+    <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3349,26 +3653,27 @@
       <c r="D16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="I16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K16" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3381,26 +3686,27 @@
       <c r="D17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
+    <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3413,26 +3719,27 @@
       <c r="D18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K18" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
+    <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -3445,26 +3752,27 @@
       <c r="D19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
+    <row r="20" spans="1:11" ht="20" customHeight="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3477,26 +3785,27 @@
       <c r="D20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
+    <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -3509,26 +3818,27 @@
       <c r="D21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -3537,26 +3847,27 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1">
+    <row r="23" spans="1:11" ht="20" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3569,26 +3880,27 @@
       <c r="D23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="I23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1">
+    <row r="24" spans="1:11" ht="20" customHeight="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3601,24 +3913,25 @@
       <c r="D24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="9"/>
+      <c r="J24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="K24" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1">
+    <row r="25" spans="1:11" ht="20" customHeight="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -3631,26 +3944,27 @@
       <c r="D25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20" customHeight="1">
+    <row r="26" spans="1:11" ht="20" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3663,26 +3977,27 @@
       <c r="D26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="J26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20" customHeight="1">
+    <row r="27" spans="1:11" ht="20" customHeight="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3695,26 +4010,27 @@
       <c r="D27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="J27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20" customHeight="1">
+    <row r="28" spans="1:11" ht="20" customHeight="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3727,26 +4043,27 @@
       <c r="D28" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="J28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20" customHeight="1">
+    <row r="29" spans="1:11" ht="20" customHeight="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3759,26 +4076,27 @@
       <c r="D29" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="J29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20" customHeight="1">
+    <row r="30" spans="1:11" ht="20" customHeight="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -3791,26 +4109,27 @@
       <c r="D30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="J30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="20" customHeight="1">
+    <row r="31" spans="1:11" ht="20" customHeight="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3823,26 +4142,27 @@
       <c r="D31" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="I31" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="J31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1">
+    <row r="32" spans="1:11" ht="20" customHeight="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3855,26 +4175,27 @@
       <c r="D32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="I32" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="J32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="20" customHeight="1">
+    <row r="33" spans="1:11" ht="20" customHeight="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3887,26 +4208,27 @@
       <c r="D33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="I33" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="J33" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20" customHeight="1">
+    <row r="34" spans="1:11" ht="20" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3919,26 +4241,27 @@
       <c r="D34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="J34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="K34" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20" customHeight="1">
+    <row r="35" spans="1:11" ht="20" customHeight="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3951,26 +4274,27 @@
       <c r="D35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="I35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="J35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="K35" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="20" customHeight="1">
+    <row r="36" spans="1:11" ht="20" customHeight="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3983,26 +4307,27 @@
       <c r="D36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="J36" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="K36" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="20" customHeight="1">
+    <row r="37" spans="1:11" ht="20" customHeight="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -4015,26 +4340,27 @@
       <c r="D37" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="I37" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="J37" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="K37" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="20" customHeight="1">
+    <row r="38" spans="1:11" ht="20" customHeight="1">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -4047,26 +4373,27 @@
       <c r="D38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="J38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="K38" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="20" customHeight="1">
+    <row r="39" spans="1:11" ht="20" customHeight="1">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -4079,26 +4406,27 @@
       <c r="D39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="I39" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="J39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K39" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="20" customHeight="1">
+    <row r="40" spans="1:11" ht="20" customHeight="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -4111,26 +4439,27 @@
       <c r="D40" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="I40" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="J40" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="K40" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20" customHeight="1">
+    <row r="41" spans="1:11" ht="20" customHeight="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -4143,26 +4472,27 @@
       <c r="D41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="G41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="I41" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="J41" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="20" customHeight="1">
+      <c r="K41" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="20" customHeight="1">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -4175,26 +4505,27 @@
       <c r="D42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="I42" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="J42" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="K42" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="20" customHeight="1">
+    <row r="43" spans="1:11" ht="20" customHeight="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -4207,26 +4538,27 @@
       <c r="D43" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>406</v>
-      </c>
+      <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="I43" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="J43" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="20" customHeight="1">
+      <c r="K43" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="20" customHeight="1">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -4239,26 +4571,27 @@
       <c r="D44" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="I44" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="J44" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="K44" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="20" customHeight="1">
+    <row r="45" spans="1:11" ht="20" customHeight="1">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -4271,26 +4604,27 @@
       <c r="D45" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>398</v>
-      </c>
+      <c r="E45" s="10"/>
       <c r="F45" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>366</v>
-      </c>
       <c r="I45" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="K45" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20" customHeight="1">
+    <row r="46" spans="1:11" ht="20" customHeight="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -4303,26 +4637,27 @@
       <c r="D46" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="I46" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="20" customHeight="1">
+      <c r="K46" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="20" customHeight="1">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -4335,26 +4670,27 @@
       <c r="D47" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>368</v>
-      </c>
+      <c r="E47" s="10"/>
       <c r="F47" s="10" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G47" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="I47" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="J47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="20" customHeight="1">
+      <c r="K47" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="20" customHeight="1">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -4367,26 +4703,27 @@
       <c r="D48" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>369</v>
-      </c>
+      <c r="E48" s="10"/>
       <c r="F48" s="10" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G48" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="I48" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="J48" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="20" customHeight="1">
+      <c r="K48" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="20" customHeight="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -4399,26 +4736,27 @@
       <c r="D49" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>370</v>
-      </c>
+      <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G49" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="I49" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="J49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="20" customHeight="1">
+      <c r="K49" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="20" customHeight="1">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -4431,26 +4769,27 @@
       <c r="D50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>371</v>
-      </c>
+      <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G50" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="I50" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="J50" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="20" customHeight="1">
+      <c r="K50" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="20" customHeight="1">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -4463,26 +4802,27 @@
       <c r="D51" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>378</v>
-      </c>
+      <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G51" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="I51" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="J51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="20" customHeight="1">
+      <c r="K51" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="20" customHeight="1">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -4495,26 +4835,27 @@
       <c r="D52" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>379</v>
-      </c>
+      <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G52" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="I52" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="J52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="20" customHeight="1">
+      <c r="K52" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="20" customHeight="1">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -4527,26 +4868,27 @@
       <c r="D53" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="20" customHeight="1">
+    </row>
+    <row r="54" spans="1:11" ht="20" customHeight="1">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -4559,26 +4901,27 @@
       <c r="D54" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="20" customHeight="1">
+    </row>
+    <row r="55" spans="1:11" ht="20" customHeight="1">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -4591,26 +4934,27 @@
       <c r="D55" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="H55" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="I55" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="J55" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="K55" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="20" customHeight="1">
+    <row r="56" spans="1:11" ht="20" customHeight="1">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -4623,26 +4967,27 @@
       <c r="D56" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="H56" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="I56" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="20" customHeight="1">
+    <row r="57" spans="1:11" ht="20" customHeight="1">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -4655,26 +5000,27 @@
       <c r="D57" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="G57" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="H57" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="I57" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="J57" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="K57" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="20" customHeight="1">
+    <row r="58" spans="1:11" ht="20" customHeight="1">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -4687,26 +5033,27 @@
       <c r="D58" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G58" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="H58" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="I58" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="J58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="K58" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="20" customHeight="1">
+    <row r="59" spans="1:11" ht="20" customHeight="1">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -4719,26 +5066,27 @@
       <c r="D59" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="H59" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="I59" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="J59" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="K59" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="20" customHeight="1">
+    <row r="60" spans="1:11" ht="20" customHeight="1">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -4751,26 +5099,27 @@
       <c r="D60" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="G60" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="H60" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="I60" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="J60" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="K60" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="20" customHeight="1">
+    <row r="61" spans="1:11" ht="20" customHeight="1">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -4783,26 +5132,27 @@
       <c r="D61" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="H61" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="I61" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="J61" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="K61" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="20" customHeight="1">
+    <row r="62" spans="1:11" ht="20" customHeight="1">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -4815,26 +5165,27 @@
       <c r="D62" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="G62" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="H62" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="I62" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="J62" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="K62" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="20" customHeight="1">
+    <row r="63" spans="1:11" ht="20" customHeight="1">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -4847,26 +5198,27 @@
       <c r="D63" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="G63" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="H63" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="I63" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="J63" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="K63" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="20" customHeight="1">
+    <row r="64" spans="1:11" ht="20" customHeight="1">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -4879,26 +5231,27 @@
       <c r="D64" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="G64" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="H64" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="I64" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="J64" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="K64" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="20" customHeight="1">
+    <row r="65" spans="1:11" ht="20" customHeight="1">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -4911,26 +5264,27 @@
       <c r="D65" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="10"/>
+      <c r="F65" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="G65" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="H65" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="I65" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="J65" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="K65" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="20" customHeight="1">
+    <row r="66" spans="1:11" ht="20" customHeight="1">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -4943,26 +5297,27 @@
       <c r="D66" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="G66" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="H66" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="I66" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="J66" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="K66" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="20" customHeight="1">
+    <row r="67" spans="1:11" ht="20" customHeight="1">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -4975,26 +5330,27 @@
       <c r="D67" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="G67" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="H67" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="I67" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="J67" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="K67" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="20" customHeight="1">
+    <row r="68" spans="1:11" ht="20" customHeight="1">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -5007,26 +5363,27 @@
       <c r="D68" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="G68" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="H68" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="I68" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="J68" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="K68" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="20" customHeight="1">
+    <row r="69" spans="1:11" ht="20" customHeight="1">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -5039,24 +5396,25 @@
       <c r="D69" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="G69" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="H69" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="10" t="s">
+      <c r="I69" s="9"/>
+      <c r="J69" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="K69" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="20" customHeight="1">
+    <row r="70" spans="1:11" ht="20" customHeight="1">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -5069,26 +5427,27 @@
       <c r="D70" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="G70" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="H70" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="I70" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="J70" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="10" t="s">
+      <c r="K70" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="20" customHeight="1">
+    <row r="71" spans="1:11" ht="20" customHeight="1">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -5101,26 +5460,27 @@
       <c r="D71" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="10"/>
+      <c r="F71" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="H71" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="I71" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="J71" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="K71" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="20" customHeight="1">
+    <row r="72" spans="1:11" ht="20" customHeight="1">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -5133,26 +5493,27 @@
       <c r="D72" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="10"/>
+      <c r="F72" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="G72" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="H72" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="I72" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="J72" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="10" t="s">
+      <c r="K72" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="20" customHeight="1">
+    <row r="73" spans="1:11" ht="20" customHeight="1">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -5165,26 +5526,27 @@
       <c r="D73" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>207</v>
-      </c>
+      <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
         <v>207</v>
       </c>
       <c r="G73" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H73" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="I73" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="J73" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="K73" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="20" customHeight="1">
+    <row r="74" spans="1:11" ht="20" customHeight="1">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -5197,26 +5559,27 @@
       <c r="D74" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>209</v>
-      </c>
+      <c r="E74" s="10"/>
       <c r="F74" s="10" t="s">
         <v>209</v>
       </c>
       <c r="G74" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H74" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="I74" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="J74" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="K74" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="20" customHeight="1">
+    <row r="75" spans="1:11" ht="20" customHeight="1">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -5229,26 +5592,27 @@
       <c r="D75" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>211</v>
-      </c>
+      <c r="E75" s="10"/>
       <c r="F75" s="10" t="s">
         <v>211</v>
       </c>
       <c r="G75" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H75" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="I75" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="J75" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="K75" s="10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="20" customHeight="1">
+    <row r="76" spans="1:11" ht="20" customHeight="1">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -5261,26 +5625,27 @@
       <c r="D76" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>207</v>
-      </c>
+      <c r="E76" s="10"/>
       <c r="F76" s="10" t="s">
         <v>207</v>
       </c>
       <c r="G76" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H76" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="I76" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="J76" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="K76" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="20" customHeight="1">
+    <row r="77" spans="1:11" ht="20" customHeight="1">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -5293,26 +5658,27 @@
       <c r="D77" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>209</v>
-      </c>
+      <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
         <v>209</v>
       </c>
       <c r="G77" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="I77" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="J77" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="K77" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="20" customHeight="1">
+    <row r="78" spans="1:11" ht="20" customHeight="1">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -5325,26 +5691,27 @@
       <c r="D78" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>211</v>
-      </c>
+      <c r="E78" s="10"/>
       <c r="F78" s="10" t="s">
         <v>211</v>
       </c>
       <c r="G78" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H78" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="I78" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="J78" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J78" s="10" t="s">
+      <c r="K78" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="20" customHeight="1">
+    <row r="79" spans="1:11" ht="20" customHeight="1">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -5357,26 +5724,27 @@
       <c r="D79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="G79" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="H79" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="I79" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="J79" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J79" s="10" t="s">
+      <c r="K79" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="20" customHeight="1">
+    <row r="80" spans="1:11" ht="20" customHeight="1">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -5389,26 +5757,27 @@
       <c r="D80" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>207</v>
-      </c>
+      <c r="E80" s="10"/>
       <c r="F80" s="10" t="s">
         <v>207</v>
       </c>
       <c r="G80" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H80" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="I80" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="J80" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J80" s="10" t="s">
+      <c r="K80" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="20" customHeight="1">
+    <row r="81" spans="1:11" ht="20" customHeight="1">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -5421,26 +5790,27 @@
       <c r="D81" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>211</v>
-      </c>
+      <c r="E81" s="10"/>
       <c r="F81" s="10" t="s">
         <v>211</v>
       </c>
       <c r="G81" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H81" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="I81" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="J81" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J81" s="10" t="s">
+      <c r="K81" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="20" customHeight="1">
+    <row r="82" spans="1:11" ht="20" customHeight="1">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -5453,24 +5823,25 @@
       <c r="D82" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="10"/>
+      <c r="F82" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="G82" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="H82" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="10" t="s">
+      <c r="I82" s="9"/>
+      <c r="J82" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="K82" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="20" customHeight="1">
+    <row r="83" spans="1:11" ht="20" customHeight="1">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -5483,26 +5854,27 @@
       <c r="D83" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="10"/>
+      <c r="F83" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="G83" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="H83" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="I83" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="J83" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="K83" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="20" customHeight="1">
+    <row r="84" spans="1:11" ht="20" customHeight="1">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -5515,26 +5887,27 @@
       <c r="D84" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="10"/>
+      <c r="F84" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="G84" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="H84" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="I84" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="J84" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J84" s="10" t="s">
+      <c r="K84" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="20" customHeight="1">
+    <row r="85" spans="1:11" ht="20" customHeight="1">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -5547,26 +5920,27 @@
       <c r="D85" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="G85" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="H85" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="I85" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="J85" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="K85" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="20" customHeight="1">
+    <row r="86" spans="1:11" ht="20" customHeight="1">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -5579,26 +5953,27 @@
       <c r="D86" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="G86" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="H86" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="I86" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="J86" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="K86" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="20" customHeight="1">
+    <row r="87" spans="1:11" ht="20" customHeight="1">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -5611,26 +5986,27 @@
       <c r="D87" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="H87" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="I87" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="J87" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="K87" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="20" customHeight="1">
+    <row r="88" spans="1:11" ht="20" customHeight="1">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -5643,24 +6019,25 @@
       <c r="D88" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="G88" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="H88" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H88" s="9"/>
-      <c r="I88" s="10" t="s">
+      <c r="I88" s="9"/>
+      <c r="J88" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="K88" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="20" customHeight="1">
+    <row r="89" spans="1:11" ht="20" customHeight="1">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -5673,26 +6050,27 @@
       <c r="D89" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="G89" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="H89" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="I89" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="J89" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="K89" s="10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="20" customHeight="1">
+    <row r="90" spans="1:11" ht="20" customHeight="1">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -5705,26 +6083,27 @@
       <c r="D90" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="G90" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="H90" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="I90" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="J90" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="K90" s="10" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="20" customHeight="1">
+    <row r="91" spans="1:11" ht="20" customHeight="1">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -5737,26 +6116,27 @@
       <c r="D91" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="H91" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="I91" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="J91" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="K91" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="20" customHeight="1">
+    <row r="92" spans="1:11" ht="20" customHeight="1">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -5769,26 +6149,27 @@
       <c r="D92" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="H92" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="I92" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="J92" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="K92" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="20" customHeight="1">
+    <row r="93" spans="1:11" ht="20" customHeight="1">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -5801,26 +6182,27 @@
       <c r="D93" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="G93" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="H93" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="I93" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="J93" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="K93" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="20" customHeight="1">
+    <row r="94" spans="1:11" ht="20" customHeight="1">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -5833,26 +6215,27 @@
       <c r="D94" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="G94" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="H94" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="I94" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="J94" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="K94" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="20" customHeight="1">
+    <row r="95" spans="1:11" ht="20" customHeight="1">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -5865,26 +6248,27 @@
       <c r="D95" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="10"/>
+      <c r="F95" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="G95" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="H95" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="I95" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="J95" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="K95" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="20" customHeight="1">
+    <row r="96" spans="1:11" ht="20" customHeight="1">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -5897,24 +6281,25 @@
       <c r="D96" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="F96" s="10" t="s">
+      <c r="G96" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="H96" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="10" t="s">
+      <c r="I96" s="9"/>
+      <c r="J96" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="K96" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="20" customHeight="1">
+    <row r="97" spans="1:11" ht="20" customHeight="1">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -5927,26 +6312,27 @@
       <c r="D97" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="10"/>
+      <c r="F97" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="G97" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="H97" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="I97" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="J97" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J97" s="10" t="s">
+      <c r="K97" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="20" customHeight="1">
+    <row r="98" spans="1:11" ht="20" customHeight="1">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -5959,26 +6345,27 @@
       <c r="D98" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="G98" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="H98" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="I98" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="J98" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J98" s="10" t="s">
+      <c r="K98" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="20" customHeight="1">
+    <row r="99" spans="1:11" ht="20" customHeight="1">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -5991,26 +6378,27 @@
       <c r="D99" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="G99" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="H99" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H99" s="10" t="s">
+      <c r="I99" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="J99" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J99" s="10" t="s">
+      <c r="K99" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="20" customHeight="1">
+    <row r="100" spans="1:11" ht="20" customHeight="1">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -6023,26 +6411,27 @@
       <c r="D100" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="10"/>
+      <c r="F100" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="G100" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="H100" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="I100" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="J100" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J100" s="10" t="s">
+      <c r="K100" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="20" customHeight="1">
+    <row r="101" spans="1:11" ht="20" customHeight="1">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -6055,26 +6444,27 @@
       <c r="D101" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="10"/>
+      <c r="F101" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="G101" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="H101" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="I101" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="J101" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J101" s="10" t="s">
+      <c r="K101" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="20" customHeight="1">
+    <row r="102" spans="1:11" ht="20" customHeight="1">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -6087,24 +6477,25 @@
       <c r="D102" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="10"/>
+      <c r="F102" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="G102" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="H102" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H102" s="9"/>
-      <c r="I102" s="10" t="s">
+      <c r="I102" s="9"/>
+      <c r="J102" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J102" s="10" t="s">
+      <c r="K102" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="20" customHeight="1">
+    <row r="103" spans="1:11" ht="20" customHeight="1">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -6117,26 +6508,27 @@
       <c r="D103" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="10"/>
+      <c r="F103" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="F103" s="10" t="s">
+      <c r="G103" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="H103" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="10" t="s">
+      <c r="I103" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="J103" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J103" s="10" t="s">
+      <c r="K103" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="20" customHeight="1">
+    <row r="104" spans="1:11" ht="20" customHeight="1">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -6149,26 +6541,27 @@
       <c r="D104" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="G104" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="H104" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H104" s="10" t="s">
+      <c r="I104" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="J104" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J104" s="10" t="s">
+      <c r="K104" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="20" customHeight="1">
+    <row r="105" spans="1:11" ht="20" customHeight="1">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -6181,26 +6574,27 @@
       <c r="D105" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="F105" s="10" t="s">
-        <v>359</v>
-      </c>
       <c r="G105" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H105" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H105" s="10" t="s">
+      <c r="I105" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="J105" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J105" s="10" t="s">
+      <c r="K105" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="20" customHeight="1">
+    <row r="106" spans="1:11" ht="20" customHeight="1">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -6213,26 +6607,27 @@
       <c r="D106" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="F106" s="10" t="s">
-        <v>344</v>
-      </c>
       <c r="G106" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="H106" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="10" t="s">
+      <c r="I106" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="J106" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J106" s="10" t="s">
+      <c r="K106" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="20" customHeight="1">
+    <row r="107" spans="1:11" ht="20" customHeight="1">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -6245,26 +6640,27 @@
       <c r="D107" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="10"/>
+      <c r="F107" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F107" s="10" t="s">
-        <v>360</v>
-      </c>
       <c r="G107" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H107" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="10" t="s">
+      <c r="I107" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I107" s="10" t="s">
+      <c r="J107" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J107" s="10" t="s">
+      <c r="K107" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="20" customHeight="1">
+    <row r="108" spans="1:11" ht="20" customHeight="1">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -6277,26 +6673,27 @@
       <c r="D108" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G108" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="F108" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="G108" s="10" t="s">
+      <c r="H108" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="10" t="s">
+      <c r="I108" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I108" s="10" t="s">
+      <c r="J108" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J108" s="10" t="s">
+      <c r="K108" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="20" customHeight="1">
+    <row r="109" spans="1:11" ht="20" customHeight="1">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -6309,26 +6706,27 @@
       <c r="D109" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>413</v>
-      </c>
+      <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G109" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H109" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="10" t="s">
+      <c r="I109" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I109" s="10" t="s">
+      <c r="J109" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="K109" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="20" customHeight="1">
+    <row r="110" spans="1:11" ht="20" customHeight="1">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -6341,26 +6739,27 @@
       <c r="D110" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E110" s="10" t="s">
-        <v>415</v>
-      </c>
+      <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G110" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="H110" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="10" t="s">
+      <c r="I110" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I110" s="10" t="s">
+      <c r="J110" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J110" s="10" t="s">
+      <c r="K110" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="20" customHeight="1">
+    <row r="111" spans="1:11" ht="20" customHeight="1">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -6373,26 +6772,27 @@
       <c r="D111" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="10" t="s">
-        <v>351</v>
-      </c>
+      <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G111" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="H111" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H111" s="10" t="s">
+      <c r="I111" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="I111" s="10" t="s">
+      <c r="J111" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J111" s="10" t="s">
+      <c r="K111" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="20" customHeight="1">
+    <row r="112" spans="1:11" ht="20" customHeight="1">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -6406,25 +6806,28 @@
         <v>59</v>
       </c>
       <c r="E112" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="F112" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F112" s="10" t="s">
+      <c r="G112" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="H112" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H112" s="10" t="s">
+      <c r="I112" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="I112" s="10" t="s">
+      <c r="J112" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J112" s="10" t="s">
+      <c r="K112" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="20" customHeight="1">
+    <row r="113" spans="1:11" ht="20" customHeight="1">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -6437,26 +6840,29 @@
       <c r="D113" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="F113" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="G113" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="H113" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="9" t="s">
+      <c r="I113" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="J113" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J113" s="9" t="s">
+      <c r="K113" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="20" customHeight="1">
+    <row r="114" spans="1:11" ht="20" customHeight="1">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -6469,26 +6875,29 @@
       <c r="D114" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="F114" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="G114" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="H114" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H114" s="9" t="s">
+      <c r="I114" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="I114" s="10" t="s">
+      <c r="J114" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J114" s="9" t="s">
+      <c r="K114" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="20" customHeight="1">
+    <row r="115" spans="1:11" ht="20" customHeight="1">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -6501,26 +6910,29 @@
       <c r="D115" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="F115" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="G115" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="H115" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="9" t="s">
+      <c r="I115" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="J115" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J115" s="9" t="s">
+      <c r="K115" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="20" customHeight="1">
+    <row r="116" spans="1:11" ht="20" customHeight="1">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -6533,26 +6945,29 @@
       <c r="D116" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="F116" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="G116" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="H116" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H116" s="9" t="s">
+      <c r="I116" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="I116" s="10" t="s">
+      <c r="J116" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J116" s="9" t="s">
+      <c r="K116" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="20" customHeight="1">
+    <row r="117" spans="1:11" ht="20" customHeight="1">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -6565,26 +6980,29 @@
       <c r="D117" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="G117" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="H117" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="I117" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="I117" s="10" t="s">
+      <c r="J117" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J117" s="9" t="s">
+      <c r="K117" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="20" customHeight="1">
+    <row r="118" spans="1:11" ht="20" customHeight="1">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -6597,26 +7015,29 @@
       <c r="D118" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="G118" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="H118" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H118" s="9" t="s">
+      <c r="I118" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="I118" s="10" t="s">
+      <c r="J118" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J118" s="9" t="s">
+      <c r="K118" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="20" customHeight="1">
+    <row r="119" spans="1:11" ht="20" customHeight="1">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -6629,26 +7050,29 @@
       <c r="D119" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="F119" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="F119" s="9" t="s">
-        <v>343</v>
-      </c>
       <c r="G119" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="H119" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="I119" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="J119" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J119" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="20" customHeight="1">
+      <c r="K119" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="20" customHeight="1">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -6661,26 +7085,29 @@
       <c r="D120" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>365</v>
+      <c r="E120" s="10" t="s">
+        <v>519</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>363</v>
       </c>
       <c r="G120" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H120" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H120" s="9" t="s">
+      <c r="I120" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="I120" s="10" t="s">
+      <c r="J120" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J120" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="20" customHeight="1">
+      <c r="K120" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="20" customHeight="1">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -6693,26 +7120,27 @@
       <c r="D121" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="9" t="s">
-        <v>341</v>
+      <c r="E121" s="10" t="s">
+        <v>519</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="20" customHeight="1">
+        <v>351</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="20" customHeight="1">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -6725,26 +7153,27 @@
       <c r="D122" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E122" s="9" t="s">
-        <v>350</v>
+      <c r="E122" s="10" t="s">
+        <v>519</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J122" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="20" customHeight="1">
+        <v>352</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="20" customHeight="1">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -6757,24 +7186,29 @@
       <c r="D123" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E123" s="9" t="s">
-        <v>352</v>
+      <c r="E123" s="10" t="s">
+        <v>519</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H123" s="9"/>
-      <c r="I123" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J123" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="20" customHeight="1">
+        <v>341</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="20" customHeight="1">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -6787,24 +7221,29 @@
       <c r="D124" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E124" s="9" t="s">
-        <v>353</v>
+      <c r="E124" s="10" t="s">
+        <v>520</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H124" s="9"/>
-      <c r="I124" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J124" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="20" customHeight="1">
+        <v>349</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="20" customHeight="1">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -6817,26 +7256,29 @@
       <c r="D125" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="I125" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="J125" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="G125" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="I125" s="10" t="s">
+      <c r="K125" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="J125" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="20" customHeight="1">
+    </row>
+    <row r="126" spans="1:11" ht="20" customHeight="1">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -6849,26 +7291,29 @@
       <c r="D126" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E126" s="9" t="s">
-        <v>420</v>
+      <c r="E126" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="J126" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="20" customHeight="1">
+        <v>515</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="20" customHeight="1">
       <c r="A127" s="7">
         <v>126</v>
       </c>
@@ -6881,26 +7326,29 @@
       <c r="D127" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E127" s="9" t="s">
-        <v>444</v>
+      <c r="E127" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="I127" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="J127" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="20" customHeight="1">
+        <v>524</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="20" customHeight="1">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -6913,26 +7361,27 @@
       <c r="D128" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>413</v>
+      <c r="E128" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="G128" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="H128" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H128" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="I128" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="J128" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="20" customHeight="1">
+      <c r="I128" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="J128" s="10"/>
+      <c r="K128" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="20" customHeight="1">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -6945,24 +7394,29 @@
       <c r="D129" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E129" s="9" t="s">
-        <v>424</v>
+      <c r="E129" s="10" t="s">
+        <v>525</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="20" customHeight="1">
+        <v>418</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="20" customHeight="1">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -6975,26 +7429,29 @@
       <c r="D130" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E130" s="9" t="s">
-        <v>427</v>
+      <c r="E130" s="10" t="s">
+        <v>525</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="I130" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="J130" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="20" customHeight="1">
+        <v>439</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K130" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="20" customHeight="1">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -7007,24 +7464,29 @@
       <c r="D131" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E131" s="9" t="s">
-        <v>448</v>
+      <c r="E131" s="10" t="s">
+        <v>525</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="I131" s="10"/>
-      <c r="J131" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="20" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="20" customHeight="1">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -7038,25 +7500,26 @@
         <v>59</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="20" customHeight="1">
+        <v>525</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="20" customHeight="1">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -7069,14 +7532,29 @@
       <c r="D133" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="9"/>
-    </row>
-    <row r="134" spans="1:10" ht="20" customHeight="1">
+      <c r="E133" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="J133" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="20" customHeight="1">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -7089,24 +7567,29 @@
       <c r="D134" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E134" s="9" t="s">
-        <v>434</v>
+      <c r="E134" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H134" s="9"/>
-      <c r="I134" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="20" customHeight="1">
+        <v>425</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="20" customHeight="1">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -7119,24 +7602,29 @@
       <c r="D135" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E135" s="9" t="s">
-        <v>436</v>
+      <c r="E135" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="H135" s="9"/>
-      <c r="I135" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J135" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="20" customHeight="1">
+        <v>498</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="20" customHeight="1">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -7149,18 +7637,29 @@
       <c r="D136" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E136" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="F136" s="9"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="20" customHeight="1">
+      <c r="E136" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J136" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="20" customHeight="1">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -7173,18 +7672,29 @@
       <c r="D137" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E137" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="F137" s="9"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="20" customHeight="1">
+      <c r="E137" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="J137" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="20" customHeight="1">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -7197,18 +7707,29 @@
       <c r="D138" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E138" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="F138" s="9"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="20" customHeight="1">
+      <c r="E138" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="20" customHeight="1">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -7221,18 +7742,29 @@
       <c r="D139" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E139" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="F139" s="9"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="20" customHeight="1">
+      <c r="E139" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="J139" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="20" customHeight="1">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -7245,18 +7777,29 @@
       <c r="D140" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E140" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="F140" s="9"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="20" customHeight="1">
+      <c r="E140" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="J140" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="20" customHeight="1">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -7269,18 +7812,29 @@
       <c r="D141" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E141" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="20" customHeight="1">
+      <c r="E141" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="J141" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="20" customHeight="1">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -7293,18 +7847,29 @@
       <c r="D142" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E142" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="F142" s="9"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="20" customHeight="1">
+      <c r="E142" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="20" customHeight="1">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -7317,18 +7882,27 @@
       <c r="D143" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E143" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="F143" s="9"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="20" customHeight="1">
+      <c r="E143" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="20" customHeight="1">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -7341,18 +7915,27 @@
       <c r="D144" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E144" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="F144" s="9"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="20" customHeight="1">
+      <c r="E144" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="20" customHeight="1">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -7365,16 +7948,29 @@
       <c r="D145" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E145" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="F145" s="9"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="9"/>
-    </row>
-    <row r="146" spans="1:10" ht="20" customHeight="1">
+      <c r="E145" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="20" customHeight="1">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -7387,250 +7983,753 @@
       <c r="D146" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E146" s="9" t="s">
-        <v>439</v>
+      <c r="E146" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="G146" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="H146" s="9"/>
-      <c r="I146" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="20" customHeight="1">
+        <v>446</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="20" customHeight="1">
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="8"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="9"/>
-    </row>
-    <row r="148" spans="1:10" ht="20" customHeight="1">
+      <c r="B147" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J147" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="20" customHeight="1">
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="8"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="9"/>
-    </row>
-    <row r="149" spans="1:10" ht="20" customHeight="1">
+      <c r="B148" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="20" customHeight="1">
       <c r="A149" s="7">
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D149" s="10"/>
-      <c r="E149" s="9" t="s">
-        <v>396</v>
+        <v>44</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="G149" s="10"/>
-      <c r="H149" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I149" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J149" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="20" customHeight="1">
+        <v>449</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J149" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="20" customHeight="1">
       <c r="A150" s="7">
         <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D150" s="10"/>
-      <c r="E150" s="9" t="s">
-        <v>397</v>
+        <v>44</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="G150" s="10"/>
-      <c r="H150" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I150" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J150" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="20" customHeight="1">
+        <v>450</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="20" customHeight="1">
       <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D151" s="10"/>
-      <c r="E151" s="9" t="s">
-        <v>392</v>
+        <v>44</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="G151" s="10"/>
-      <c r="H151" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I151" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J151" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="20" customHeight="1">
+        <v>451</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="20" customHeight="1">
       <c r="A152" s="7">
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D152" s="10"/>
-      <c r="E152" s="9" t="s">
-        <v>399</v>
+        <v>44</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="G152" s="10"/>
-      <c r="H152" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I152" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J152" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="20" customHeight="1">
+        <v>452</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I152" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K152" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="20" customHeight="1">
       <c r="A153" s="7">
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D153" s="10"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="9"/>
-    </row>
-    <row r="154" spans="1:10" ht="20" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J153" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="20" customHeight="1">
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="9"/>
-    </row>
-    <row r="155" spans="1:10" ht="20" customHeight="1">
+      <c r="B154" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K154" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="20" customHeight="1">
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="9"/>
-    </row>
-    <row r="156" spans="1:10" ht="20" customHeight="1">
+      <c r="B155" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="20" customHeight="1">
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="9"/>
-    </row>
-    <row r="157" spans="1:10" ht="20" customHeight="1">
+      <c r="B156" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="I156" s="9"/>
+      <c r="J156" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K156" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="20" customHeight="1">
       <c r="A157" s="7">
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="20" customHeight="1">
+      <c r="A158" s="7">
+        <v>157</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K158" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="20" customHeight="1">
+      <c r="A159" s="7">
+        <v>158</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="J159" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K159" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="20" customHeight="1">
+      <c r="A160" s="7">
+        <v>159</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K160" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="20" customHeight="1">
+      <c r="A161" s="7">
+        <v>160</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="H161" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="J161" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="20" customHeight="1">
+      <c r="A162" s="7">
+        <v>161</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H162" s="10"/>
+      <c r="I162" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J162" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="20" customHeight="1">
+      <c r="A163" s="7">
+        <v>162</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="H163" s="10"/>
+      <c r="I163" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J163" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="20" customHeight="1">
+      <c r="A164" s="7">
+        <v>163</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="H164" s="10"/>
+      <c r="I164" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J164" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K164" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="20" customHeight="1">
+      <c r="A165" s="7">
+        <v>164</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H165" s="10"/>
+      <c r="I165" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J165" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="20" customHeight="1">
+      <c r="A166" s="7">
+        <v>165</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="9"/>
+    </row>
+    <row r="167" spans="1:11" ht="20" customHeight="1">
+      <c r="A167" s="7">
+        <v>166</v>
+      </c>
+      <c r="B167" s="8"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="9"/>
+    </row>
+    <row r="168" spans="1:11" ht="20" customHeight="1">
+      <c r="A168" s="7">
+        <v>167</v>
+      </c>
+      <c r="B168" s="8"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="10"/>
+      <c r="K168" s="9"/>
+    </row>
+    <row r="169" spans="1:11" ht="20" customHeight="1">
+      <c r="A169" s="7">
+        <v>168</v>
+      </c>
+      <c r="B169" s="8"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="9"/>
+    </row>
+    <row r="170" spans="1:11" ht="20" customHeight="1">
+      <c r="A170" s="7">
+        <v>169</v>
+      </c>
+      <c r="B170" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C170" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="10" t="s">
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F157" s="10" t="s">
+      <c r="G170" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G157" s="10" t="s">
+      <c r="H170" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H157" s="10" t="s">
+      <c r="I170" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I157" s="10" t="s">
+      <c r="J170" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J157" s="10" t="s">
+      <c r="K170" s="10" t="s">
         <v>321</v>
       </c>
     </row>

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE03A32A-B024-A242-A5A7-DAD67154C419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361B55ED-FEEF-1445-A203-D3F83AFF06DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="2640" windowWidth="36700" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11680" yWindow="3740" windowWidth="36700" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -20,37 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="530">
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>class_1st</t>
-  </si>
-  <si>
-    <t>class_2nd</t>
-  </si>
-  <si>
-    <t>class_3rd</t>
-  </si>
-  <si>
-    <t>label_kor</t>
-  </si>
-  <si>
-    <t>label_eng</t>
-  </si>
-  <si>
-    <t>wiget_type</t>
-  </si>
-  <si>
-    <t>widget_id</t>
-  </si>
-  <si>
-    <t>inout</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="534">
   <si>
     <t>메뉴</t>
   </si>
@@ -1384,9 +1354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cutButton</t>
-  </si>
-  <si>
     <t>비닝수행 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1605,10 +1572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class_4th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비닝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1762,6 +1725,68 @@
   </si>
   <si>
     <t>변수변환은 정수와 실수만 지원합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bin only support numeric and integer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝은 정수와 실수만 지원합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel_bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비닝 validate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binVariable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4차 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 기능</t>
+  </si>
+  <si>
+    <t>2차 기능</t>
+  </si>
+  <si>
+    <t>라벨_한글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라벨_영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인/아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3158,10 +3183,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:A170"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -3183,37 +3208,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>526</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>527</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>525</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>528</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>529</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>530</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>532</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1">
@@ -3221,28 +3246,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1">
@@ -3250,28 +3275,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1">
@@ -3279,28 +3304,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
@@ -3308,28 +3333,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
@@ -3337,28 +3362,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="J6" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
@@ -3366,28 +3391,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
@@ -3395,28 +3420,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
@@ -3424,28 +3449,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
@@ -3453,30 +3478,30 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
@@ -3484,30 +3509,30 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
@@ -3515,30 +3540,30 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20" customHeight="1">
@@ -3546,32 +3571,32 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20" customHeight="1">
@@ -3579,32 +3604,32 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1">
@@ -3612,32 +3637,32 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1">
@@ -3645,32 +3670,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1">
@@ -3678,32 +3703,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20" customHeight="1">
@@ -3711,32 +3736,32 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20" customHeight="1">
@@ -3744,32 +3769,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20" customHeight="1">
@@ -3777,32 +3802,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20" customHeight="1">
@@ -3810,32 +3835,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20" customHeight="1">
@@ -3843,28 +3868,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20" customHeight="1">
@@ -3872,32 +3897,32 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20" customHeight="1">
@@ -3905,30 +3930,30 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20" customHeight="1">
@@ -3936,32 +3961,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20" customHeight="1">
@@ -3969,32 +3994,32 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20" customHeight="1">
@@ -4002,32 +4027,32 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20" customHeight="1">
@@ -4035,32 +4060,32 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20" customHeight="1">
@@ -4068,32 +4093,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20" customHeight="1">
@@ -4101,32 +4126,32 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20" customHeight="1">
@@ -4134,32 +4159,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20" customHeight="1">
@@ -4167,32 +4192,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20" customHeight="1">
@@ -4200,32 +4225,32 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20" customHeight="1">
@@ -4233,32 +4258,32 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20" customHeight="1">
@@ -4266,32 +4291,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="20" customHeight="1">
@@ -4299,32 +4324,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="20" customHeight="1">
@@ -4332,32 +4357,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20" customHeight="1">
@@ -4365,32 +4390,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="20" customHeight="1">
@@ -4398,32 +4423,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="20" customHeight="1">
@@ -4431,32 +4456,32 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20" customHeight="1">
@@ -4464,32 +4489,32 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="20" customHeight="1">
@@ -4497,32 +4522,32 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="20" customHeight="1">
@@ -4530,32 +4555,32 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20" customHeight="1">
@@ -4563,32 +4588,32 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20" customHeight="1">
@@ -4596,32 +4621,32 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="20" customHeight="1">
@@ -4629,32 +4654,32 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="20" customHeight="1">
@@ -4662,32 +4687,32 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="20" customHeight="1">
@@ -4695,32 +4720,32 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20" customHeight="1">
@@ -4728,32 +4753,32 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="20" customHeight="1">
@@ -4761,32 +4786,32 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="20" customHeight="1">
@@ -4794,32 +4819,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="20" customHeight="1">
@@ -4827,32 +4852,32 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="20" customHeight="1">
@@ -4860,32 +4885,32 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="20" customHeight="1">
@@ -4893,32 +4918,32 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="20" customHeight="1">
@@ -4926,32 +4951,32 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="20" customHeight="1">
@@ -4959,32 +4984,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="20" customHeight="1">
@@ -4992,32 +5017,32 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="20" customHeight="1">
@@ -5025,32 +5050,32 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="20" customHeight="1">
@@ -5058,32 +5083,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="20" customHeight="1">
@@ -5091,32 +5116,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="20" customHeight="1">
@@ -5124,32 +5149,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="20" customHeight="1">
@@ -5157,32 +5182,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="20" customHeight="1">
@@ -5190,32 +5215,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="20" customHeight="1">
@@ -5223,32 +5248,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="20" customHeight="1">
@@ -5256,32 +5281,32 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="20" customHeight="1">
@@ -5289,32 +5314,32 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="20" customHeight="1">
@@ -5322,32 +5347,32 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="20" customHeight="1">
@@ -5355,32 +5380,32 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="20" customHeight="1">
@@ -5388,30 +5413,30 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="20" customHeight="1">
@@ -5419,32 +5444,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="20" customHeight="1">
@@ -5452,32 +5477,32 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="20" customHeight="1">
@@ -5485,32 +5510,32 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="20" customHeight="1">
@@ -5518,32 +5543,32 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="20" customHeight="1">
@@ -5551,32 +5576,32 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="20" customHeight="1">
@@ -5584,32 +5609,32 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="20" customHeight="1">
@@ -5617,32 +5642,32 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="20" customHeight="1">
@@ -5650,32 +5675,32 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="20" customHeight="1">
@@ -5683,32 +5708,32 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I78" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K78" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="20" customHeight="1">
@@ -5716,32 +5741,32 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="20" customHeight="1">
@@ -5749,32 +5774,32 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="20" customHeight="1">
@@ -5782,32 +5807,32 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="20" customHeight="1">
@@ -5815,30 +5840,30 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="20" customHeight="1">
@@ -5846,32 +5871,32 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="20" customHeight="1">
@@ -5879,32 +5904,32 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="20" customHeight="1">
@@ -5912,32 +5937,32 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="20" customHeight="1">
@@ -5945,32 +5970,32 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="20" customHeight="1">
@@ -5978,32 +6003,32 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="20" customHeight="1">
@@ -6011,30 +6036,30 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="20" customHeight="1">
@@ -6042,32 +6067,32 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="20" customHeight="1">
@@ -6075,32 +6100,32 @@
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="20" customHeight="1">
@@ -6108,32 +6133,32 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="20" customHeight="1">
@@ -6141,32 +6166,32 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="20" customHeight="1">
@@ -6174,32 +6199,32 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="20" customHeight="1">
@@ -6207,32 +6232,32 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20" customHeight="1">
@@ -6240,32 +6265,32 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="20" customHeight="1">
@@ -6273,30 +6298,30 @@
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="20" customHeight="1">
@@ -6304,32 +6329,32 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="10" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="20" customHeight="1">
@@ -6337,32 +6362,32 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="20" customHeight="1">
@@ -6370,32 +6395,32 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="20" customHeight="1">
@@ -6403,32 +6428,32 @@
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="20" customHeight="1">
@@ -6436,32 +6461,32 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="20" customHeight="1">
@@ -6469,30 +6494,30 @@
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="20" customHeight="1">
@@ -6500,32 +6525,32 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="20" customHeight="1">
@@ -6533,32 +6558,32 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="20" customHeight="1">
@@ -6566,32 +6591,32 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="20" customHeight="1">
@@ -6599,32 +6624,32 @@
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="20" customHeight="1">
@@ -6632,32 +6657,32 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="20" customHeight="1">
@@ -6665,32 +6690,32 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="20" customHeight="1">
@@ -6698,32 +6723,32 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="20" customHeight="1">
@@ -6731,32 +6756,32 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="20" customHeight="1">
@@ -6764,32 +6789,32 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K111" s="10" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="20" customHeight="1">
@@ -6797,34 +6822,34 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D112" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="J112" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="J112" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K112" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="20" customHeight="1">
@@ -6832,34 +6857,34 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D113" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J113" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="J113" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K113" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="20" customHeight="1">
@@ -6867,34 +6892,34 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D114" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J114" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E114" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="J114" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K114" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="20" customHeight="1">
@@ -6902,34 +6927,34 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D115" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J115" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="J115" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K115" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="20" customHeight="1">
@@ -6937,34 +6962,34 @@
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D116" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J116" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E116" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="J116" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K116" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="20" customHeight="1">
@@ -6972,34 +6997,34 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D117" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J117" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E117" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K117" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="20" customHeight="1">
@@ -7007,34 +7032,34 @@
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D118" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J118" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E118" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="J118" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K118" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="20" customHeight="1">
@@ -7042,34 +7067,34 @@
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D119" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="J119" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="J119" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K119" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="20" customHeight="1">
@@ -7077,34 +7102,34 @@
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D120" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="J120" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E120" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="J120" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K120" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="20" customHeight="1">
@@ -7112,32 +7137,32 @@
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="20" customHeight="1">
@@ -7145,32 +7170,32 @@
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="20" customHeight="1">
@@ -7178,34 +7203,34 @@
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D123" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="J123" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E123" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="J123" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K123" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="20" customHeight="1">
@@ -7213,34 +7238,34 @@
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D124" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J124" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E124" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="H124" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="J124" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="K124" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="20" customHeight="1">
@@ -7248,34 +7273,34 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="20" customHeight="1">
@@ -7283,34 +7308,34 @@
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="20" customHeight="1">
@@ -7318,34 +7343,34 @@
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="20" customHeight="1">
@@ -7353,32 +7378,32 @@
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="J128" s="10"/>
       <c r="K128" s="9" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="20" customHeight="1">
@@ -7386,34 +7411,34 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H129" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="K129" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="J129" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="K129" s="9" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="20" customHeight="1">
@@ -7421,34 +7446,34 @@
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="20" customHeight="1">
@@ -7456,34 +7481,34 @@
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F131" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="K131" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="J131" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="K131" s="9" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="20" customHeight="1">
@@ -7491,32 +7516,32 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="20" customHeight="1">
@@ -7524,34 +7549,34 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="20" customHeight="1">
@@ -7559,34 +7584,34 @@
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="20" customHeight="1">
@@ -7594,34 +7619,34 @@
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="20" customHeight="1">
@@ -7629,34 +7654,34 @@
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="20" customHeight="1">
@@ -7664,34 +7689,34 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="20" customHeight="1">
@@ -7699,34 +7724,34 @@
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E138" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="G138" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="F138" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>500</v>
-      </c>
       <c r="H138" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="20" customHeight="1">
@@ -7734,34 +7759,34 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="20" customHeight="1">
@@ -7769,34 +7794,34 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="20" customHeight="1">
@@ -7804,34 +7829,34 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I141" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="J141" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="K141" s="9" t="s">
         <v>492</v>
-      </c>
-      <c r="J141" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="K141" s="9" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="20" customHeight="1">
@@ -7839,34 +7864,34 @@
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>429</v>
+        <v>522</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="20" customHeight="1">
@@ -7874,32 +7899,32 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="20" customHeight="1">
@@ -7907,32 +7932,32 @@
         <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="20" customHeight="1">
@@ -7940,34 +7965,34 @@
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F145" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="I145" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="G145" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="H145" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>466</v>
-      </c>
       <c r="J145" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="20" customHeight="1">
@@ -7975,34 +8000,34 @@
         <v>145</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F146" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G146" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="G146" s="11" t="s">
-        <v>457</v>
-      </c>
       <c r="H146" s="10" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="20" customHeight="1">
@@ -8010,34 +8035,34 @@
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F147" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G147" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="G147" s="11" t="s">
-        <v>458</v>
-      </c>
       <c r="H147" s="10" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J147" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="20" customHeight="1">
@@ -8045,34 +8070,34 @@
         <v>147</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F148" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G148" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="G148" s="9" t="s">
-        <v>459</v>
-      </c>
       <c r="H148" s="10" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="20" customHeight="1">
@@ -8080,34 +8105,34 @@
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F149" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G149" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="G149" s="9" t="s">
-        <v>460</v>
-      </c>
       <c r="H149" s="10" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="20" customHeight="1">
@@ -8115,34 +8140,34 @@
         <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F150" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G150" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="G150" s="9" t="s">
-        <v>461</v>
-      </c>
       <c r="H150" s="10" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="20" customHeight="1">
@@ -8150,34 +8175,34 @@
         <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F151" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="G151" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="G151" s="9" t="s">
-        <v>462</v>
-      </c>
       <c r="H151" s="10" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="20" customHeight="1">
@@ -8185,34 +8210,34 @@
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F152" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="G152" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="G152" s="9" t="s">
-        <v>463</v>
-      </c>
       <c r="H152" s="10" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="20" customHeight="1">
@@ -8220,34 +8245,34 @@
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F153" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="G153" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="G153" s="9" t="s">
-        <v>464</v>
-      </c>
       <c r="H153" s="10" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J153" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="20" customHeight="1">
@@ -8255,34 +8280,34 @@
         <v>153</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F154" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="G154" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="G154" s="9" t="s">
-        <v>465</v>
-      </c>
       <c r="H154" s="10" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="20" customHeight="1">
@@ -8290,32 +8315,32 @@
         <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="20" customHeight="1">
@@ -8323,32 +8348,32 @@
         <v>155</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="20" customHeight="1">
@@ -8356,32 +8381,32 @@
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="I157" s="9"/>
       <c r="J157" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="20" customHeight="1">
@@ -8389,32 +8414,32 @@
         <v>157</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="20" customHeight="1">
@@ -8422,34 +8447,34 @@
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="H159" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="J159" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="20" customHeight="1">
@@ -8457,34 +8482,34 @@
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="J160" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="20" customHeight="1">
@@ -8492,34 +8517,34 @@
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="H161" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="20" customHeight="1">
@@ -8527,28 +8552,34 @@
         <v>161</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>387</v>
+        <v>6</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>476</v>
+      </c>
       <c r="F162" s="9" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="H162" s="10"/>
+        <v>518</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>504</v>
+      </c>
       <c r="I162" s="9" t="s">
-        <v>389</v>
+        <v>520</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>388</v>
+        <v>521</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="20" customHeight="1">
@@ -8556,28 +8587,28 @@
         <v>162</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="9" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H163" s="10"/>
       <c r="I163" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="20" customHeight="1">
@@ -8585,28 +8616,28 @@
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
       <c r="F164" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H164" s="10"/>
       <c r="I164" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="20" customHeight="1">
@@ -8614,28 +8645,28 @@
         <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
       <c r="F165" s="9" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="H165" s="10"/>
       <c r="I165" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="J165" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="20" customHeight="1">
@@ -8643,26 +8674,40 @@
         <v>165</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
+      <c r="F166" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="H166" s="10"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="9"/>
+      <c r="I166" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="J166" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="167" spans="1:11" ht="20" customHeight="1">
       <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="8"/>
-      <c r="C167" s="10"/>
+      <c r="B167" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>378</v>
+      </c>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="9"/>
@@ -8706,31 +8751,46 @@
       <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="G170" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="H170" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I170" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="J170" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K170" s="10" t="s">
-        <v>321</v>
+      <c r="B170" s="8"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="9"/>
+    </row>
+    <row r="171" spans="1:11" ht="20" customHeight="1">
+      <c r="A171" s="7">
+        <v>170</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I171" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="J171" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K171" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361B55ED-FEEF-1445-A203-D3F83AFF06DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CD2BBE-ABB4-274B-AFA5-B25E2EAA1CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="3740" windowWidth="36700" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15280" yWindow="3060" windowWidth="36700" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="561">
   <si>
     <t>메뉴</t>
   </si>
@@ -1279,10 +1279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범주 순서변경:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변수 순서변경 라벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1673,10 +1669,6 @@
     <t>panel_reorder_levels</t>
   </si>
   <si>
-    <t>범주 순서변경은 범주형 데이터만 지원합니다. 원한다면 먼저 범주형 데이터로 변경 후 진행하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>validate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1707,9 +1699,6 @@
     <t>Interactive re-ordering is only supported up to 30 levels.</t>
   </si>
   <si>
-    <t>범주 순서변경은 범주 레벨의 개수가 30개까지만 지원합니다.</t>
-  </si>
-  <si>
     <t>변수변환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1788,13 +1777,126 @@
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 레벨 순서변경</t>
+  </si>
+  <si>
+    <t>범주 레벨 순서변경:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 레벨 순서변경은 범주형 데이터만 지원합니다. 원한다면 먼저 범주형 데이터로 변경 후 진행하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 레벨 순서변경은 범주 레벨의 개수가 30개까지만 지원합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 레벨 순서변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 레벨 변경/병합</t>
+  </si>
+  <si>
+    <t>Reorganize levels</t>
+  </si>
+  <si>
+    <t>범주 레벨 변경/병합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 레벨 변경/병합은 범주형 데이터만 지원합니다. 원한다면 먼저 범주형 데이터로 변경 후 진행하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 레벨 변경/병합은 범주 레벨의 개수가 30개까지만 지원합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reorganize levels only support factors. If you want, cast it to factor first.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interactive re-organizng is only supported up to 30 levels.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reorgVariable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel_reorg_levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경/병합 대상 레벨:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reorganize levels:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reorg_levels</t>
+  </si>
+  <si>
+    <t>변경/병합 대상 레벨 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replacement level name:</t>
+  </si>
+  <si>
+    <t>대체 레벨 이름:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체 레벨 이름 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체 레벨 이름 placeholder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체할 라벨 이름을 입력하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide name for re-orgnaze levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 이름:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable name:</t>
+  </si>
+  <si>
+    <t>reorg_variable_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1824,6 +1926,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
       <charset val="129"/>
@@ -1983,7 +2102,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2022,6 +2141,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3183,10 +3314,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B109" workbookViewId="0">
+      <selection activeCell="B135" sqref="A135:XFD135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -3195,7 +3326,7 @@
     <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="72" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -3208,37 +3339,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1">
@@ -5225,7 +5356,7 @@
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>164</v>
+        <v>549</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>165</v>
@@ -5258,7 +5389,7 @@
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
-        <v>168</v>
+        <v>550</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>148</v>
@@ -6423,36 +6554,36 @@
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="20" customHeight="1">
-      <c r="A100" s="7">
+    <row r="100" spans="1:11" s="16" customFormat="1" ht="20" customHeight="1">
+      <c r="A100" s="13">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="10" t="s">
+      <c r="B100" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10" t="s">
+      <c r="E100" s="15"/>
+      <c r="F100" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="H100" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="J100" s="10" t="s">
+      <c r="J100" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="K100" s="10" t="s">
+      <c r="K100" s="15" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6733,10 +6864,10 @@
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G109" s="10" t="s">
         <v>401</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>402</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>3</v>
@@ -6766,10 +6897,10 @@
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="G110" s="10" t="s">
         <v>403</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>404</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>3</v>
@@ -6831,7 +6962,7 @@
         <v>49</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>302</v>
@@ -6866,7 +6997,7 @@
         <v>49</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>312</v>
@@ -6901,7 +7032,7 @@
         <v>49</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>316</v>
@@ -6936,7 +7067,7 @@
         <v>49</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>317</v>
@@ -6971,7 +7102,7 @@
         <v>49</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>318</v>
@@ -7006,7 +7137,7 @@
         <v>49</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>319</v>
@@ -7041,7 +7172,7 @@
         <v>49</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>320</v>
@@ -7076,13 +7207,13 @@
         <v>49</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>332</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>121</v>
@@ -7111,13 +7242,13 @@
         <v>49</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>353</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H120" s="9" t="s">
         <v>121</v>
@@ -7146,7 +7277,7 @@
         <v>49</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>341</v>
@@ -7179,7 +7310,7 @@
         <v>49</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>342</v>
@@ -7212,7 +7343,7 @@
         <v>49</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>331</v>
@@ -7247,7 +7378,7 @@
         <v>49</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>339</v>
@@ -7282,10 +7413,10 @@
         <v>49</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>350</v>
+        <v>531</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="G125" s="9" t="s">
         <v>395</v>
@@ -7294,13 +7425,13 @@
         <v>396</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J125" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="20" customHeight="1">
@@ -7317,25 +7448,25 @@
         <v>49</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>350</v>
+        <v>531</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="G126" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="I126" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>502</v>
       </c>
       <c r="J126" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="20" customHeight="1">
@@ -7352,25 +7483,25 @@
         <v>49</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>350</v>
+        <v>531</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J127" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="20" customHeight="1">
@@ -7387,10 +7518,10 @@
         <v>49</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>350</v>
+        <v>531</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>350</v>
+        <v>535</v>
       </c>
       <c r="G128" s="9" t="s">
         <v>351</v>
@@ -7399,17 +7530,17 @@
         <v>130</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="J128" s="10"/>
+        <v>507</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>397</v>
+      </c>
       <c r="K128" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="20" customHeight="1">
-      <c r="A129" s="7">
-        <v>128</v>
-      </c>
+      <c r="A129" s="7"/>
       <c r="B129" s="8" t="s">
         <v>6</v>
       </c>
@@ -7420,31 +7551,29 @@
         <v>49</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>408</v>
+        <v>536</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>545</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>407</v>
+        <v>546</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>396</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>405</v>
+        <v>547</v>
       </c>
       <c r="J129" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>406</v>
+        <v>548</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="20" customHeight="1">
-      <c r="A130" s="7">
-        <v>129</v>
-      </c>
+      <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
         <v>6</v>
       </c>
@@ -7455,31 +7584,29 @@
         <v>49</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>428</v>
+        <v>539</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>430</v>
+        <v>541</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>106</v>
+        <v>502</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>427</v>
+        <v>544</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="20" customHeight="1">
-      <c r="A131" s="7">
-        <v>130</v>
-      </c>
+      <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
         <v>6</v>
       </c>
@@ -7490,31 +7617,29 @@
         <v>49</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>401</v>
+        <v>540</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>409</v>
+        <v>542</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>130</v>
+        <v>502</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>410</v>
+        <v>544</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>411</v>
+        <v>503</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="20" customHeight="1">
-      <c r="A132" s="7">
-        <v>131</v>
-      </c>
+      <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
         <v>6</v>
       </c>
@@ -7525,29 +7650,29 @@
         <v>49</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>412</v>
+        <v>553</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="I132" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>551</v>
+      </c>
       <c r="J132" s="10" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>413</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="20" customHeight="1">
-      <c r="A133" s="7">
-        <v>132</v>
-      </c>
+      <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
         <v>6</v>
       </c>
@@ -7558,31 +7683,29 @@
         <v>49</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>504</v>
+        <v>121</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="20" customHeight="1">
-      <c r="A134" s="7">
-        <v>133</v>
-      </c>
+      <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
         <v>6</v>
       </c>
@@ -7593,31 +7716,29 @@
         <v>49</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>415</v>
+        <v>536</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>558</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>416</v>
+        <v>559</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>396</v>
+        <v>121</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>417</v>
+        <v>560</v>
       </c>
       <c r="J134" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>418</v>
+        <v>558</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="20" customHeight="1">
-      <c r="A135" s="7">
-        <v>134</v>
-      </c>
+      <c r="A135" s="7"/>
       <c r="B135" s="8" t="s">
         <v>6</v>
       </c>
@@ -7628,30 +7749,30 @@
         <v>49</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>433</v>
+        <v>537</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>431</v>
+        <v>543</v>
       </c>
       <c r="J135" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="20" customHeight="1">
       <c r="A136" s="7">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>6</v>
@@ -7663,30 +7784,30 @@
         <v>49</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>478</v>
+        <v>407</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>477</v>
+        <v>406</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>121</v>
+        <v>396</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="J136" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="20" customHeight="1">
       <c r="A137" s="7">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>6</v>
@@ -7698,30 +7819,30 @@
         <v>49</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>487</v>
+        <v>429</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="J137" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="20" customHeight="1">
       <c r="A138" s="7">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>6</v>
@@ -7733,30 +7854,30 @@
         <v>49</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>494</v>
+        <v>400</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>488</v>
+        <v>408</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="J138" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>498</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="20" customHeight="1">
       <c r="A139" s="7">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>6</v>
@@ -7768,30 +7889,28 @@
         <v>49</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>495</v>
+        <v>411</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>482</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="I139" s="9"/>
       <c r="J139" s="10" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="20" customHeight="1">
       <c r="A140" s="7">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>6</v>
@@ -7803,30 +7922,30 @@
         <v>49</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>106</v>
+        <v>502</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="20" customHeight="1">
       <c r="A141" s="7">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>6</v>
@@ -7838,30 +7957,30 @@
         <v>49</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>492</v>
+        <v>414</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>493</v>
+        <v>415</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>121</v>
+        <v>396</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="J141" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>492</v>
+        <v>417</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="20" customHeight="1">
       <c r="A142" s="7">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>6</v>
@@ -7873,30 +7992,30 @@
         <v>49</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>404</v>
+        <v>475</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>522</v>
+        <v>430</v>
       </c>
       <c r="J142" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="20" customHeight="1">
       <c r="A143" s="7">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>6</v>
@@ -7908,28 +8027,30 @@
         <v>49</v>
       </c>
       <c r="E143" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="G143" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="F143" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>420</v>
-      </c>
       <c r="H143" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="I143" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="J143" s="10" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="20" customHeight="1">
       <c r="A144" s="7">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>6</v>
@@ -7941,28 +8062,30 @@
         <v>49</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="I144" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>483</v>
+      </c>
       <c r="J144" s="10" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="20" customHeight="1">
       <c r="A145" s="7">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>6</v>
@@ -7974,30 +8097,30 @@
         <v>49</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>456</v>
+        <v>72</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="J145" s="10" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="20" customHeight="1">
       <c r="A146" s="7">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>6</v>
@@ -8009,30 +8132,30 @@
         <v>49</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>446</v>
+        <v>494</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>478</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>456</v>
+        <v>72</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="20" customHeight="1">
       <c r="A147" s="7">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>6</v>
@@ -8044,30 +8167,30 @@
         <v>49</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>447</v>
+        <v>489</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>490</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="J147" s="10" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="20" customHeight="1">
       <c r="A148" s="7">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>6</v>
@@ -8079,30 +8202,30 @@
         <v>49</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>456</v>
+        <v>121</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="20" customHeight="1">
       <c r="A149" s="7">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>6</v>
@@ -8114,30 +8237,30 @@
         <v>49</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>449</v>
+        <v>475</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="20" customHeight="1">
       <c r="A150" s="7">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>6</v>
@@ -8149,30 +8272,28 @@
         <v>49</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="I150" s="9" t="s">
-        <v>455</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="I150" s="9"/>
       <c r="J150" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="20" customHeight="1">
       <c r="A151" s="7">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>6</v>
@@ -8184,30 +8305,28 @@
         <v>49</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>455</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="I151" s="9"/>
       <c r="J151" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="20" customHeight="1">
       <c r="A152" s="7">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>6</v>
@@ -8219,30 +8338,30 @@
         <v>49</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J152" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="20" customHeight="1">
       <c r="A153" s="7">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>6</v>
@@ -8254,30 +8373,30 @@
         <v>49</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>453</v>
+        <v>434</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J153" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="20" customHeight="1">
       <c r="A154" s="7">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>6</v>
@@ -8289,30 +8408,30 @@
         <v>49</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="G154" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="I154" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="H154" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="I154" s="9" t="s">
-        <v>455</v>
       </c>
       <c r="J154" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="20" customHeight="1">
       <c r="A155" s="7">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>6</v>
@@ -8324,28 +8443,30 @@
         <v>49</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="I155" s="9"/>
+        <v>455</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="J155" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="20" customHeight="1">
       <c r="A156" s="7">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>6</v>
@@ -8357,28 +8478,30 @@
         <v>49</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="I156" s="9"/>
+        <v>455</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="J156" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="20" customHeight="1">
       <c r="A157" s="7">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>6</v>
@@ -8390,28 +8513,30 @@
         <v>49</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="I157" s="9"/>
+        <v>455</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="J157" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="20" customHeight="1">
       <c r="A158" s="7">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>6</v>
@@ -8423,28 +8548,30 @@
         <v>49</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="I158" s="9"/>
+        <v>455</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="J158" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="20" customHeight="1">
       <c r="A159" s="7">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>6</v>
@@ -8456,30 +8583,30 @@
         <v>49</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="H159" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I159" s="12" t="s">
-        <v>469</v>
+        <v>455</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>454</v>
       </c>
       <c r="J159" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="20" customHeight="1">
       <c r="A160" s="7">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>6</v>
@@ -8491,30 +8618,30 @@
         <v>49</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>116</v>
+        <v>455</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J160" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="20" customHeight="1">
       <c r="A161" s="7">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>6</v>
@@ -8526,30 +8653,30 @@
         <v>49</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="H161" s="10" t="s">
-        <v>116</v>
+        <v>455</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J161" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="20" customHeight="1">
       <c r="A162" s="7">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>6</v>
@@ -8561,235 +8688,472 @@
         <v>49</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="H162" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="I162" s="9" t="s">
-        <v>520</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="I162" s="9"/>
       <c r="J162" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="20" customHeight="1">
       <c r="A163" s="7">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>475</v>
+      </c>
       <c r="F163" s="9" t="s">
-        <v>384</v>
+        <v>466</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="H163" s="10"/>
-      <c r="I163" s="9" t="s">
-        <v>379</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="I163" s="9"/>
       <c r="J163" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>378</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="20" customHeight="1">
       <c r="A164" s="7">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>475</v>
+      </c>
       <c r="F164" s="9" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H164" s="10"/>
-      <c r="I164" s="9" t="s">
-        <v>379</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="I164" s="9"/>
       <c r="J164" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="20" customHeight="1">
       <c r="A165" s="7">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>475</v>
+      </c>
       <c r="F165" s="9" t="s">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="H165" s="10"/>
-      <c r="I165" s="9" t="s">
-        <v>379</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="I165" s="9"/>
       <c r="J165" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>378</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="20" customHeight="1">
       <c r="A166" s="7">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>475</v>
+      </c>
       <c r="F166" s="9" t="s">
-        <v>387</v>
+        <v>472</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="H166" s="10"/>
-      <c r="I166" s="9" t="s">
-        <v>379</v>
+        <v>469</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="J166" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K166" s="9" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="20" customHeight="1">
       <c r="A167" s="7">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="J167" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="168" spans="1:11" ht="20" customHeight="1">
       <c r="A168" s="7">
-        <v>167</v>
-      </c>
-      <c r="B168" s="8"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="10"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="10"/>
-      <c r="K168" s="9"/>
+        <v>160</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="J168" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="169" spans="1:11" ht="20" customHeight="1">
       <c r="A169" s="7">
-        <v>168</v>
-      </c>
-      <c r="B169" s="8"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="10"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="10"/>
-      <c r="K169" s="9"/>
+        <v>161</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="J169" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="170" spans="1:11" ht="20" customHeight="1">
       <c r="A170" s="7">
-        <v>169</v>
-      </c>
-      <c r="B170" s="8"/>
-      <c r="C170" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>378</v>
+      </c>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
+      <c r="F170" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>381</v>
+      </c>
       <c r="H170" s="10"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="10"/>
-      <c r="K170" s="9"/>
+      <c r="I170" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="J170" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K170" s="9" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="171" spans="1:11" ht="20" customHeight="1">
       <c r="A171" s="7">
+        <v>163</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H171" s="10"/>
+      <c r="I171" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="J171" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K171" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="20" customHeight="1">
+      <c r="A172" s="7">
+        <v>164</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="H172" s="10"/>
+      <c r="I172" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="J172" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K172" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="20" customHeight="1">
+      <c r="A173" s="7">
+        <v>165</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="H173" s="10"/>
+      <c r="I173" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="J173" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="20" customHeight="1">
+      <c r="A174" s="7">
+        <v>166</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="9"/>
+    </row>
+    <row r="175" spans="1:11" ht="20" customHeight="1">
+      <c r="A175" s="7">
+        <v>167</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="9"/>
+    </row>
+    <row r="176" spans="1:11" ht="20" customHeight="1">
+      <c r="A176" s="7">
+        <v>168</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="10"/>
+      <c r="K176" s="9"/>
+    </row>
+    <row r="177" spans="1:11" ht="20" customHeight="1">
+      <c r="A177" s="7">
+        <v>169</v>
+      </c>
+      <c r="B177" s="8"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="9"/>
+    </row>
+    <row r="178" spans="1:11" ht="20" customHeight="1">
+      <c r="A178" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B178" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C178" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="10" t="s">
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="G171" s="10" t="s">
+      <c r="G178" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="H171" s="10" t="s">
+      <c r="H178" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I171" s="10" t="s">
+      <c r="I178" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="J171" s="10" t="s">
+      <c r="J178" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K171" s="10" t="s">
+      <c r="K178" s="10" t="s">
         <v>311</v>
       </c>
     </row>

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CD2BBE-ABB4-274B-AFA5-B25E2EAA1CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39817542-C463-3A44-AB23-DF81B495FF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="3060" windowWidth="36700" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -1634,10 +1634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>극단값 포함 여부 (include.lowest)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가능할 경우의 극단값 추가 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1840,56 +1836,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>변경/병합 대상 레벨 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replacement level name:</t>
+  </si>
+  <si>
+    <t>대체 레벨 이름:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체 레벨 이름 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체 레벨 이름 placeholder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체할 라벨 이름을 입력하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide name for re-orgnaze levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 이름:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable name:</t>
+  </si>
+  <si>
+    <t>reorg_variable_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>reorg_levels</t>
-  </si>
-  <si>
-    <t>변경/병합 대상 레벨 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 이름:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 받기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new_levels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replacement level name:</t>
-  </si>
-  <si>
-    <t>대체 레벨 이름:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대체 레벨 이름 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대체 레벨 이름 placeholder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대체할 라벨 이름을 입력하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Provide name for re-orgnaze levels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수 이름:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variable name:</t>
-  </si>
-  <si>
-    <t>reorg_variable_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말단값 포함 여부 (include.lowest)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3316,8 +3318,8 @@
   </sheetPr>
   <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B109" workbookViewId="0">
-      <selection activeCell="B135" sqref="A135:XFD135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B121" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -3339,37 +3341,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1">
@@ -5356,7 +5358,7 @@
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>165</v>
@@ -5389,7 +5391,7 @@
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>148</v>
@@ -6962,7 +6964,7 @@
         <v>49</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>302</v>
@@ -6997,7 +6999,7 @@
         <v>49</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>312</v>
@@ -7032,7 +7034,7 @@
         <v>49</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>316</v>
@@ -7067,7 +7069,7 @@
         <v>49</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>317</v>
@@ -7102,7 +7104,7 @@
         <v>49</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>318</v>
@@ -7137,7 +7139,7 @@
         <v>49</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>319</v>
@@ -7172,7 +7174,7 @@
         <v>49</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>320</v>
@@ -7207,7 +7209,7 @@
         <v>49</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>332</v>
@@ -7242,13 +7244,13 @@
         <v>49</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>353</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H120" s="9" t="s">
         <v>121</v>
@@ -7277,7 +7279,7 @@
         <v>49</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>341</v>
@@ -7310,7 +7312,7 @@
         <v>49</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>342</v>
@@ -7343,7 +7345,7 @@
         <v>49</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>331</v>
@@ -7378,7 +7380,7 @@
         <v>49</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>339</v>
@@ -7413,10 +7415,10 @@
         <v>49</v>
       </c>
       <c r="E125" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>531</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>532</v>
       </c>
       <c r="G125" s="9" t="s">
         <v>395</v>
@@ -7448,25 +7450,25 @@
         <v>49</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G126" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="I126" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>501</v>
       </c>
       <c r="J126" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="20" customHeight="1">
@@ -7483,25 +7485,25 @@
         <v>49</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J127" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="20" customHeight="1">
@@ -7518,10 +7520,10 @@
         <v>49</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G128" s="9" t="s">
         <v>351</v>
@@ -7530,13 +7532,13 @@
         <v>130</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J128" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="20" customHeight="1">
@@ -7551,25 +7553,25 @@
         <v>49</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F129" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="G129" s="9" t="s">
         <v>545</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>546</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>396</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="J129" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="20" customHeight="1">
@@ -7584,25 +7586,25 @@
         <v>49</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J130" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="20" customHeight="1">
@@ -7617,25 +7619,25 @@
         <v>49</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J131" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="20" customHeight="1">
@@ -7650,25 +7652,25 @@
         <v>49</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H132" s="10" t="s">
         <v>121</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J132" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="20" customHeight="1">
@@ -7683,25 +7685,25 @@
         <v>49</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H133" s="10" t="s">
         <v>121</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J133" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="20" customHeight="1">
@@ -7716,25 +7718,25 @@
         <v>49</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H134" s="10" t="s">
         <v>121</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J134" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="20" customHeight="1">
@@ -7749,25 +7751,25 @@
         <v>49</v>
       </c>
       <c r="E135" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="G135" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="H135" s="10" t="s">
         <v>130</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J135" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="20" customHeight="1">
@@ -7784,7 +7786,7 @@
         <v>49</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>407</v>
@@ -7819,7 +7821,7 @@
         <v>49</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>427</v>
@@ -7854,7 +7856,7 @@
         <v>49</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>400</v>
@@ -7889,7 +7891,7 @@
         <v>49</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>411</v>
@@ -7922,25 +7924,25 @@
         <v>49</v>
       </c>
       <c r="E140" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="I140" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="H140" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="J140" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="20" customHeight="1">
@@ -8045,7 +8047,7 @@
         <v>397</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="20" customHeight="1">
@@ -8080,7 +8082,7 @@
         <v>397</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="20" customHeight="1">
@@ -8100,7 +8102,7 @@
         <v>475</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="G145" s="9" t="s">
         <v>487</v>
@@ -8115,7 +8117,7 @@
         <v>397</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="20" customHeight="1">
@@ -8135,7 +8137,7 @@
         <v>475</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G146" s="9" t="s">
         <v>478</v>
@@ -8150,7 +8152,7 @@
         <v>397</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="20" customHeight="1">
@@ -8249,7 +8251,7 @@
         <v>130</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J149" s="10" t="s">
         <v>397</v>
@@ -8928,22 +8930,22 @@
         <v>475</v>
       </c>
       <c r="F169" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="I169" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="H169" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="J169" s="10" t="s">
         <v>344</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="20" customHeight="1">

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39817542-C463-3A44-AB23-DF81B495FF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE09B8-5763-E94E-A809-A01E871B98F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="2620" windowWidth="28580" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - lable_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="562">
   <si>
     <t>메뉴</t>
   </si>
@@ -1891,6 +1891,10 @@
   </si>
   <si>
     <t>말단값 포함 여부 (include.lowest)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1950,7 +1954,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1967,6 +1971,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2104,7 +2120,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2118,9 +2134,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2138,9 +2151,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2154,6 +2164,36 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3316,10 +3356,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B121" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -3329,11 +3370,11 @@
     <col min="3" max="3" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="23" customWidth="1"/>
+    <col min="7" max="7" width="42" style="23" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="52.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="8.33203125" style="2"/>
@@ -3355,10 +3396,10 @@
       <c r="E1" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="24" t="s">
         <v>525</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3381,228 +3422,276 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3610,257 +3699,279 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20" customHeight="1">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20" customHeight="1">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3868,257 +3979,277 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20" customHeight="1">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20" customHeight="1">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20" customHeight="1">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20" customHeight="1">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
+      <c r="D22" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20" customHeight="1">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20" customHeight="1">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10" t="s">
+      <c r="I24" s="8"/>
+      <c r="J24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20" customHeight="1">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4126,263 +4257,279 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20" customHeight="1">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20" customHeight="1">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20" customHeight="1">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20" customHeight="1">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20" customHeight="1">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20" customHeight="1">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20" customHeight="1">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4390,4772 +4537,4884 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="s">
+      <c r="E34" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F34" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20" customHeight="1">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
+      <c r="E35" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="20" customHeight="1">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F36" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="20" customHeight="1">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F37" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20" customHeight="1">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
+      <c r="E38" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F38" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="20" customHeight="1">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="20" customHeight="1">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10" t="s">
+      <c r="E40" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20" customHeight="1">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10" t="s">
+      <c r="E41" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="9" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="20" customHeight="1">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
+      <c r="E42" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="20" customHeight="1">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10" t="s">
+      <c r="E43" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="9" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20" customHeight="1">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
+      <c r="E44" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F44" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20" customHeight="1">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F45" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="9" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="20" customHeight="1">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10" t="s">
+      <c r="E46" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F46" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="9" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="20" customHeight="1">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10" t="s">
+      <c r="E47" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F47" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="9" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="20" customHeight="1">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
+      <c r="E48" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F48" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="9" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20" customHeight="1">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10" t="s">
+      <c r="E49" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F49" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="9" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="20" customHeight="1">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10" t="s">
+      <c r="E50" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="9" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="20" customHeight="1">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10" t="s">
+      <c r="E51" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F51" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="9" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="20" customHeight="1">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10" t="s">
+      <c r="E52" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="9" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="20" customHeight="1">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10" t="s">
+      <c r="E53" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="9" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="20" customHeight="1">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="10" t="s">
+      <c r="B54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10" t="s">
+      <c r="E54" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F54" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="9" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="20" customHeight="1">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="B55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
+      <c r="E55" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="20" customHeight="1">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="B56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10" t="s">
+      <c r="E56" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="20" customHeight="1">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="B57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10" t="s">
+      <c r="E57" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="20" customHeight="1">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10" t="s">
+      <c r="E58" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="20" customHeight="1">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
+      <c r="E59" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F59" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="20" customHeight="1">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="B60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10" t="s">
+      <c r="E60" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F60" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="20" customHeight="1">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="B61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
+      <c r="E61" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F61" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="20" customHeight="1">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="10" t="s">
+      <c r="B62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="s">
+      <c r="E62" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F62" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I62" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="20" customHeight="1">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10" t="s">
+      <c r="E63" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F63" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H63" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="20" customHeight="1">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10" t="s">
+      <c r="E64" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F64" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I64" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="J64" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="20" customHeight="1">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10" t="s">
+      <c r="E65" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F65" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="20" customHeight="1">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="10" t="s">
+      <c r="B66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10" t="s">
+      <c r="E66" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F66" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I66" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="20" customHeight="1">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10" t="s">
+      <c r="E67" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F67" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="20" customHeight="1">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="B68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10" t="s">
+      <c r="E68" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F68" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H68" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="20" customHeight="1">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10" t="s">
+      <c r="E69" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F69" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H69" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="10" t="s">
+      <c r="I69" s="8"/>
+      <c r="J69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="20" customHeight="1">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="B70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10" t="s">
+      <c r="E70" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F70" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H70" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I70" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J70" s="10" t="s">
+      <c r="J70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="20" customHeight="1">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10" t="s">
+      <c r="E71" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F71" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="20" customHeight="1">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="B72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10" t="s">
+      <c r="E72" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F72" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J72" s="10" t="s">
+      <c r="J72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="9" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="20" customHeight="1">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="10" t="s">
+      <c r="B73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10" t="s">
+      <c r="E73" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F73" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H73" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="9" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="20" customHeight="1">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="10" t="s">
+      <c r="B74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10" t="s">
+      <c r="E74" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F74" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="I74" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K74" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="20" customHeight="1">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10" t="s">
+      <c r="E75" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F75" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="H75" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="20" customHeight="1">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="10" t="s">
+      <c r="B76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10" t="s">
+      <c r="E76" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F76" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G76" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="H76" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="K76" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="20" customHeight="1">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="B77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10" t="s">
+      <c r="E77" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F77" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="H77" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="I77" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="J77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="20" customHeight="1">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="10" t="s">
+      <c r="B78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10" t="s">
+      <c r="E78" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F78" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="H78" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="I78" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J78" s="10" t="s">
+      <c r="J78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K78" s="10" t="s">
+      <c r="K78" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="20" customHeight="1">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="B79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10" t="s">
+      <c r="E79" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F79" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="J79" s="10" t="s">
+      <c r="J79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K79" s="10" t="s">
+      <c r="K79" s="9" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="20" customHeight="1">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="B80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10" t="s">
+      <c r="E80" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F80" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H80" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="I80" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="J80" s="10" t="s">
+      <c r="J80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K80" s="10" t="s">
+      <c r="K80" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="20" customHeight="1">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10" t="s">
+      <c r="E81" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F81" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I81" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="J81" s="10" t="s">
+      <c r="J81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K81" s="10" t="s">
+      <c r="K81" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="20" customHeight="1">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="10" t="s">
+      <c r="B82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10" t="s">
+      <c r="E82" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F82" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I82" s="9"/>
-      <c r="J82" s="10" t="s">
+      <c r="I82" s="8"/>
+      <c r="J82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K82" s="10" t="s">
+      <c r="K82" s="9" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="20" customHeight="1">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="10" t="s">
+      <c r="B83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10" t="s">
+      <c r="E83" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F83" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J83" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="K83" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="20" customHeight="1">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10" t="s">
+      <c r="E84" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F84" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H84" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I84" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J84" s="10" t="s">
+      <c r="J84" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="K84" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="20" customHeight="1">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="10" t="s">
+      <c r="B85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10" t="s">
+      <c r="E85" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F85" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H85" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I85" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="K85" s="9" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="20" customHeight="1">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="10" t="s">
+      <c r="B86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10" t="s">
+      <c r="E86" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F86" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="9" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="20" customHeight="1">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="10" t="s">
+      <c r="B87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10" t="s">
+      <c r="E87" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F87" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H87" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I87" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="K87" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="20" customHeight="1">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="10" t="s">
+      <c r="B88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10" t="s">
+      <c r="E88" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F88" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="H88" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I88" s="9"/>
-      <c r="J88" s="10" t="s">
+      <c r="I88" s="8"/>
+      <c r="J88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K88" s="10" t="s">
+      <c r="K88" s="9" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="20" customHeight="1">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="10" t="s">
+      <c r="B89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10" t="s">
+      <c r="E89" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F89" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H89" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="I89" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="K89" s="9" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="20" customHeight="1">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="10" t="s">
+      <c r="B90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10" t="s">
+      <c r="E90" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F90" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G90" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="H90" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="I90" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="J90" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="K90" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="20" customHeight="1">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="B91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10" t="s">
+      <c r="E91" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F91" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="J91" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="K91" s="9" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="20" customHeight="1">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="10" t="s">
+      <c r="B92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10" t="s">
+      <c r="E92" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F92" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G92" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H92" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="K92" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="20" customHeight="1">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="10" t="s">
+      <c r="B93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10" t="s">
+      <c r="E93" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F93" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="H93" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="J93" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K93" s="10" t="s">
+      <c r="K93" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="20" customHeight="1">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="10" t="s">
+      <c r="B94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10" t="s">
+      <c r="E94" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F94" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G94" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="K94" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20" customHeight="1">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="10" t="s">
+      <c r="B95" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10" t="s">
+      <c r="E95" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F95" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K95" s="10" t="s">
+      <c r="K95" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="20" customHeight="1">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="10" t="s">
+      <c r="B96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10" t="s">
+      <c r="E96" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F96" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="G96" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I96" s="9"/>
-      <c r="J96" s="10" t="s">
+      <c r="I96" s="8"/>
+      <c r="J96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K96" s="10" t="s">
+      <c r="K96" s="9" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="20" customHeight="1">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="10" t="s">
+      <c r="B97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10" t="s">
+      <c r="E97" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F97" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G97" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I97" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="J97" s="10" t="s">
+      <c r="J97" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K97" s="10" t="s">
+      <c r="K97" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="20" customHeight="1">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="10" t="s">
+      <c r="B98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10" t="s">
+      <c r="E98" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F98" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G98" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="J98" s="10" t="s">
+      <c r="J98" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K98" s="10" t="s">
+      <c r="K98" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="20" customHeight="1">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="10" t="s">
+      <c r="B99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10" t="s">
+      <c r="E99" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F99" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="G99" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="H99" s="10" t="s">
+      <c r="H99" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="J99" s="10" t="s">
+      <c r="J99" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K99" s="10" t="s">
+      <c r="K99" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="16" customFormat="1" ht="20" customHeight="1">
-      <c r="A100" s="13">
+    <row r="100" spans="1:11" s="14" customFormat="1" ht="20" customHeight="1">
+      <c r="A100" s="11">
         <v>99</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="15" t="s">
+      <c r="B100" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15" t="s">
+      <c r="E100" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F100" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="G100" s="15" t="s">
+      <c r="G100" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H100" s="15" t="s">
+      <c r="H100" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I100" s="15" t="s">
+      <c r="I100" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="J100" s="15" t="s">
+      <c r="J100" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K100" s="15" t="s">
+      <c r="K100" s="13" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="20" customHeight="1">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="10" t="s">
+      <c r="B101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10" t="s">
+      <c r="E101" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F101" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="H101" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="I101" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="J101" s="10" t="s">
+      <c r="J101" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="K101" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="20" customHeight="1">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="10" t="s">
+      <c r="B102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10" t="s">
+      <c r="E102" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F102" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="H102" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I102" s="9"/>
-      <c r="J102" s="10" t="s">
+      <c r="I102" s="8"/>
+      <c r="J102" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="K102" s="9" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="20" customHeight="1">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="10" t="s">
+      <c r="B103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10" t="s">
+      <c r="E103" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F103" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="H103" s="10" t="s">
+      <c r="H103" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="J103" s="10" t="s">
+      <c r="J103" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K103" s="10" t="s">
+      <c r="K103" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="20" customHeight="1">
-      <c r="A104" s="7">
+      <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="10" t="s">
+      <c r="B104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10" t="s">
+      <c r="E104" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F104" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="G104" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="H104" s="10" t="s">
+      <c r="H104" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="I104" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="J104" s="10" t="s">
+      <c r="J104" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K104" s="10" t="s">
+      <c r="K104" s="9" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="20" customHeight="1">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="10" t="s">
+      <c r="B105" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10" t="s">
+      <c r="E105" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F105" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="H105" s="10" t="s">
+      <c r="H105" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="I105" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="J105" s="10" t="s">
+      <c r="J105" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K105" s="10" t="s">
+      <c r="K105" s="9" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="20" customHeight="1">
-      <c r="A106" s="7">
+      <c r="A106" s="6">
         <v>105</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="10" t="s">
+      <c r="B106" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10" t="s">
+      <c r="E106" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F106" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="G106" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="H106" s="10" t="s">
+      <c r="H106" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="I106" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="J106" s="10" t="s">
+      <c r="J106" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K106" s="10" t="s">
+      <c r="K106" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="20" customHeight="1">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>106</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="10" t="s">
+      <c r="B107" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10" t="s">
+      <c r="E107" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F107" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="G107" s="10" t="s">
+      <c r="G107" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H107" s="10" t="s">
+      <c r="H107" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I107" s="10" t="s">
+      <c r="I107" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="J107" s="10" t="s">
+      <c r="J107" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K107" s="10" t="s">
+      <c r="K107" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="20" customHeight="1">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="10" t="s">
+      <c r="B108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10" t="s">
+      <c r="E108" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F108" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="G108" s="10" t="s">
+      <c r="G108" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="H108" s="10" t="s">
+      <c r="H108" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I108" s="10" t="s">
+      <c r="I108" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="J108" s="10" t="s">
+      <c r="J108" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K108" s="10" t="s">
+      <c r="K108" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="20" customHeight="1">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="10" t="s">
+      <c r="B109" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10" t="s">
+      <c r="E109" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F109" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G109" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="H109" s="10" t="s">
+      <c r="H109" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I109" s="10" t="s">
+      <c r="I109" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="J109" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K109" s="10" t="s">
+      <c r="K109" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="20" customHeight="1">
-      <c r="A110" s="7">
+      <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="10" t="s">
+      <c r="B110" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10" t="s">
+      <c r="E110" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F110" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="G110" s="10" t="s">
+      <c r="G110" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="H110" s="10" t="s">
+      <c r="H110" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I110" s="10" t="s">
+      <c r="I110" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="J110" s="10" t="s">
+      <c r="J110" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K110" s="10" t="s">
+      <c r="K110" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="20" customHeight="1">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="10" t="s">
+      <c r="B111" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10" t="s">
+      <c r="E111" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F111" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G111" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="H111" s="10" t="s">
+      <c r="H111" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I111" s="10" t="s">
+      <c r="I111" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="J111" s="10" t="s">
+      <c r="J111" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K111" s="10" t="s">
+      <c r="K111" s="9" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="20" customHeight="1">
-      <c r="A112" s="7">
+      <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="10" t="s">
+      <c r="B112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E112" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="F112" s="10" t="s">
+      <c r="F112" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="G112" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="H112" s="10" t="s">
+      <c r="H112" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I112" s="10" t="s">
+      <c r="I112" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="J112" s="10" t="s">
+      <c r="J112" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K112" s="10" t="s">
+      <c r="K112" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="20" customHeight="1">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" s="10" t="s">
+      <c r="B113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E113" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H113" s="9" t="s">
+      <c r="H113" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I113" s="9" t="s">
+      <c r="I113" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="J113" s="10" t="s">
+      <c r="J113" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K113" s="9" t="s">
+      <c r="K113" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="20" customHeight="1">
-      <c r="A114" s="7">
+      <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="10" t="s">
+      <c r="B114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E114" s="10" t="s">
+      <c r="E114" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="G114" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="H114" s="9" t="s">
+      <c r="H114" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I114" s="9" t="s">
+      <c r="I114" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="J114" s="10" t="s">
+      <c r="J114" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K114" s="9" t="s">
+      <c r="K114" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="20" customHeight="1">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="10" t="s">
+      <c r="B115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E115" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="F115" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="H115" s="9" t="s">
+      <c r="H115" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="9" t="s">
+      <c r="I115" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="J115" s="10" t="s">
+      <c r="J115" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K115" s="9" t="s">
+      <c r="K115" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="20" customHeight="1">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="10" t="s">
+      <c r="B116" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E116" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="G116" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="H116" s="9" t="s">
+      <c r="H116" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I116" s="9" t="s">
+      <c r="I116" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="J116" s="10" t="s">
+      <c r="J116" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K116" s="9" t="s">
+      <c r="K116" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="20" customHeight="1">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>116</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="10" t="s">
+      <c r="B117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I117" s="9" t="s">
+      <c r="I117" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="J117" s="10" t="s">
+      <c r="J117" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K117" s="9" t="s">
+      <c r="K117" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="20" customHeight="1">
-      <c r="A118" s="7">
+      <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="10" t="s">
+      <c r="B118" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E118" s="10" t="s">
+      <c r="E118" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G118" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="H118" s="9" t="s">
+      <c r="H118" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I118" s="9" t="s">
+      <c r="I118" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="J118" s="10" t="s">
+      <c r="J118" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K118" s="9" t="s">
+      <c r="K118" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="20" customHeight="1">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="10" t="s">
+      <c r="B119" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E119" s="10" t="s">
+      <c r="E119" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I119" s="9" t="s">
+      <c r="I119" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="J119" s="10" t="s">
+      <c r="J119" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K119" s="9" t="s">
+      <c r="K119" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="20" customHeight="1">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>119</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" s="10" t="s">
+      <c r="B120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E120" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="G120" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="H120" s="9" t="s">
+      <c r="H120" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I120" s="9" t="s">
+      <c r="I120" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="J120" s="10" t="s">
+      <c r="J120" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K120" s="9" t="s">
+      <c r="K120" s="8" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="20" customHeight="1">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>120</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="10" t="s">
+      <c r="B121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E121" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="G121" s="9" t="s">
+      <c r="G121" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="H121" s="10" t="s">
+      <c r="H121" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="I121" s="9"/>
-      <c r="J121" s="10" t="s">
+      <c r="I121" s="8"/>
+      <c r="J121" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K121" s="9" t="s">
+      <c r="K121" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="20" customHeight="1">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>121</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" s="10" t="s">
+      <c r="B122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E122" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="G122" s="9" t="s">
+      <c r="G122" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="H122" s="10" t="s">
+      <c r="H122" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="10" t="s">
+      <c r="I122" s="8"/>
+      <c r="J122" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K122" s="9" t="s">
+      <c r="K122" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="20" customHeight="1">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>122</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C123" s="10" t="s">
+      <c r="B123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E123" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="H123" s="10" t="s">
+      <c r="H123" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I123" s="9" t="s">
+      <c r="I123" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="J123" s="10" t="s">
+      <c r="J123" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K123" s="9" t="s">
+      <c r="K123" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="20" customHeight="1">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>123</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="10" t="s">
+      <c r="B124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E124" s="10" t="s">
+      <c r="E124" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F124" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G124" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="H124" s="10" t="s">
+      <c r="H124" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I124" s="9" t="s">
+      <c r="I124" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="J124" s="10" t="s">
+      <c r="J124" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K124" s="9" t="s">
+      <c r="K124" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="20" customHeight="1">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>124</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="10" t="s">
+      <c r="B125" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="E125" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G125" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="H125" s="10" t="s">
+      <c r="H125" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="I125" s="9" t="s">
+      <c r="I125" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="J125" s="10" t="s">
+      <c r="J125" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K125" s="9" t="s">
+      <c r="K125" s="8" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="20" customHeight="1">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="10" t="s">
+      <c r="B126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E126" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F126" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G126" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="H126" s="10" t="s">
+      <c r="H126" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="I126" s="9" t="s">
+      <c r="I126" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="J126" s="10" t="s">
+      <c r="J126" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K126" s="9" t="s">
+      <c r="K126" s="8" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="20" customHeight="1">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>126</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="10" t="s">
+      <c r="B127" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="E127" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G127" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="H127" s="10" t="s">
+      <c r="H127" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="I127" s="9" t="s">
+      <c r="I127" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="J127" s="10" t="s">
+      <c r="J127" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K127" s="9" t="s">
+      <c r="K127" s="8" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="20" customHeight="1">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" s="10" t="s">
+      <c r="B128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E128" s="10" t="s">
+      <c r="E128" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F128" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="G128" s="9" t="s">
+      <c r="G128" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="H128" s="10" t="s">
+      <c r="H128" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I128" s="9" t="s">
+      <c r="I128" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="J128" s="10" t="s">
+      <c r="J128" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K128" s="9" t="s">
+      <c r="K128" s="8" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="20" customHeight="1">
-      <c r="A129" s="7"/>
-      <c r="B129" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" s="10" t="s">
+      <c r="A129" s="6"/>
+      <c r="B129" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E129" s="10" t="s">
+      <c r="E129" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="F129" s="10" t="s">
+      <c r="F129" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="H129" s="10" t="s">
+      <c r="H129" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="I129" s="9" t="s">
+      <c r="I129" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="J129" s="10" t="s">
+      <c r="J129" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K129" s="9" t="s">
+      <c r="K129" s="8" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="20" customHeight="1">
-      <c r="A130" s="7"/>
-      <c r="B130" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" s="10" t="s">
+      <c r="A130" s="6"/>
+      <c r="B130" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E130" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="F130" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G130" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="H130" s="10" t="s">
+      <c r="H130" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="I130" s="9" t="s">
+      <c r="I130" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="J130" s="10" t="s">
+      <c r="J130" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K130" s="9" t="s">
+      <c r="K130" s="8" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="20" customHeight="1">
-      <c r="A131" s="7"/>
-      <c r="B131" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131" s="10" t="s">
+      <c r="A131" s="6"/>
+      <c r="B131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="F131" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G131" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="H131" s="10" t="s">
+      <c r="H131" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="I131" s="9" t="s">
+      <c r="I131" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="J131" s="10" t="s">
+      <c r="J131" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K131" s="9" t="s">
+      <c r="K131" s="8" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="20" customHeight="1">
-      <c r="A132" s="7"/>
-      <c r="B132" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132" s="10" t="s">
+      <c r="A132" s="6"/>
+      <c r="B132" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E132" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="F132" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="G132" s="9" t="s">
+      <c r="G132" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="H132" s="10" t="s">
+      <c r="H132" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I132" s="9" t="s">
+      <c r="I132" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="J132" s="10" t="s">
+      <c r="J132" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K132" s="9" t="s">
+      <c r="K132" s="8" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="20" customHeight="1">
-      <c r="A133" s="7"/>
-      <c r="B133" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" s="10" t="s">
+      <c r="A133" s="6"/>
+      <c r="B133" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E133" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="G133" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="H133" s="10" t="s">
+      <c r="H133" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I133" s="9" t="s">
+      <c r="I133" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="J133" s="10" t="s">
+      <c r="J133" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K133" s="9" t="s">
+      <c r="K133" s="8" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="20" customHeight="1">
-      <c r="A134" s="7"/>
-      <c r="B134" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="10" t="s">
+      <c r="A134" s="6"/>
+      <c r="B134" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E134" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="F134" s="10" t="s">
+      <c r="F134" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="G134" s="9" t="s">
+      <c r="G134" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="H134" s="10" t="s">
+      <c r="H134" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I134" s="9" t="s">
+      <c r="I134" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="J134" s="10" t="s">
+      <c r="J134" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K134" s="9" t="s">
+      <c r="K134" s="8" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="20" customHeight="1">
-      <c r="A135" s="7"/>
-      <c r="B135" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="10" t="s">
+      <c r="A135" s="6"/>
+      <c r="B135" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="E135" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="F135" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="G135" s="9" t="s">
+      <c r="G135" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="H135" s="10" t="s">
+      <c r="H135" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I135" s="9" t="s">
+      <c r="I135" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="J135" s="10" t="s">
+      <c r="J135" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K135" s="9" t="s">
+      <c r="K135" s="8" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="20" customHeight="1">
-      <c r="A136" s="7">
+      <c r="A136" s="6">
         <v>128</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" s="10" t="s">
+      <c r="B136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E136" s="10" t="s">
+      <c r="E136" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="F136" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="G136" s="9" t="s">
+      <c r="G136" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="H136" s="10" t="s">
+      <c r="H136" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="I136" s="9" t="s">
+      <c r="I136" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="J136" s="10" t="s">
+      <c r="J136" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K136" s="9" t="s">
+      <c r="K136" s="8" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="20" customHeight="1">
-      <c r="A137" s="7">
+      <c r="A137" s="6">
         <v>129</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="10" t="s">
+      <c r="B137" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E137" s="10" t="s">
+      <c r="E137" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="F137" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="H137" s="10" t="s">
+      <c r="H137" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I137" s="9" t="s">
+      <c r="I137" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="J137" s="10" t="s">
+      <c r="J137" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K137" s="9" t="s">
+      <c r="K137" s="8" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="20" customHeight="1">
-      <c r="A138" s="7">
+      <c r="A138" s="6">
         <v>130</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="10" t="s">
+      <c r="B138" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E138" s="10" t="s">
+      <c r="E138" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="F138" s="9" t="s">
+      <c r="F138" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="G138" s="9" t="s">
+      <c r="G138" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="H138" s="10" t="s">
+      <c r="H138" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I138" s="9" t="s">
+      <c r="I138" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="J138" s="10" t="s">
+      <c r="J138" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K138" s="9" t="s">
+      <c r="K138" s="8" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="20" customHeight="1">
-      <c r="A139" s="7">
+      <c r="A139" s="6">
         <v>131</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139" s="10" t="s">
+      <c r="B139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E139" s="10" t="s">
+      <c r="E139" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="F139" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="H139" s="10" t="s">
+      <c r="H139" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="I139" s="9"/>
-      <c r="J139" s="10" t="s">
+      <c r="I139" s="8"/>
+      <c r="J139" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K139" s="9" t="s">
+      <c r="K139" s="8" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="20" customHeight="1">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>132</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" s="10" t="s">
+      <c r="B140" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E140" s="10" t="s">
+      <c r="E140" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="F140" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="G140" s="9" t="s">
+      <c r="G140" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="H140" s="10" t="s">
+      <c r="H140" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="I140" s="9" t="s">
+      <c r="I140" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="J140" s="10" t="s">
+      <c r="J140" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K140" s="9" t="s">
+      <c r="K140" s="8" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="20" customHeight="1">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>133</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" s="10" t="s">
+      <c r="B141" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E141" s="10" t="s">
+      <c r="E141" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F141" s="9" t="s">
+      <c r="F141" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="G141" s="9" t="s">
+      <c r="G141" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="H141" s="10" t="s">
+      <c r="H141" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="I141" s="9" t="s">
+      <c r="I141" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="J141" s="10" t="s">
+      <c r="J141" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K141" s="9" t="s">
+      <c r="K141" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="20" customHeight="1">
-      <c r="A142" s="7">
+      <c r="A142" s="6">
         <v>134</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142" s="10" t="s">
+      <c r="B142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E142" s="10" t="s">
+      <c r="E142" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F142" s="9" t="s">
+      <c r="F142" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="G142" s="9" t="s">
+      <c r="G142" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="H142" s="10" t="s">
+      <c r="H142" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I142" s="9" t="s">
+      <c r="I142" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="J142" s="10" t="s">
+      <c r="J142" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K142" s="9" t="s">
+      <c r="K142" s="8" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="20" customHeight="1">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>135</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="10" t="s">
+      <c r="B143" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E143" s="10" t="s">
+      <c r="E143" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="F143" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="G143" s="9" t="s">
+      <c r="G143" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="H143" s="10" t="s">
+      <c r="H143" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I143" s="9" t="s">
+      <c r="I143" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="J143" s="10" t="s">
+      <c r="J143" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K143" s="9" t="s">
+      <c r="K143" s="8" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="20" customHeight="1">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>136</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="10" t="s">
+      <c r="B144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E144" s="10" t="s">
+      <c r="E144" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="F144" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="G144" s="9" t="s">
+      <c r="G144" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="H144" s="10" t="s">
+      <c r="H144" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I144" s="9" t="s">
+      <c r="I144" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="J144" s="10" t="s">
+      <c r="J144" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K144" s="9" t="s">
+      <c r="K144" s="8" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="20" customHeight="1">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>137</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" s="10" t="s">
+      <c r="B145" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="E145" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="F145" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="G145" s="9" t="s">
+      <c r="G145" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="H145" s="10" t="s">
+      <c r="H145" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I145" s="9" t="s">
+      <c r="I145" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="J145" s="10" t="s">
+      <c r="J145" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K145" s="9" t="s">
+      <c r="K145" s="8" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="20" customHeight="1">
-      <c r="A146" s="7">
+      <c r="A146" s="6">
         <v>138</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="10" t="s">
+      <c r="B146" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E146" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="F146" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="G146" s="9" t="s">
+      <c r="G146" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="H146" s="10" t="s">
+      <c r="H146" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I146" s="9" t="s">
+      <c r="I146" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="J146" s="10" t="s">
+      <c r="J146" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K146" s="9" t="s">
+      <c r="K146" s="8" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="20" customHeight="1">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>139</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C147" s="10" t="s">
+      <c r="B147" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E147" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="F147" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="G147" s="9" t="s">
+      <c r="G147" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="H147" s="10" t="s">
+      <c r="H147" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I147" s="9" t="s">
+      <c r="I147" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="J147" s="10" t="s">
+      <c r="J147" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K147" s="9" t="s">
+      <c r="K147" s="8" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="20" customHeight="1">
-      <c r="A148" s="7">
+      <c r="A148" s="6">
         <v>140</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="10" t="s">
+      <c r="B148" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E148" s="10" t="s">
+      <c r="E148" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="F148" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="G148" s="9" t="s">
+      <c r="G148" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="H148" s="10" t="s">
+      <c r="H148" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I148" s="9" t="s">
+      <c r="I148" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="J148" s="10" t="s">
+      <c r="J148" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K148" s="9" t="s">
+      <c r="K148" s="8" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="20" customHeight="1">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>141</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="10" t="s">
+      <c r="B149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="E149" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F149" s="10" t="s">
+      <c r="F149" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="G149" s="10" t="s">
+      <c r="G149" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="H149" s="10" t="s">
+      <c r="H149" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I149" s="9" t="s">
+      <c r="I149" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="J149" s="10" t="s">
+      <c r="J149" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K149" s="9" t="s">
+      <c r="K149" s="8" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="20" customHeight="1">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>142</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="10" t="s">
+      <c r="B150" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E150" s="10" t="s">
+      <c r="E150" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F150" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="G150" s="9" t="s">
+      <c r="G150" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="H150" s="10" t="s">
+      <c r="H150" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="I150" s="9"/>
-      <c r="J150" s="10" t="s">
+      <c r="I150" s="8"/>
+      <c r="J150" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K150" s="9" t="s">
+      <c r="K150" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="20" customHeight="1">
-      <c r="A151" s="7">
+      <c r="A151" s="6">
         <v>143</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" s="10" t="s">
+      <c r="B151" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E151" s="10" t="s">
+      <c r="E151" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="F151" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="G151" s="9" t="s">
+      <c r="G151" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="H151" s="10" t="s">
+      <c r="H151" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="I151" s="9"/>
-      <c r="J151" s="10" t="s">
+      <c r="I151" s="8"/>
+      <c r="J151" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K151" s="9" t="s">
+      <c r="K151" s="8" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="20" customHeight="1">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>144</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="10" t="s">
+      <c r="B152" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E152" s="10" t="s">
+      <c r="E152" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="F152" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="G152" s="9" t="s">
+      <c r="G152" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="H152" s="10" t="s">
+      <c r="H152" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I152" s="9" t="s">
+      <c r="I152" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J152" s="10" t="s">
+      <c r="J152" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K152" s="9" t="s">
+      <c r="K152" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="20" customHeight="1">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>145</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="10" t="s">
+      <c r="B153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E153" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F153" s="9" t="s">
+      <c r="F153" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="G153" s="11" t="s">
+      <c r="G153" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="H153" s="10" t="s">
+      <c r="H153" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I153" s="9" t="s">
+      <c r="I153" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J153" s="10" t="s">
+      <c r="J153" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K153" s="9" t="s">
+      <c r="K153" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="20" customHeight="1">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>146</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C154" s="10" t="s">
+      <c r="B154" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E154" s="10" t="s">
+      <c r="E154" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F154" s="9" t="s">
+      <c r="F154" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="G154" s="11" t="s">
+      <c r="G154" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="H154" s="10" t="s">
+      <c r="H154" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I154" s="9" t="s">
+      <c r="I154" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J154" s="10" t="s">
+      <c r="J154" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K154" s="9" t="s">
+      <c r="K154" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="20" customHeight="1">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>147</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" s="10" t="s">
+      <c r="B155" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E155" s="10" t="s">
+      <c r="E155" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="F155" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="G155" s="9" t="s">
+      <c r="G155" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="H155" s="10" t="s">
+      <c r="H155" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I155" s="9" t="s">
+      <c r="I155" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J155" s="10" t="s">
+      <c r="J155" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K155" s="9" t="s">
+      <c r="K155" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="20" customHeight="1">
-      <c r="A156" s="7">
+      <c r="A156" s="6">
         <v>148</v>
       </c>
-      <c r="B156" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="10" t="s">
+      <c r="B156" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="D156" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E156" s="10" t="s">
+      <c r="E156" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="F156" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="G156" s="9" t="s">
+      <c r="G156" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="H156" s="10" t="s">
+      <c r="H156" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I156" s="9" t="s">
+      <c r="I156" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J156" s="10" t="s">
+      <c r="J156" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K156" s="9" t="s">
+      <c r="K156" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="20" customHeight="1">
-      <c r="A157" s="7">
+      <c r="A157" s="6">
         <v>149</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C157" s="10" t="s">
+      <c r="B157" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D157" s="10" t="s">
+      <c r="D157" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E157" s="10" t="s">
+      <c r="E157" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F157" s="9" t="s">
+      <c r="F157" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G157" s="9" t="s">
+      <c r="G157" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="H157" s="10" t="s">
+      <c r="H157" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I157" s="9" t="s">
+      <c r="I157" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J157" s="10" t="s">
+      <c r="J157" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K157" s="9" t="s">
+      <c r="K157" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="20" customHeight="1">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>150</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C158" s="10" t="s">
+      <c r="B158" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D158" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E158" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="F158" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="G158" s="9" t="s">
+      <c r="G158" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="H158" s="10" t="s">
+      <c r="H158" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I158" s="9" t="s">
+      <c r="I158" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J158" s="10" t="s">
+      <c r="J158" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K158" s="9" t="s">
+      <c r="K158" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="20" customHeight="1">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>151</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" s="10" t="s">
+      <c r="B159" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E159" s="10" t="s">
+      <c r="E159" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F159" s="9" t="s">
+      <c r="F159" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="G159" s="9" t="s">
+      <c r="G159" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="H159" s="10" t="s">
+      <c r="H159" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I159" s="9" t="s">
+      <c r="I159" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J159" s="10" t="s">
+      <c r="J159" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K159" s="9" t="s">
+      <c r="K159" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="20" customHeight="1">
-      <c r="A160" s="7">
+      <c r="A160" s="6">
         <v>152</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C160" s="10" t="s">
+      <c r="B160" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E160" s="10" t="s">
+      <c r="E160" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F160" s="9" t="s">
+      <c r="F160" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="G160" s="9" t="s">
+      <c r="G160" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="H160" s="10" t="s">
+      <c r="H160" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I160" s="9" t="s">
+      <c r="I160" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J160" s="10" t="s">
+      <c r="J160" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K160" s="9" t="s">
+      <c r="K160" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="20" customHeight="1">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>153</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="10" t="s">
+      <c r="B161" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D161" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E161" s="10" t="s">
+      <c r="E161" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F161" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="G161" s="9" t="s">
+      <c r="G161" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="H161" s="10" t="s">
+      <c r="H161" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I161" s="9" t="s">
+      <c r="I161" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J161" s="10" t="s">
+      <c r="J161" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K161" s="9" t="s">
+      <c r="K161" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="20" customHeight="1">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>154</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C162" s="10" t="s">
+      <c r="B162" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E162" s="10" t="s">
+      <c r="E162" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F162" s="9" t="s">
+      <c r="F162" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="G162" s="9" t="s">
+      <c r="G162" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="H162" s="10" t="s">
+      <c r="H162" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="I162" s="9"/>
-      <c r="J162" s="10" t="s">
+      <c r="I162" s="8"/>
+      <c r="J162" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K162" s="9" t="s">
+      <c r="K162" s="8" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="20" customHeight="1">
-      <c r="A163" s="7">
+      <c r="A163" s="6">
         <v>155</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C163" s="10" t="s">
+      <c r="B163" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E163" s="10" t="s">
+      <c r="E163" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F163" s="9" t="s">
+      <c r="F163" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="G163" s="9" t="s">
+      <c r="G163" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="H163" s="10" t="s">
+      <c r="H163" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="I163" s="9"/>
-      <c r="J163" s="10" t="s">
+      <c r="I163" s="8"/>
+      <c r="J163" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K163" s="9" t="s">
+      <c r="K163" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="20" customHeight="1">
-      <c r="A164" s="7">
+      <c r="A164" s="6">
         <v>156</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" s="10" t="s">
+      <c r="B164" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E164" s="10" t="s">
+      <c r="E164" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F164" s="9" t="s">
+      <c r="F164" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="G164" s="9" t="s">
+      <c r="G164" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="H164" s="10" t="s">
+      <c r="H164" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="I164" s="9"/>
-      <c r="J164" s="10" t="s">
+      <c r="I164" s="8"/>
+      <c r="J164" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K164" s="9" t="s">
+      <c r="K164" s="8" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="20" customHeight="1">
-      <c r="A165" s="7">
+      <c r="A165" s="6">
         <v>157</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" s="10" t="s">
+      <c r="B165" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D165" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E165" s="10" t="s">
+      <c r="E165" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="F165" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="G165" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="H165" s="10" t="s">
+      <c r="H165" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="I165" s="9"/>
-      <c r="J165" s="10" t="s">
+      <c r="I165" s="8"/>
+      <c r="J165" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K165" s="9" t="s">
+      <c r="K165" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="20" customHeight="1">
-      <c r="A166" s="7">
+      <c r="A166" s="6">
         <v>158</v>
       </c>
-      <c r="B166" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" s="10" t="s">
+      <c r="B166" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="D166" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E166" s="10" t="s">
+      <c r="E166" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F166" s="9" t="s">
+      <c r="F166" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="G166" s="9" t="s">
+      <c r="G166" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="H166" s="10" t="s">
+      <c r="H166" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I166" s="12" t="s">
+      <c r="I166" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="J166" s="10" t="s">
+      <c r="J166" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K166" s="9" t="s">
+      <c r="K166" s="8" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="20" customHeight="1">
-      <c r="A167" s="7">
+      <c r="A167" s="6">
         <v>159</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C167" s="10" t="s">
+      <c r="B167" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D167" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E167" s="10" t="s">
+      <c r="E167" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F167" s="9" t="s">
+      <c r="F167" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="G167" s="9" t="s">
+      <c r="G167" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="H167" s="10" t="s">
+      <c r="H167" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I167" s="9" t="s">
+      <c r="I167" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="J167" s="10" t="s">
+      <c r="J167" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K167" s="9" t="s">
+      <c r="K167" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="20" customHeight="1">
-      <c r="A168" s="7">
+      <c r="A168" s="6">
         <v>160</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" s="10" t="s">
+      <c r="B168" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="D168" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E168" s="10" t="s">
+      <c r="E168" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F168" s="9" t="s">
+      <c r="F168" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="G168" s="9" t="s">
+      <c r="G168" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="H168" s="10" t="s">
+      <c r="H168" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I168" s="9" t="s">
+      <c r="I168" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="J168" s="10" t="s">
+      <c r="J168" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K168" s="9" t="s">
+      <c r="K168" s="8" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="20" customHeight="1">
-      <c r="A169" s="7">
+      <c r="A169" s="6">
         <v>161</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C169" s="10" t="s">
+      <c r="B169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E169" s="10" t="s">
+      <c r="E169" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F169" s="9" t="s">
+      <c r="F169" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="G169" s="9" t="s">
+      <c r="G169" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="H169" s="10" t="s">
+      <c r="H169" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="I169" s="9" t="s">
+      <c r="I169" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="J169" s="10" t="s">
+      <c r="J169" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K169" s="9" t="s">
+      <c r="K169" s="8" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="20" customHeight="1">
-      <c r="A170" s="7">
+      <c r="A170" s="6">
         <v>162</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="9" t="s">
+      <c r="D170" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E170" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="F170" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="G170" s="9" t="s">
+      <c r="G170" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="H170" s="10"/>
-      <c r="I170" s="9" t="s">
+      <c r="H170" s="9"/>
+      <c r="I170" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="J170" s="10" t="s">
+      <c r="J170" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K170" s="9" t="s">
+      <c r="K170" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="20" customHeight="1">
-      <c r="A171" s="7">
+      <c r="A171" s="6">
         <v>163</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="9" t="s">
+      <c r="D171" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E171" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="F171" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G171" s="9" t="s">
+      <c r="G171" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="H171" s="10"/>
-      <c r="I171" s="9" t="s">
+      <c r="H171" s="9"/>
+      <c r="I171" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="J171" s="10" t="s">
+      <c r="J171" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K171" s="9" t="s">
+      <c r="K171" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="20" customHeight="1">
-      <c r="A172" s="7">
+      <c r="A172" s="6">
         <v>164</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="9" t="s">
+      <c r="D172" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="F172" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="G172" s="9" t="s">
+      <c r="G172" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="H172" s="10"/>
-      <c r="I172" s="9" t="s">
+      <c r="H172" s="9"/>
+      <c r="I172" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="J172" s="10" t="s">
+      <c r="J172" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K172" s="9" t="s">
+      <c r="K172" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="20" customHeight="1">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>165</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="9" t="s">
+      <c r="D173" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E173" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="F173" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="G173" s="9" t="s">
+      <c r="G173" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="H173" s="10"/>
-      <c r="I173" s="9" t="s">
+      <c r="H173" s="9"/>
+      <c r="I173" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="J173" s="10" t="s">
+      <c r="J173" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K173" s="9" t="s">
+      <c r="K173" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="20" customHeight="1">
-      <c r="A174" s="7">
-        <v>166</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="9"/>
-      <c r="J174" s="10"/>
-      <c r="K174" s="9"/>
-    </row>
-    <row r="175" spans="1:11" ht="20" customHeight="1">
-      <c r="A175" s="7">
-        <v>167</v>
-      </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="10"/>
-      <c r="I175" s="9"/>
-      <c r="J175" s="10"/>
-      <c r="K175" s="9"/>
-    </row>
-    <row r="176" spans="1:11" ht="20" customHeight="1">
-      <c r="A176" s="7">
-        <v>168</v>
-      </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="9"/>
-      <c r="J176" s="10"/>
-      <c r="K176" s="9"/>
-    </row>
-    <row r="177" spans="1:11" ht="20" customHeight="1">
-      <c r="A177" s="7">
-        <v>169</v>
-      </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="9"/>
-    </row>
-    <row r="178" spans="1:11" ht="20" customHeight="1">
-      <c r="A178" s="7">
+      <c r="A174" s="6">
         <v>170</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="C174" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="10" t="s">
+      <c r="D174" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E174" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="F174" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="G178" s="10" t="s">
+      <c r="G174" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="H178" s="10" t="s">
+      <c r="H174" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I178" s="10" t="s">
+      <c r="I174" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="J178" s="10" t="s">
+      <c r="J174" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K178" s="10" t="s">
+      <c r="K174" s="9" t="s">
         <v>311</v>
       </c>
     </row>

--- a/inst/app/www/meta/lable_info.xlsx
+++ b/inst/app/www/meta/lable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/01_Personal/00_bitr/01_packages/BitStat/inst/app/www/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735D42EC-D86B-F047-B3B0-255EE8CF55B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6E048F-0420-FA44-B247-7CC90CE8337F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lable_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="799">
   <si>
     <t>메뉴</t>
   </si>
@@ -2290,10 +2290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Summary_numeric.Rmd의 청크 내 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상관행렬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2659,6 +2655,83 @@
   </si>
   <si>
     <t>calculate by category is checked, but categorical variables is not selected. Uncheck or select a variable.</t>
+  </si>
+  <si>
+    <t>수치형 변수 통계표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주형 변수 돗수분포표</t>
+  </si>
+  <si>
+    <t>대상변수 선택 방법:</t>
+  </si>
+  <si>
+    <t>choice_categorical_table</t>
+  </si>
+  <si>
+    <t>list_cat_var_table</t>
+  </si>
+  <si>
+    <t>choice_categorical_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice_categorical_table의 element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주형 변수 목록(하나이상 선택)</t>
+  </si>
+  <si>
+    <t>Categorical Variables(Choose one or more):</t>
+  </si>
+  <si>
+    <t>viz_cat_table</t>
+  </si>
+  <si>
+    <t>범주형 변수는 1개 이상을 선택해야 합니다.</t>
+  </si>
+  <si>
+    <t>runCategoricalSummary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runCategoricalSummary의 observeEvent에서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You must select at least one categorical variables.</t>
+  </si>
+  <si>
+    <t>범주형 변수 집계 테이블</t>
+  </si>
+  <si>
+    <t>Summary Table of Categorical Variables</t>
+  </si>
+  <si>
+    <t>돗수분포표</t>
+  </si>
+  <si>
+    <t>Frequency Table</t>
+  </si>
+  <si>
+    <t>범주형 변수 플롯</t>
+  </si>
+  <si>
+    <t>Plot of Categorical Variables</t>
+  </si>
+  <si>
+    <t>summary_category.Rmd의 청크 내 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary_numeric.Rmd의 청크 내 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4128,11 +4201,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K267"/>
+  <dimension ref="A1:K278"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F270" sqref="F270"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A214" sqref="A214:A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -10208,7 +10281,7 @@
         <v>560</v>
       </c>
       <c r="D176" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>558</v>
@@ -10241,7 +10314,7 @@
         <v>560</v>
       </c>
       <c r="D177" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>558</v>
@@ -10276,7 +10349,7 @@
         <v>560</v>
       </c>
       <c r="D178" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>558</v>
@@ -10311,7 +10384,7 @@
         <v>560</v>
       </c>
       <c r="D179" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>558</v>
@@ -10346,7 +10419,7 @@
         <v>560</v>
       </c>
       <c r="D180" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>558</v>
@@ -10381,7 +10454,7 @@
         <v>560</v>
       </c>
       <c r="D181" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>558</v>
@@ -10416,7 +10489,7 @@
         <v>560</v>
       </c>
       <c r="D182" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E182" s="16" t="s">
         <v>558</v>
@@ -10451,7 +10524,7 @@
         <v>560</v>
       </c>
       <c r="D183" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E183" s="16" t="s">
         <v>558</v>
@@ -10486,7 +10559,7 @@
         <v>560</v>
       </c>
       <c r="D184" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E184" s="16" t="s">
         <v>558</v>
@@ -10521,7 +10594,7 @@
         <v>560</v>
       </c>
       <c r="D185" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>558</v>
@@ -10556,7 +10629,7 @@
         <v>560</v>
       </c>
       <c r="D186" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E186" s="16" t="s">
         <v>558</v>
@@ -10591,7 +10664,7 @@
         <v>560</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E187" s="16" t="s">
         <v>558</v>
@@ -10626,7 +10699,7 @@
         <v>560</v>
       </c>
       <c r="D188" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E188" s="16" t="s">
         <v>558</v>
@@ -10661,7 +10734,7 @@
         <v>560</v>
       </c>
       <c r="D189" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E189" s="16" t="s">
         <v>558</v>
@@ -10696,7 +10769,7 @@
         <v>560</v>
       </c>
       <c r="D190" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E190" s="16" t="s">
         <v>558</v>
@@ -10731,7 +10804,7 @@
         <v>560</v>
       </c>
       <c r="D191" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E191" s="16" t="s">
         <v>558</v>
@@ -10766,7 +10839,7 @@
         <v>560</v>
       </c>
       <c r="D192" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E192" s="16" t="s">
         <v>558</v>
@@ -10801,7 +10874,7 @@
         <v>560</v>
       </c>
       <c r="D193" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E193" s="16" t="s">
         <v>558</v>
@@ -10836,7 +10909,7 @@
         <v>560</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E194" s="16" t="s">
         <v>558</v>
@@ -10871,7 +10944,7 @@
         <v>560</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E195" s="16" t="s">
         <v>558</v>
@@ -10906,7 +10979,7 @@
         <v>560</v>
       </c>
       <c r="D196" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>558</v>
@@ -10941,7 +11014,7 @@
         <v>560</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E197" s="16" t="s">
         <v>558</v>
@@ -10976,7 +11049,7 @@
         <v>560</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E198" s="16" t="s">
         <v>558</v>
@@ -11011,7 +11084,7 @@
         <v>560</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E199" s="16" t="s">
         <v>558</v>
@@ -11046,7 +11119,7 @@
         <v>560</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E200" s="16" t="s">
         <v>558</v>
@@ -11081,7 +11154,7 @@
         <v>560</v>
       </c>
       <c r="D201" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>558</v>
@@ -11116,7 +11189,7 @@
         <v>560</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>558</v>
@@ -11151,7 +11224,7 @@
         <v>560</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E203" s="16" t="s">
         <v>558</v>
@@ -11186,7 +11259,7 @@
         <v>560</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E204" s="16" t="s">
         <v>558</v>
@@ -11221,7 +11294,7 @@
         <v>560</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>558</v>
@@ -11256,7 +11329,7 @@
         <v>560</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>558</v>
@@ -11291,7 +11364,7 @@
         <v>560</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E207" s="16" t="s">
         <v>558</v>
@@ -11326,7 +11399,7 @@
         <v>560</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E208" s="16" t="s">
         <v>558</v>
@@ -11361,7 +11434,7 @@
         <v>560</v>
       </c>
       <c r="D209" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E209" s="16" t="s">
         <v>558</v>
@@ -11396,28 +11469,28 @@
         <v>560</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E210" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F210" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="G210" s="21" t="s">
         <v>686</v>
-      </c>
-      <c r="G210" s="21" t="s">
-        <v>687</v>
       </c>
       <c r="H210" s="9" t="s">
         <v>70</v>
       </c>
       <c r="I210" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J210" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K210" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="20" customHeight="1">
@@ -11431,28 +11504,28 @@
         <v>560</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E211" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F211" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="G211" s="21" t="s">
         <v>690</v>
-      </c>
-      <c r="G211" s="21" t="s">
-        <v>691</v>
       </c>
       <c r="H211" s="9" t="s">
         <v>128</v>
       </c>
       <c r="I211" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J211" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="20" customHeight="1">
@@ -11466,28 +11539,28 @@
         <v>560</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E212" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F212" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="G212" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="G212" s="21" t="s">
-        <v>694</v>
-      </c>
       <c r="H212" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I212" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J212" s="9" t="s">
         <v>342</v>
       </c>
       <c r="K212" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="20" customHeight="1">
@@ -11501,28 +11574,28 @@
         <v>560</v>
       </c>
       <c r="D213" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E213" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G213" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H213" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I213" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J213" s="9" t="s">
         <v>342</v>
       </c>
       <c r="K213" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="20" customHeight="1">
@@ -11536,7 +11609,7 @@
         <v>560</v>
       </c>
       <c r="D214" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E214" s="16" t="s">
         <v>558</v>
@@ -11555,7 +11628,7 @@
         <v>342</v>
       </c>
       <c r="K214" s="8" t="s">
-        <v>670</v>
+        <v>797</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="20" customHeight="1">
@@ -11569,7 +11642,7 @@
         <v>560</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E215" s="16" t="s">
         <v>558</v>
@@ -11588,7 +11661,7 @@
         <v>342</v>
       </c>
       <c r="K215" s="8" t="s">
-        <v>670</v>
+        <v>797</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="20" customHeight="1">
@@ -11602,7 +11675,7 @@
         <v>560</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>568</v>
+        <v>776</v>
       </c>
       <c r="E216" s="16" t="s">
         <v>558</v>
@@ -11621,7 +11694,7 @@
         <v>342</v>
       </c>
       <c r="K216" s="8" t="s">
-        <v>670</v>
+        <v>797</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="20" customHeight="1">
@@ -11632,26 +11705,26 @@
         <v>559</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D217" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E217" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F217" s="21" t="s">
-        <v>672</v>
+        <v>576</v>
       </c>
       <c r="G217" s="21" t="s">
-        <v>673</v>
+        <v>577</v>
       </c>
       <c r="H217" s="9" t="s">
         <v>341</v>
       </c>
       <c r="I217" s="8"/>
       <c r="J217" s="9" t="s">
-        <v>342</v>
+        <v>5</v>
       </c>
       <c r="K217" s="8" t="s">
         <v>619</v>
@@ -11665,25 +11738,25 @@
         <v>559</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D218" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E218" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="F218" s="21" t="s">
-        <v>578</v>
-      </c>
-      <c r="G218" s="21" t="s">
+      <c r="F218" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="G218" s="27" t="s">
         <v>579</v>
       </c>
       <c r="H218" s="9" t="s">
         <v>81</v>
       </c>
       <c r="I218" s="8" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
       <c r="J218" s="9" t="s">
         <v>394</v>
@@ -11700,10 +11773,10 @@
         <v>559</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D219" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D219" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E219" s="16" t="s">
         <v>558</v>
@@ -11712,19 +11785,19 @@
         <v>581</v>
       </c>
       <c r="G219" s="21" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H219" s="9" t="s">
         <v>81</v>
       </c>
       <c r="I219" s="8" t="s">
-        <v>700</v>
+        <v>779</v>
       </c>
       <c r="J219" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K219" s="8" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="20" customHeight="1">
@@ -11735,10 +11808,10 @@
         <v>559</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D220" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E220" s="16" t="s">
         <v>558</v>
@@ -11747,19 +11820,19 @@
         <v>584</v>
       </c>
       <c r="G220" s="21" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H220" s="9" t="s">
         <v>81</v>
       </c>
       <c r="I220" s="8" t="s">
-        <v>700</v>
+        <v>779</v>
       </c>
       <c r="J220" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K220" s="8" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="20" customHeight="1">
@@ -11770,31 +11843,31 @@
         <v>559</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D221" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E221" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F221" s="21" t="s">
-        <v>714</v>
+        <v>783</v>
       </c>
       <c r="G221" s="21" t="s">
-        <v>715</v>
+        <v>784</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>3</v>
+        <v>626</v>
       </c>
       <c r="I221" s="8" t="s">
-        <v>712</v>
+        <v>780</v>
       </c>
       <c r="J221" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K221" s="8" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="20" customHeight="1">
@@ -11805,27 +11878,31 @@
         <v>559</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D222" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E222" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F222" s="21" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="G222" s="21" t="s">
-        <v>675</v>
-      </c>
-      <c r="H222" s="9"/>
-      <c r="I222" s="8"/>
+        <v>686</v>
+      </c>
+      <c r="H222" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I222" s="8" t="s">
+        <v>785</v>
+      </c>
       <c r="J222" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K222" s="8" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="20" customHeight="1">
@@ -11836,31 +11913,31 @@
         <v>559</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D223" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E223" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F223" s="21" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="G223" s="21" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>393</v>
+        <v>128</v>
       </c>
       <c r="I223" s="8" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="J223" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K223" s="8" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="20" customHeight="1">
@@ -11871,31 +11948,31 @@
         <v>559</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D224" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E224" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F224" s="21" t="s">
-        <v>678</v>
+        <v>786</v>
       </c>
       <c r="G224" s="21" t="s">
-        <v>679</v>
+        <v>789</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>393</v>
+        <v>698</v>
       </c>
       <c r="I224" s="8" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K224" s="8" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="20" customHeight="1">
@@ -11906,31 +11983,29 @@
         <v>559</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D225" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E225" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>680</v>
+        <v>790</v>
       </c>
       <c r="G225" s="21" t="s">
-        <v>681</v>
+        <v>791</v>
       </c>
       <c r="H225" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="I225" s="8" t="s">
-        <v>703</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="I225" s="8"/>
       <c r="J225" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K225" s="8" t="s">
-        <v>705</v>
+        <v>796</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="20" customHeight="1">
@@ -11941,31 +12016,29 @@
         <v>559</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D226" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E226" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="F226" s="21" t="s">
-        <v>682</v>
-      </c>
-      <c r="G226" s="21" t="s">
-        <v>683</v>
+      <c r="F226" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="G226" s="27" t="s">
+        <v>793</v>
       </c>
       <c r="H226" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="I226" s="8" t="s">
-        <v>703</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="I226" s="8"/>
       <c r="J226" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K226" s="8" t="s">
-        <v>705</v>
+        <v>796</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="20" customHeight="1">
@@ -11976,31 +12049,29 @@
         <v>559</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>671</v>
+        <v>560</v>
+      </c>
+      <c r="D227" s="26" t="s">
+        <v>777</v>
       </c>
       <c r="E227" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="F227" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="G227" s="21" t="s">
-        <v>616</v>
+      <c r="F227" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="G227" s="27" t="s">
+        <v>795</v>
       </c>
       <c r="H227" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I227" s="8" t="s">
-        <v>706</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="I227" s="8"/>
       <c r="J227" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K227" s="8" t="s">
-        <v>663</v>
+        <v>796</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="20" customHeight="1">
@@ -12014,28 +12085,26 @@
         <v>566</v>
       </c>
       <c r="D228" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="E228" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F228" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="E228" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="F228" s="21" t="s">
-        <v>617</v>
-      </c>
       <c r="G228" s="21" t="s">
-        <v>618</v>
+        <v>672</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I228" s="8" t="s">
-        <v>711</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="I228" s="8"/>
       <c r="J228" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K228" s="8" t="s">
-        <v>665</v>
+        <v>619</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="20" customHeight="1">
@@ -12049,28 +12118,28 @@
         <v>566</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E229" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F229" s="21" t="s">
-        <v>684</v>
+        <v>578</v>
       </c>
       <c r="G229" s="21" t="s">
-        <v>685</v>
+        <v>579</v>
       </c>
       <c r="H229" s="9" t="s">
-        <v>668</v>
+        <v>81</v>
       </c>
       <c r="I229" s="8" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="J229" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K229" s="8" t="s">
-        <v>666</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="20" customHeight="1">
@@ -12084,28 +12153,28 @@
         <v>566</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E230" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F230" s="21" t="s">
-        <v>686</v>
+        <v>581</v>
       </c>
       <c r="G230" s="21" t="s">
-        <v>687</v>
+        <v>582</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I230" s="8" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="J230" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K230" s="8" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="20" customHeight="1">
@@ -12119,28 +12188,28 @@
         <v>566</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E231" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F231" s="21" t="s">
-        <v>690</v>
+        <v>584</v>
       </c>
       <c r="G231" s="21" t="s">
-        <v>691</v>
+        <v>585</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="I231" s="8" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="J231" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K231" s="8" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="20" customHeight="1">
@@ -12154,28 +12223,28 @@
         <v>566</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E232" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F232" s="21" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G232" s="21" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>699</v>
+        <v>3</v>
       </c>
       <c r="I232" s="8" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="J232" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K232" s="8" t="s">
-        <v>719</v>
+        <v>625</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="20" customHeight="1">
@@ -12189,28 +12258,24 @@
         <v>566</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E233" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F233" s="21" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="G233" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="H233" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="I233" s="8" t="s">
-        <v>698</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="H233" s="9"/>
+      <c r="I233" s="8"/>
       <c r="J233" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K233" s="8" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="20" customHeight="1">
@@ -12224,26 +12289,28 @@
         <v>566</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E234" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F234" s="21" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="G234" s="21" t="s">
-        <v>573</v>
+        <v>676</v>
       </c>
       <c r="H234" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="I234" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="I234" s="8" t="s">
+        <v>702</v>
+      </c>
       <c r="J234" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K234" s="8" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="20" customHeight="1">
@@ -12257,26 +12324,28 @@
         <v>566</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E235" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F235" s="21" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="G235" s="21" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="H235" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="I235" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="I235" s="8" t="s">
+        <v>702</v>
+      </c>
       <c r="J235" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K235" s="8" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="20" customHeight="1">
@@ -12290,26 +12359,28 @@
         <v>566</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E236" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F236" s="21" t="s">
-        <v>720</v>
+        <v>679</v>
       </c>
       <c r="G236" s="21" t="s">
-        <v>721</v>
+        <v>680</v>
       </c>
       <c r="H236" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="I236" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="I236" s="8" t="s">
+        <v>702</v>
+      </c>
       <c r="J236" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K236" s="8" t="s">
-        <v>619</v>
+        <v>704</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="20" customHeight="1">
@@ -12323,28 +12394,28 @@
         <v>566</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E237" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F237" s="21" t="s">
-        <v>722</v>
+        <v>681</v>
       </c>
       <c r="G237" s="21" t="s">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="H237" s="9" t="s">
         <v>393</v>
       </c>
       <c r="I237" s="8" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="J237" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K237" s="8" t="s">
-        <v>625</v>
+        <v>704</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="20" customHeight="1">
@@ -12358,28 +12429,28 @@
         <v>566</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E238" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F238" s="21" t="s">
-        <v>676</v>
+        <v>615</v>
       </c>
       <c r="G238" s="21" t="s">
-        <v>724</v>
+        <v>616</v>
       </c>
       <c r="H238" s="9" t="s">
-        <v>393</v>
+        <v>70</v>
       </c>
       <c r="I238" s="8" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="J238" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K238" s="8" t="s">
-        <v>704</v>
+        <v>663</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="20" customHeight="1">
@@ -12393,28 +12464,28 @@
         <v>566</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E239" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F239" s="21" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="G239" s="21" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="H239" s="9" t="s">
-        <v>393</v>
+        <v>3</v>
       </c>
       <c r="I239" s="8" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="J239" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K239" s="8" t="s">
-        <v>728</v>
+        <v>665</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="20" customHeight="1">
@@ -12428,28 +12499,28 @@
         <v>566</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E240" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F240" s="21" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="G240" s="21" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="H240" s="9" t="s">
-        <v>393</v>
+        <v>668</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="J240" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K240" s="8" t="s">
-        <v>728</v>
+        <v>666</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="20" customHeight="1">
@@ -12463,28 +12534,28 @@
         <v>566</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E241" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F241" s="21" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="G241" s="21" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="H241" s="9" t="s">
-        <v>393</v>
+        <v>70</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="J241" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K241" s="8" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="20" customHeight="1">
@@ -12498,28 +12569,28 @@
         <v>566</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E242" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F242" s="21" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="G242" s="21" t="s">
-        <v>734</v>
+        <v>690</v>
       </c>
       <c r="H242" s="9" t="s">
-        <v>393</v>
+        <v>128</v>
       </c>
       <c r="I242" s="8" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="J242" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K242" s="8" t="s">
-        <v>729</v>
+        <v>695</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="20" customHeight="1">
@@ -12533,28 +12604,28 @@
         <v>566</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E243" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F243" s="21" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="G243" s="21" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="H243" s="9" t="s">
-        <v>393</v>
+        <v>698</v>
       </c>
       <c r="I243" s="8" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="J243" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K243" s="8" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="20" customHeight="1">
@@ -12568,28 +12639,28 @@
         <v>566</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E244" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F244" s="21" t="s">
-        <v>737</v>
+        <v>691</v>
       </c>
       <c r="G244" s="21" t="s">
-        <v>738</v>
+        <v>775</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>393</v>
+        <v>698</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K244" s="8" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="20" customHeight="1">
@@ -12603,28 +12674,26 @@
         <v>566</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E245" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F245" s="21" t="s">
-        <v>739</v>
+        <v>670</v>
       </c>
       <c r="G245" s="21" t="s">
-        <v>740</v>
+        <v>573</v>
       </c>
       <c r="H245" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="I245" s="8" t="s">
-        <v>730</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="I245" s="8"/>
       <c r="J245" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K245" s="8" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="20" customHeight="1">
@@ -12638,28 +12707,26 @@
         <v>566</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E246" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F246" s="21" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="G246" s="21" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="H246" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I246" s="8" t="s">
-        <v>741</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="I246" s="8"/>
       <c r="J246" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K246" s="8" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="20" customHeight="1">
@@ -12679,22 +12746,20 @@
         <v>558</v>
       </c>
       <c r="F247" s="21" t="s">
-        <v>617</v>
+        <v>719</v>
       </c>
       <c r="G247" s="21" t="s">
-        <v>618</v>
+        <v>720</v>
       </c>
       <c r="H247" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I247" s="8" t="s">
-        <v>742</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="I247" s="8"/>
       <c r="J247" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K247" s="8" t="s">
-        <v>665</v>
+        <v>619</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="20" customHeight="1">
@@ -12714,22 +12779,22 @@
         <v>558</v>
       </c>
       <c r="F248" s="21" t="s">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="G248" s="21" t="s">
-        <v>687</v>
+        <v>722</v>
       </c>
       <c r="H248" s="9" t="s">
-        <v>70</v>
+        <v>393</v>
       </c>
       <c r="I248" s="8" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="J248" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K248" s="8" t="s">
-        <v>709</v>
+        <v>625</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="20" customHeight="1">
@@ -12749,22 +12814,22 @@
         <v>558</v>
       </c>
       <c r="F249" s="21" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="G249" s="21" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>128</v>
+        <v>393</v>
       </c>
       <c r="I249" s="8" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="J249" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K249" s="8" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="20" customHeight="1">
@@ -12784,22 +12849,22 @@
         <v>558</v>
       </c>
       <c r="F250" s="21" t="s">
-        <v>744</v>
+        <v>677</v>
       </c>
       <c r="G250" s="21" t="s">
-        <v>745</v>
+        <v>678</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>699</v>
+        <v>393</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K250" s="8" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="20" customHeight="1">
@@ -12819,22 +12884,22 @@
         <v>558</v>
       </c>
       <c r="F251" s="21" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="G251" s="21" t="s">
-        <v>776</v>
+        <v>680</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>699</v>
+        <v>393</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="J251" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K251" s="8" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="20" customHeight="1">
@@ -12854,20 +12919,22 @@
         <v>558</v>
       </c>
       <c r="F252" s="21" t="s">
-        <v>748</v>
+        <v>681</v>
       </c>
       <c r="G252" s="21" t="s">
-        <v>749</v>
+        <v>682</v>
       </c>
       <c r="H252" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="I252" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="I252" s="8" t="s">
+        <v>725</v>
+      </c>
       <c r="J252" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K252" s="8" t="s">
-        <v>762</v>
+        <v>727</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="20" customHeight="1">
@@ -12887,20 +12954,22 @@
         <v>558</v>
       </c>
       <c r="F253" s="21" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="G253" s="21" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="H253" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="I253" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="I253" s="8" t="s">
+        <v>730</v>
+      </c>
       <c r="J253" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K253" s="8" t="s">
-        <v>762</v>
+        <v>728</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="20" customHeight="1">
@@ -12920,20 +12989,22 @@
         <v>558</v>
       </c>
       <c r="F254" s="21" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="G254" s="21" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="H254" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="I254" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="I254" s="8" t="s">
+        <v>729</v>
+      </c>
       <c r="J254" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K254" s="8" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="20" customHeight="1">
@@ -12953,20 +13024,22 @@
         <v>558</v>
       </c>
       <c r="F255" s="21" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="G255" s="21" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="H255" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="I255" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="I255" s="8" t="s">
+        <v>729</v>
+      </c>
       <c r="J255" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K255" s="8" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="20" customHeight="1">
@@ -12986,20 +13059,22 @@
         <v>558</v>
       </c>
       <c r="F256" s="21" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="G256" s="21" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="H256" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="I256" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="I256" s="8" t="s">
+        <v>729</v>
+      </c>
       <c r="J256" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K256" s="8" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="20" customHeight="1">
@@ -13019,20 +13094,22 @@
         <v>558</v>
       </c>
       <c r="F257" s="21" t="s">
-        <v>758</v>
+        <v>615</v>
       </c>
       <c r="G257" s="21" t="s">
-        <v>759</v>
+        <v>616</v>
       </c>
       <c r="H257" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="I257" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="I257" s="8" t="s">
+        <v>740</v>
+      </c>
       <c r="J257" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K257" s="8" t="s">
-        <v>762</v>
+        <v>663</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="20" customHeight="1">
@@ -13052,20 +13129,22 @@
         <v>558</v>
       </c>
       <c r="F258" s="21" t="s">
-        <v>760</v>
+        <v>617</v>
       </c>
       <c r="G258" s="21" t="s">
-        <v>761</v>
+        <v>618</v>
       </c>
       <c r="H258" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="I258" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="I258" s="8" t="s">
+        <v>741</v>
+      </c>
       <c r="J258" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K258" s="8" t="s">
-        <v>762</v>
+        <v>665</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="20" customHeight="1">
@@ -13085,20 +13164,22 @@
         <v>558</v>
       </c>
       <c r="F259" s="21" t="s">
-        <v>764</v>
+        <v>685</v>
       </c>
       <c r="G259" s="21" t="s">
-        <v>765</v>
+        <v>686</v>
       </c>
       <c r="H259" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="I259" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="I259" s="8" t="s">
+        <v>742</v>
+      </c>
       <c r="J259" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K259" s="8" t="s">
-        <v>773</v>
+        <v>708</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="20" customHeight="1">
@@ -13118,20 +13199,22 @@
         <v>558</v>
       </c>
       <c r="F260" s="21" t="s">
-        <v>767</v>
+        <v>689</v>
       </c>
       <c r="G260" s="21" t="s">
-        <v>768</v>
+        <v>690</v>
       </c>
       <c r="H260" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="I260" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="I260" s="8" t="s">
+        <v>745</v>
+      </c>
       <c r="J260" s="9" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K260" s="8" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="20" customHeight="1">
@@ -13151,18 +13234,22 @@
         <v>558</v>
       </c>
       <c r="F261" s="21" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="G261" s="21" t="s">
-        <v>770</v>
-      </c>
-      <c r="H261" s="9"/>
-      <c r="I261" s="8"/>
+        <v>744</v>
+      </c>
+      <c r="H261" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I261" s="8" t="s">
+        <v>697</v>
+      </c>
       <c r="J261" s="9" t="s">
         <v>342</v>
       </c>
       <c r="K261" s="8" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="20" customHeight="1">
@@ -13182,18 +13269,22 @@
         <v>558</v>
       </c>
       <c r="F262" s="21" t="s">
-        <v>771</v>
+        <v>691</v>
       </c>
       <c r="G262" s="21" t="s">
-        <v>772</v>
-      </c>
-      <c r="H262" s="9"/>
-      <c r="I262" s="8"/>
+        <v>775</v>
+      </c>
+      <c r="H262" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I262" s="8" t="s">
+        <v>697</v>
+      </c>
       <c r="J262" s="9" t="s">
         <v>342</v>
       </c>
       <c r="K262" s="8" t="s">
-        <v>775</v>
+        <v>746</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="20" customHeight="1">
@@ -13201,32 +13292,32 @@
         <v>255</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>374</v>
+        <v>559</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D263" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="E263" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E263" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F263" s="21" t="s">
-        <v>381</v>
+        <v>747</v>
       </c>
       <c r="G263" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="H263" s="9"/>
-      <c r="I263" s="8" t="s">
-        <v>376</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="H263" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="I263" s="8"/>
       <c r="J263" s="9" t="s">
         <v>342</v>
       </c>
       <c r="K263" s="8" t="s">
-        <v>375</v>
+        <v>761</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="20" customHeight="1">
@@ -13234,32 +13325,32 @@
         <v>256</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>374</v>
+        <v>559</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D264" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="E264" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E264" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F264" s="21" t="s">
-        <v>382</v>
+        <v>749</v>
       </c>
       <c r="G264" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="H264" s="9"/>
-      <c r="I264" s="8" t="s">
-        <v>376</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="H264" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="I264" s="8"/>
       <c r="J264" s="9" t="s">
         <v>342</v>
       </c>
       <c r="K264" s="8" t="s">
-        <v>375</v>
+        <v>761</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="20" customHeight="1">
@@ -13267,32 +13358,32 @@
         <v>257</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>374</v>
+        <v>559</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D265" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="E265" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E265" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F265" s="21" t="s">
-        <v>377</v>
+        <v>751</v>
       </c>
       <c r="G265" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="H265" s="9"/>
-      <c r="I265" s="8" t="s">
-        <v>376</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="H265" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="I265" s="8"/>
       <c r="J265" s="9" t="s">
         <v>342</v>
       </c>
       <c r="K265" s="8" t="s">
-        <v>375</v>
+        <v>761</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="20" customHeight="1">
@@ -13300,32 +13391,32 @@
         <v>258</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>374</v>
+        <v>559</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D266" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="E266" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E266" s="16" t="s">
         <v>558</v>
       </c>
       <c r="F266" s="21" t="s">
-        <v>384</v>
+        <v>753</v>
       </c>
       <c r="G266" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="H266" s="9"/>
-      <c r="I266" s="8" t="s">
-        <v>376</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="H266" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="I266" s="8"/>
       <c r="J266" s="9" t="s">
         <v>342</v>
       </c>
       <c r="K266" s="8" t="s">
-        <v>375</v>
+        <v>761</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="20" customHeight="1">
@@ -13333,33 +13424,392 @@
         <v>259</v>
       </c>
       <c r="B267" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E267" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F267" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="G267" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="H267" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="I267" s="8"/>
+      <c r="J267" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K267" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="20" customHeight="1">
+      <c r="A268" s="6">
+        <v>260</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E268" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F268" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="G268" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="H268" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="I268" s="8"/>
+      <c r="J268" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K268" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="20" customHeight="1">
+      <c r="A269" s="6">
+        <v>261</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E269" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F269" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="G269" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="H269" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="I269" s="8"/>
+      <c r="J269" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K269" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="20" customHeight="1">
+      <c r="A270" s="6">
+        <v>262</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E270" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F270" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="G270" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="H270" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="I270" s="8"/>
+      <c r="J270" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K270" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="20" customHeight="1">
+      <c r="A271" s="6">
+        <v>263</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E271" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F271" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="G271" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="H271" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="I271" s="8"/>
+      <c r="J271" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K271" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="20" customHeight="1">
+      <c r="A272" s="6">
+        <v>264</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F272" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="G272" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="H272" s="9"/>
+      <c r="I272" s="8"/>
+      <c r="J272" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K272" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="20" customHeight="1">
+      <c r="A273" s="6">
+        <v>265</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E273" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F273" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="G273" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="H273" s="9"/>
+      <c r="I273" s="8"/>
+      <c r="J273" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K273" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="20" customHeight="1">
+      <c r="A274" s="6">
+        <v>266</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D274" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E274" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="F274" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="G274" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="H274" s="9"/>
+      <c r="I274" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J274" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K274" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="20" customHeight="1">
+      <c r="A275" s="6">
+        <v>267</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E275" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="F275" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="G275" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="H275" s="9"/>
+      <c r="I275" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J275" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K275" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="20" customHeight="1">
+      <c r="A276" s="6">
+        <v>268</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D276" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E276" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="F276" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="G276" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="H276" s="9"/>
+      <c r="I276" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J276" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K276" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="20" customHeight="1">
+      <c r="A277" s="6">
+        <v>269</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D277" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E277" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="F277" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="G277" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="H277" s="9"/>
+      <c r="I277" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J277" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K277" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="20" customHeight="1">
+      <c r="A278" s="6">
+        <v>270</v>
+      </c>
+      <c r="B278" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C267" s="9" t="s">
+      <c r="C278" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D267" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="E267" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="F267" s="19" t="s">
+      <c r="D278" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E278" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="F278" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="G267" s="19" t="s">
+      <c r="G278" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="H267" s="9" t="s">
+      <c r="H278" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I267" s="9" t="s">
+      <c r="I278" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="J267" s="9" t="s">
+      <c r="J278" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K267" s="9" t="s">
+      <c r="K278" s="9" t="s">
         <v>309</v>
       </c>
     </row>
